--- a/data/hotels_by_city/Dallas/Dallas_shard_639.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_639.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2087 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r580822593-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>655851</t>
+  </si>
+  <si>
+    <t>580822593</t>
+  </si>
+  <si>
+    <t>05/17/2018</t>
+  </si>
+  <si>
+    <t>Six Flags Over Texas</t>
+  </si>
+  <si>
+    <t>The stay was perfect. Room was newly renovated with hard wood floors and very clean. Lisa the office helper was very pleasant and friendly. Staff on property was friendly. Educated on Six Flags Over Texas trolley and gave me passes. Would have liked a coffee pot in the room and there was no complimentary breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rashi J, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>The stay was perfect. Room was newly renovated with hard wood floors and very clean. Lisa the office helper was very pleasant and friendly. Staff on property was friendly. Educated on Six Flags Over Texas trolley and gave me passes. Would have liked a coffee pot in the room and there was no complimentary breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r572947810-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>572947810</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Nice updated rooms</t>
+  </si>
+  <si>
+    <t>Rooms have been updated to a modern style and are nicely put together. For being at the intersection of 2 major highways things were pretty quiet. Very close to Six Flags Over Texas and the Arlington Entertainment district, with the Ballpark and Cowboy Stadium and Hurricane Harbor only 5-10 minutes away. Service was a bit slow at the front desk when I went with multiple people in front of me and only 1 person working, but she was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Rooms have been updated to a modern style and are nicely put together. For being at the intersection of 2 major highways things were pretty quiet. Very close to Six Flags Over Texas and the Arlington Entertainment district, with the Ballpark and Cowboy Stadium and Hurricane Harbor only 5-10 minutes away. Service was a bit slow at the front desk when I went with multiple people in front of me and only 1 person working, but she was nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r567564038-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>567564038</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>A Hidden Jewel</t>
+  </si>
+  <si>
+    <t>I spent a week in Dallas area and went through three hotels looking for the best bang for my buck. I wish that I would have went to this one first and save my company money. Don't let the outside exterior fool you. The interior amenities are on par with 4 star accommodations elsewhere. They basically took a old building and remodeled the interior with modern/stylish amenities. This place is definitely a hidden jewel.. Don-MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>I spent a week in Dallas area and went through three hotels looking for the best bang for my buck. I wish that I would have went to this one first and save my company money. Don't let the outside exterior fool you. The interior amenities are on par with 4 star accommodations elsewhere. They basically took a old building and remodeled the interior with modern/stylish amenities. This place is definitely a hidden jewel.. Don-More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r556360211-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>556360211</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>Room very clean</t>
+  </si>
+  <si>
+    <t>Very clean and welcoming room, I literally did a thorough check around the room and found nothing except for some dust on top of the fridge. Give props for housekeeping on doing an excellent job ! I wish I would of left a tip but I was in a rush that I remember when I was on the road. The price is good if have a budget, I don't like the outside vibe it has, makes it look like a rundown hotel.  Thanks again for your welcoming stayMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Tina M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Very clean and welcoming room, I literally did a thorough check around the room and found nothing except for some dust on top of the fridge. Give props for housekeeping on doing an excellent job ! I wish I would of left a tip but I was in a rush that I remember when I was on the road. The price is good if have a budget, I don't like the outside vibe it has, makes it look like a rundown hotel.  Thanks again for your welcoming stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r549406496-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>549406496</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cowboys football </t>
+  </si>
+  <si>
+    <t>Great value. great stayed Very nice front desk lady at check in (room were not ready at1030'sh(am), told to come back around 12pm, Perfect. room were ready when came back to check in. Motel provided FREE shuttle to cowboys stadium MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Great value. great stayed Very nice front desk lady at check in (room were not ready at1030'sh(am), told to come back around 12pm, Perfect. room were ready when came back to check in. Motel provided FREE shuttle to cowboys stadium More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r545963068-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>545963068</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Close to 6 Flags</t>
+  </si>
+  <si>
+    <t>The hotel is dated on the outside, but the room was nice and clean.  The bed was very comfortable.  We were only minutes away from Six Flags too.  I have no complaints about this hotel. We would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded December 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is dated on the outside, but the room was nice and clean.  The bed was very comfortable.  We were only minutes away from Six Flags too.  I have no complaints about this hotel. We would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r542338949-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>542338949</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Nice and clean hotel room. Big room. Bed is comfortable and bathroom sufficient. Easy to find location and a lot of facilities around the motel. I’d recommand coming here if you need a place to stay around Dallas, but not want to be in the expensive centre. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Guest_Relations_2018, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2017</t>
+  </si>
+  <si>
+    <t>Nice and clean hotel room. Big room. Bed is comfortable and bathroom sufficient. Easy to find location and a lot of facilities around the motel. I’d recommand coming here if you need a place to stay around Dallas, but not want to be in the expensive centre. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r540419120-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>540419120</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Just around the corner from the Cowboys stadium, and Six flags. Easy access to the highway in both direction.s</t>
+  </si>
+  <si>
+    <t>Have been staying here almost a month on business. Had a little tv trouble and then they added brand new direct tv boxes with hundreds of channels. Front desk staff has always been great and helpful Ms. Pam is awesome and kind. Clean roombig bed. My stay away from home has been comfortable. I would recommend absolutly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Guest_Relations_2018, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Have been staying here almost a month on business. Had a little tv trouble and then they added brand new direct tv boxes with hundreds of channels. Front desk staff has always been great and helpful Ms. Pam is awesome and kind. Clean roombig bed. My stay away from home has been comfortable. I would recommend absolutly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r539492152-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>539492152</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Dirty room/floors, fell in the shower and broke my ribs, said not our problem</t>
+  </si>
+  <si>
+    <t>The room was dirty, the floors were dirty, dust everywhere, the shower extreamly small and the inside of the tub/shower was slick. I fell and broke my ribs and the manager was rude, said there was nothing they could do about it.  I said you better get that fixed before someone else gets hurt.  I got a we'll look into it and she turned and walked away.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The room was dirty, the floors were dirty, dust everywhere, the shower extreamly small and the inside of the tub/shower was slick. I fell and broke my ribs and the manager was rude, said there was nothing they could do about it.  I said you better get that fixed before someone else gets hurt.  I got a we'll look into it and she turned and walked away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r533569348-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>533569348</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>In Dallas to See Green Bay</t>
+  </si>
+  <si>
+    <t>Came from Iowa, as Green Bay fans to see the game.  Had a great time at the hotel as well as at the game!  Full size refrigerator in the room helped us keep within our trip within our budget.  Coffee in the lobby 24 hours per day.  Front desk staff was so wonderful. Liza, Neal and Prit took very good care of us!  Thank you so much to this staff for answering all of our questions.  They even let us print out our boarding passes for our flight back home.  The room was very clean and very quiet.  Pool was clean and refreshing.  Close to stadium.  Free Shuttle to and from the airport and to and from the game.  Shuttle drivers efficient and polite.  We were treated so well by all of the staff.  The housekeepers were so quiet while they worked.  Often at hotels you hear housekeepers banging doors as they close them.  These housekeepers were so quiet, it was like they cleaned the room with a magic wand.  Everything done perfectly, and without disturbing anyone!!!!  Truly a hidden treasure in the area!!!  Would stay again and would recommend to people on a budget that want to maximize their experience in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandy C, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2017</t>
+  </si>
+  <si>
+    <t>Came from Iowa, as Green Bay fans to see the game.  Had a great time at the hotel as well as at the game!  Full size refrigerator in the room helped us keep within our trip within our budget.  Coffee in the lobby 24 hours per day.  Front desk staff was so wonderful. Liza, Neal and Prit took very good care of us!  Thank you so much to this staff for answering all of our questions.  They even let us print out our boarding passes for our flight back home.  The room was very clean and very quiet.  Pool was clean and refreshing.  Close to stadium.  Free Shuttle to and from the airport and to and from the game.  Shuttle drivers efficient and polite.  We were treated so well by all of the staff.  The housekeepers were so quiet while they worked.  Often at hotels you hear housekeepers banging doors as they close them.  These housekeepers were so quiet, it was like they cleaned the room with a magic wand.  Everything done perfectly, and without disturbing anyone!!!!  Truly a hidden treasure in the area!!!  Would stay again and would recommend to people on a budget that want to maximize their experience in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r524203257-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>524203257</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Very good location for the games</t>
+  </si>
+  <si>
+    <t>Used this location because of the shuttle service to the Cowboys game , glad that it's been renovated , its cleaner ,smells much better now , new furnitures , friendly staff especially the driver who was very efficient in maneuvering around traffic and blocked streets. But best of all is the honesty of the staff , we didn't realize till 3 days later that we left an IPad, called the front desk and lo and behold they have it ! Will use this hotel again for sure .MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2017</t>
+  </si>
+  <si>
+    <t>Used this location because of the shuttle service to the Cowboys game , glad that it's been renovated , its cleaner ,smells much better now , new furnitures , friendly staff especially the driver who was very efficient in maneuvering around traffic and blocked streets. But best of all is the honesty of the staff , we didn't realize till 3 days later that we left an IPad, called the front desk and lo and behold they have it ! Will use this hotel again for sure .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r523644838-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>523644838</t>
+  </si>
+  <si>
+    <t>09/11/2017</t>
+  </si>
+  <si>
+    <t>Nice stay. Great for Cowboys-Rangers games.</t>
+  </si>
+  <si>
+    <t>Ok hotel for the price and nights stay. The staff was very pleasant and accommodating. The free shuttle to and from Cowboys-Rangers games is the best. My wife and I attended the Cowboys vs Giants game on 9/10/17. The return van was easily findable, we were back to the hotel in record time for game day traffic. We would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ok hotel for the price and nights stay. The staff was very pleasant and accommodating. The free shuttle to and from Cowboys-Rangers games is the best. My wife and I attended the Cowboys vs Giants game on 9/10/17. The return van was easily findable, we were back to the hotel in record time for game day traffic. We would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r505199681-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>505199681</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Perfectly pleasant</t>
+  </si>
+  <si>
+    <t>Perfect for one cheap night during our visit to attend a concert at the Verizon Theatre. Right across the highway from Six Flags. Very friendly desk attendant lady. No in room coffee but they always have coffee in the lobby. No frills, no fuss. Quiet. Cool. Comfortable. No complaints! Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Perfect for one cheap night during our visit to attend a concert at the Verizon Theatre. Right across the highway from Six Flags. Very friendly desk attendant lady. No in room coffee but they always have coffee in the lobby. No frills, no fuss. Quiet. Cool. Comfortable. No complaints! Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r504316359-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>504316359</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Not the Ritz but not horrible</t>
+  </si>
+  <si>
+    <t>Upon pulling into the property we were like "uh oh". It looks run down and old. We had trouble getting to the front using GPS cuz of the access road or whatever. The office is on its own and not connected to the rooms. I tell you this in case the sell of burning incense bothers you. The woman at the desk was very pleasant. While we were checking in, it seemed she was dealing with an issue with some unsavory guests . She was handling it all very professionally even though you could sense the stress. This hotel looks out at 6 flags depending on the room. Its cool to see the lights at night and even hear the screams! The room had a musty smell. However it had been updated which was evident. The full size fridge was a bonus as in Texas you need ALOT of water!! I was attending a conference at the stadium and it was easy to get too and close. This two story hotel hosts lots of families for the park. So we dealt with lots of running around above us and screaming. I have kids so it didn't bother me too much. Next time I am on business, I would pick something else if its summer vacay season. There is a pool. Its like, in the parking lot and you won't swim laps but the kids will be wet so they will...Upon pulling into the property we were like "uh oh". It looks run down and old. We had trouble getting to the front using GPS cuz of the access road or whatever. The office is on its own and not connected to the rooms. I tell you this in case the sell of burning incense bothers you. The woman at the desk was very pleasant. While we were checking in, it seemed she was dealing with an issue with some unsavory guests . She was handling it all very professionally even though you could sense the stress. This hotel looks out at 6 flags depending on the room. Its cool to see the lights at night and even hear the screams! The room had a musty smell. However it had been updated which was evident. The full size fridge was a bonus as in Texas you need ALOT of water!! I was attending a conference at the stadium and it was easy to get too and close. This two story hotel hosts lots of families for the park. So we dealt with lots of running around above us and screaming. I have kids so it didn't bother me too much. Next time I am on business, I would pick something else if its summer vacay season. There is a pool. Its like, in the parking lot and you won't swim laps but the kids will be wet so they will love it. Overall if someone told me there were staying here I would not try to talk them out of it like I would some places.  I hope my review was helpful! If so please click "YES"!MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2017</t>
+  </si>
+  <si>
+    <t>Upon pulling into the property we were like "uh oh". It looks run down and old. We had trouble getting to the front using GPS cuz of the access road or whatever. The office is on its own and not connected to the rooms. I tell you this in case the sell of burning incense bothers you. The woman at the desk was very pleasant. While we were checking in, it seemed she was dealing with an issue with some unsavory guests . She was handling it all very professionally even though you could sense the stress. This hotel looks out at 6 flags depending on the room. Its cool to see the lights at night and even hear the screams! The room had a musty smell. However it had been updated which was evident. The full size fridge was a bonus as in Texas you need ALOT of water!! I was attending a conference at the stadium and it was easy to get too and close. This two story hotel hosts lots of families for the park. So we dealt with lots of running around above us and screaming. I have kids so it didn't bother me too much. Next time I am on business, I would pick something else if its summer vacay season. There is a pool. Its like, in the parking lot and you won't swim laps but the kids will be wet so they will...Upon pulling into the property we were like "uh oh". It looks run down and old. We had trouble getting to the front using GPS cuz of the access road or whatever. The office is on its own and not connected to the rooms. I tell you this in case the sell of burning incense bothers you. The woman at the desk was very pleasant. While we were checking in, it seemed she was dealing with an issue with some unsavory guests . She was handling it all very professionally even though you could sense the stress. This hotel looks out at 6 flags depending on the room. Its cool to see the lights at night and even hear the screams! The room had a musty smell. However it had been updated which was evident. The full size fridge was a bonus as in Texas you need ALOT of water!! I was attending a conference at the stadium and it was easy to get too and close. This two story hotel hosts lots of families for the park. So we dealt with lots of running around above us and screaming. I have kids so it didn't bother me too much. Next time I am on business, I would pick something else if its summer vacay season. There is a pool. Its like, in the parking lot and you won't swim laps but the kids will be wet so they will love it. Overall if someone told me there were staying here I would not try to talk them out of it like I would some places.  I hope my review was helpful! If so please click "YES"!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r503194658-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>503194658</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Highly Recommended</t>
+  </si>
+  <si>
+    <t>My family and I have stayed at the Red Roof on 360 in Arlington by Six Flags every time we come into town and the staff is very nice to make sure we had clean beds,towels,and a spotless room.The front desk is very helpful to assist in the Trolly bus that will take you to the ATT stadium,The Ballpark in Arlington,and also Six Flags which saves gas and having to pay for parking. The Red Roof not only makes sure your stay is great but also will go to great lengths to make sure that it is the best stay you will ever have.We have stayed in rooms 290,181,115 and the rooms were contemporary styled,flat screen TV,fast wifi,and complimentory coffee in the lobby that is just as good as Starbucks.I will always come to the Red Roof on 360 and I-30 every time I come to town over any other Hotel in Arlington,TX.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My family and I have stayed at the Red Roof on 360 in Arlington by Six Flags every time we come into town and the staff is very nice to make sure we had clean beds,towels,and a spotless room.The front desk is very helpful to assist in the Trolly bus that will take you to the ATT stadium,The Ballpark in Arlington,and also Six Flags which saves gas and having to pay for parking. The Red Roof not only makes sure your stay is great but also will go to great lengths to make sure that it is the best stay you will ever have.We have stayed in rooms 290,181,115 and the rooms were contemporary styled,flat screen TV,fast wifi,and complimentory coffee in the lobby that is just as good as Starbucks.I will always come to the Red Roof on 360 and I-30 every time I come to town over any other Hotel in Arlington,TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r496213539-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>496213539</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>PLEASE DO NOT WASTE YOUR TIME AND MONEY</t>
+  </si>
+  <si>
+    <t>If there was a way to give no stars I would! Long story short PLEASE DO NOT WASTE YOUR MONEY ON THIS ESTABLISHMENT!!! The service was TERRIBLE especially the attitude of the "general manager" PAM (there should really be a more competitive selection process for more competent upper management), the room was TERRIBLE, the location was SKETCHY. Ended up cancelling after the first night, for an original 5 day stay! Then the cherry on top was when I called their corporate office and sent a detailed email of my horrific experience along with pictures, their response was "sorry." While we both were shared an understanding that their establishment and service was just that, "sorry," still did not resolve the issue of my TERRIBLE EXPERIENCE.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>If there was a way to give no stars I would! Long story short PLEASE DO NOT WASTE YOUR MONEY ON THIS ESTABLISHMENT!!! The service was TERRIBLE especially the attitude of the "general manager" PAM (there should really be a more competitive selection process for more competent upper management), the room was TERRIBLE, the location was SKETCHY. Ended up cancelling after the first night, for an original 5 day stay! Then the cherry on top was when I called their corporate office and sent a detailed email of my horrific experience along with pictures, their response was "sorry." While we both were shared an understanding that their establishment and service was just that, "sorry," still did not resolve the issue of my TERRIBLE EXPERIENCE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r496020811-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>496020811</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Pet owners beware... the owners/management BITES!</t>
+  </si>
+  <si>
+    <t>I booked this hotel online in advance because we were moving across the country with our two dogs.  When we arrived at the hotel at 11:00pm after driving ten hours the manager (owner?) refused to let us stay because we had more than one pet.  I put on the reservation notes that we had two dogs ahead of time- so it's not like I was trying to hide anything.  We even offered to pay, but the (extremely rude) woman declared that their policy was to allow only one pet per room.  No exceptions.  This was a horrible night- we were exhausted and had to scramble to find another place to stay.  THis place should have been HAPPY to accept my two well-behaved dogs because without this policy I would have NEVER booked this hotel.  It was extremely hard to get to (on a road parallel to highway with restricted entries/exits- GPS was VERY confused) and is located near a bunch of closed up businesses.MoreShow less</t>
+  </si>
+  <si>
+    <t>General M, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel online in advance because we were moving across the country with our two dogs.  When we arrived at the hotel at 11:00pm after driving ten hours the manager (owner?) refused to let us stay because we had more than one pet.  I put on the reservation notes that we had two dogs ahead of time- so it's not like I was trying to hide anything.  We even offered to pay, but the (extremely rude) woman declared that their policy was to allow only one pet per room.  No exceptions.  This was a horrible night- we were exhausted and had to scramble to find another place to stay.  THis place should have been HAPPY to accept my two well-behaved dogs because without this policy I would have NEVER booked this hotel.  It was extremely hard to get to (on a road parallel to highway with restricted entries/exits- GPS was VERY confused) and is located near a bunch of closed up businesses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r494358321-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>494358321</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Great for an overnight stay</t>
+  </si>
+  <si>
+    <t>We were in town for the Metallica concert and looked this place up online. It was the first one shown on booking.com. We got there early and got checked in right away. The lady behind the counter was patient with us and very nice. The room we got was in the middle building on the first floor by the pool. The room itself was nice. Full sized refrigerator, a microwave, hair dryer. Air conditioner was already on and cool when we got there which was nice. The beds were comfortable and slept soundly. No loud parties or people, at least none we could hear. I would definitely stay again. A big plus was the free shuttle to AT&amp;T Stadium to and from the concert!!MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>We were in town for the Metallica concert and looked this place up online. It was the first one shown on booking.com. We got there early and got checked in right away. The lady behind the counter was patient with us and very nice. The room we got was in the middle building on the first floor by the pool. The room itself was nice. Full sized refrigerator, a microwave, hair dryer. Air conditioner was already on and cool when we got there which was nice. The beds were comfortable and slept soundly. No loud parties or people, at least none we could hear. I would definitely stay again. A big plus was the free shuttle to AT&amp;T Stadium to and from the concert!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r489226800-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>489226800</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>Stayed for a quick holiday weekend trip to Six Flags Over Texas.</t>
+  </si>
+  <si>
+    <t>I'm going to be as fair as I can about our stay at this place. To be honest, the room wasn't just horrible. The air conditioner worked just fine, the beds were just ok, no carpet so no real smell, everything worked except for internet. They say free wifi, yep, wifi worked but didn't connect to the internet so I guess there's truth in their advertising. Lol. Our room did have a much larger refrigerator than I expected and worked just fine. The outside of the place is just scary, barbed wire fences around the property, to make you feel safe I guess. The hotel itself looks like it's been limped along since the 60's, adding another coat of paint every couple of years to cover the rotting exterior. 
+The pool looked clean except for the stained bottom. In the pool area there was a repurposed chemical container being used as a trash can. The office was a dingy little room with a counter, complimentary computer area, and a coffee pot. In our room we had no tissues so when I asked for some I was directed to take some napkins from the office coffee pot area. The person at the desk barely understood English. Did not understand what I was asking for when I said Kleenex. 
+The ONLY reason we stayed there was because it was close to Six Flags. Well, it was close enough that we could see...I'm going to be as fair as I can about our stay at this place. To be honest, the room wasn't just horrible. The air conditioner worked just fine, the beds were just ok, no carpet so no real smell, everything worked except for internet. They say free wifi, yep, wifi worked but didn't connect to the internet so I guess there's truth in their advertising. Lol. Our room did have a much larger refrigerator than I expected and worked just fine. The outside of the place is just scary, barbed wire fences around the property, to make you feel safe I guess. The hotel itself looks like it's been limped along since the 60's, adding another coat of paint every couple of years to cover the rotting exterior. The pool looked clean except for the stained bottom. In the pool area there was a repurposed chemical container being used as a trash can. The office was a dingy little room with a counter, complimentary computer area, and a coffee pot. In our room we had no tissues so when I asked for some I was directed to take some napkins from the office coffee pot area. The person at the desk barely understood English. Did not understand what I was asking for when I said Kleenex. The ONLY reason we stayed there was because it was close to Six Flags. Well, it was close enough that we could see it from our room and there was a Trolley that picked us up and brought us back from the park but we will NEVER stay there again. If I'm real honest, The place couldn't charge more than $50 a night if they weren't so close to some important area attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>I'm going to be as fair as I can about our stay at this place. To be honest, the room wasn't just horrible. The air conditioner worked just fine, the beds were just ok, no carpet so no real smell, everything worked except for internet. They say free wifi, yep, wifi worked but didn't connect to the internet so I guess there's truth in their advertising. Lol. Our room did have a much larger refrigerator than I expected and worked just fine. The outside of the place is just scary, barbed wire fences around the property, to make you feel safe I guess. The hotel itself looks like it's been limped along since the 60's, adding another coat of paint every couple of years to cover the rotting exterior. 
+The pool looked clean except for the stained bottom. In the pool area there was a repurposed chemical container being used as a trash can. The office was a dingy little room with a counter, complimentary computer area, and a coffee pot. In our room we had no tissues so when I asked for some I was directed to take some napkins from the office coffee pot area. The person at the desk barely understood English. Did not understand what I was asking for when I said Kleenex. 
+The ONLY reason we stayed there was because it was close to Six Flags. Well, it was close enough that we could see...I'm going to be as fair as I can about our stay at this place. To be honest, the room wasn't just horrible. The air conditioner worked just fine, the beds were just ok, no carpet so no real smell, everything worked except for internet. They say free wifi, yep, wifi worked but didn't connect to the internet so I guess there's truth in their advertising. Lol. Our room did have a much larger refrigerator than I expected and worked just fine. The outside of the place is just scary, barbed wire fences around the property, to make you feel safe I guess. The hotel itself looks like it's been limped along since the 60's, adding another coat of paint every couple of years to cover the rotting exterior. The pool looked clean except for the stained bottom. In the pool area there was a repurposed chemical container being used as a trash can. The office was a dingy little room with a counter, complimentary computer area, and a coffee pot. In our room we had no tissues so when I asked for some I was directed to take some napkins from the office coffee pot area. The person at the desk barely understood English. Did not understand what I was asking for when I said Kleenex. The ONLY reason we stayed there was because it was close to Six Flags. Well, it was close enough that we could see it from our room and there was a Trolley that picked us up and brought us back from the park but we will NEVER stay there again. If I'm real honest, The place couldn't charge more than $50 a night if they weren't so close to some important area attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r488098979-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>488098979</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>BE WARNED! Do not be fooled by the pictures</t>
+  </si>
+  <si>
+    <t>Do not let the renovated rooms and pictures fool you.  I was put in a room that was renovated but the smell that you get from the room smelled like old mustiness.  Then my husband decided inspect the beds and found a disgusting looking stain.  The floors make me not want to take my shoes off and the AC wasn't cold enough to mask the smell! UGH! We couldn't will ourselves to stay there.I wanted a refund but they would not give me back my full refund because I was in the hotel for longer than 10 mins....  Customer service was not accommodating at all.  I've stayed at other Red Roofs before and loved it.  This one is a franchise.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Do not let the renovated rooms and pictures fool you.  I was put in a room that was renovated but the smell that you get from the room smelled like old mustiness.  Then my husband decided inspect the beds and found a disgusting looking stain.  The floors make me not want to take my shoes off and the AC wasn't cold enough to mask the smell! UGH! We couldn't will ourselves to stay there.I wanted a refund but they would not give me back my full refund because I was in the hotel for longer than 10 mins....  Customer service was not accommodating at all.  I've stayed at other Red Roofs before and loved it.  This one is a franchise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r472382324-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>472382324</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Don't judge this book by its cover!</t>
+  </si>
+  <si>
+    <t>This hotel when you drive up looks like it's been there quite a while. However, they are in the process of renovating the property. I was lucky enough to get one of the renovated rooms. It was clean and fresh, it had enough drawers and horizontal space for all our stuff. One of the things I really liked was the refrigerator. Instead of having a "mini-fridge" it had a very narrow full sized refrigerator. It also had a microwave. This allowed us to bring frozen food for breakfast and microwave it before we started our day at 6:00 am! The staff were friendly. Check in and check out were hassle free. Definitely recommend this property if you're in Arlington!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>This hotel when you drive up looks like it's been there quite a while. However, they are in the process of renovating the property. I was lucky enough to get one of the renovated rooms. It was clean and fresh, it had enough drawers and horizontal space for all our stuff. One of the things I really liked was the refrigerator. Instead of having a "mini-fridge" it had a very narrow full sized refrigerator. It also had a microwave. This allowed us to bring frozen food for breakfast and microwave it before we started our day at 6:00 am! The staff were friendly. Check in and check out were hassle free. Definitely recommend this property if you're in Arlington!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r445646739-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>445646739</t>
+  </si>
+  <si>
+    <t>12/20/2016</t>
+  </si>
+  <si>
+    <t>Cowboys game</t>
+  </si>
+  <si>
+    <t>Came to watch the Cowboys game. Good place to stay for the game. They shuttle you to the game and back so that's a plus. Close to places to eat and drink. Room was nice and clean. Will book here again when I catch another game. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2016</t>
+  </si>
+  <si>
+    <t>Came to watch the Cowboys game. Good place to stay for the game. They shuttle you to the game and back so that's a plus. Close to places to eat and drink. Room was nice and clean. Will book here again when I catch another game. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r427120156-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>427120156</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFL football </t>
+  </si>
+  <si>
+    <t>Knights Inn Arlington was a nice place. No carpet in our room. Not the cleanest floor, but ok for the price in the area. The check in area &amp; breakfast area is a bit odd but the hotel in general is fine. One thing we learned was other hotel shuttle will not pick up before the end of the game. We ended up having to call Uber. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2016</t>
+  </si>
+  <si>
+    <t>Knights Inn Arlington was a nice place. No carpet in our room. Not the cleanest floor, but ok for the price in the area. The check in area &amp; breakfast area is a bit odd but the hotel in general is fine. One thing we learned was other hotel shuttle will not pick up before the end of the game. We ended up having to call Uber. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r424559752-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>424559752</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Cowboys Game Close to Stadium Nights Outt</t>
+  </si>
+  <si>
+    <t>Good place to pregame tailgate, ride to and pickup following the game provided.  Rooms are worth the bathroom for a tailgating.  You are not going to take off your socks or shorts.  Outside of a game weekend it's a rent by the week flee house.  On a one way street needing urban renewal, good Mexican restaurant nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Good place to pregame tailgate, ride to and pickup following the game provided.  Rooms are worth the bathroom for a tailgating.  You are not going to take off your socks or shorts.  Outside of a game weekend it's a rent by the week flee house.  On a one way street needing urban renewal, good Mexican restaurant nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r411395087-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>411395087</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Knights Inn Arlington Texas</t>
+  </si>
+  <si>
+    <t>This accommodation is strictly no frills but excellent value for the money. Although some of the furnishings in the lobby looked shabby, the room was clean and staff exceptionally helpful.  The woman at the receptionist desk offered to print out my boarding pass if I texted her my itinerary (there is no guest computer access at Knights Inn) and helped me out when I was having trouble with the Uber app on my phone.  The location is ideal for anyone planning to visit Six Flags Over Texas. (You can see the park from Knights Inn and even watch the roller coasters.) That was the purpose of my trip to Arlington and one of the reasons I chose Knights Inn is that they offer free shuttle service to and from the park.  Also, this accommodation is within walking distance of a convenience store that sells food, beer, wine, etc.  The complimentary breakfast was good and included waffles.  I stayed at the Knights Inn for two nights and it cost me approximately $58.50 per night.  At that price it was a very good deal.  I would definitely stay there again if I decided to go back to Six Flags Over Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded August 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2016</t>
+  </si>
+  <si>
+    <t>This accommodation is strictly no frills but excellent value for the money. Although some of the furnishings in the lobby looked shabby, the room was clean and staff exceptionally helpful.  The woman at the receptionist desk offered to print out my boarding pass if I texted her my itinerary (there is no guest computer access at Knights Inn) and helped me out when I was having trouble with the Uber app on my phone.  The location is ideal for anyone planning to visit Six Flags Over Texas. (You can see the park from Knights Inn and even watch the roller coasters.) That was the purpose of my trip to Arlington and one of the reasons I chose Knights Inn is that they offer free shuttle service to and from the park.  Also, this accommodation is within walking distance of a convenience store that sells food, beer, wine, etc.  The complimentary breakfast was good and included waffles.  I stayed at the Knights Inn for two nights and it cost me approximately $58.50 per night.  At that price it was a very good deal.  I would definitely stay there again if I decided to go back to Six Flags Over Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r403406412-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>403406412</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Guns and Roses concert!!</t>
+  </si>
+  <si>
+    <t>This is a basic hotel, if you will use it just to sleep, that's excellent, continental breakfast, outside pool, near the Dallas cowboys stadium, rangers stadium and six flags....hotel personnel were very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded August 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2016</t>
+  </si>
+  <si>
+    <t>This is a basic hotel, if you will use it just to sleep, that's excellent, continental breakfast, outside pool, near the Dallas cowboys stadium, rangers stadium and six flags....hotel personnel were very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r401488236-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>401488236</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Super convenient</t>
+  </si>
+  <si>
+    <t>We were in town for a concert and chose this hotel mainly because they offered shuttle service to AT &amp; T Stadium. It is in a perfect location for most local tourist attractions. Our room was clean, and staff was friendly. Free breakfast is also a plus. I would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded August 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2016</t>
+  </si>
+  <si>
+    <t>We were in town for a concert and chose this hotel mainly because they offered shuttle service to AT &amp; T Stadium. It is in a perfect location for most local tourist attractions. Our room was clean, and staff was friendly. Free breakfast is also a plus. I would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r378265282-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>378265282</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Convienent, cheap, good place to crash</t>
+  </si>
+  <si>
+    <t>This motel is just blocks away from Six Flags (great place to stay and walk to).  It's about 1 1/2 miles from Globe Life Park (and a little bit further from AT&amp;T Stadium) but they actually do shuttles to/from for your convenience.I accidentally booked a smoking room, and being a non-smoker I wasn't too happy with the residual smoke smell in the room--but this is not their fault, as it was my accident in booking.  The floors were wood laminate, nicely done (not sure if the non smoking rooms were carpeted).  Cannot vouch for the TV in the room as we actually didn't use while we were there.  Microwave and fridge in room.  Vending machine out by the office but also there is a gas station next door for more snacks.  Staff were very nice.  Would stay here again if in the area.  I would recommend for others if looking for an inexpensive place to crash.  Free wifi.  Downside is it said it had a "business center" so we would be able to print our boarding passes, but when we got there there were no computers or printers anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded June 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2016</t>
+  </si>
+  <si>
+    <t>This motel is just blocks away from Six Flags (great place to stay and walk to).  It's about 1 1/2 miles from Globe Life Park (and a little bit further from AT&amp;T Stadium) but they actually do shuttles to/from for your convenience.I accidentally booked a smoking room, and being a non-smoker I wasn't too happy with the residual smoke smell in the room--but this is not their fault, as it was my accident in booking.  The floors were wood laminate, nicely done (not sure if the non smoking rooms were carpeted).  Cannot vouch for the TV in the room as we actually didn't use while we were there.  Microwave and fridge in room.  Vending machine out by the office but also there is a gas station next door for more snacks.  Staff were very nice.  Would stay here again if in the area.  I would recommend for others if looking for an inexpensive place to crash.  Free wifi.  Downside is it said it had a "business center" so we would be able to print our boarding passes, but when we got there there were no computers or printers anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r362143614-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362143614</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Nice stay at the Knight's Inn</t>
+  </si>
+  <si>
+    <t>My son and I checked in for the WrestleMania weekend.  Check-in was efficient and friendly.  The manager gave us directions to local restaurants and apologized for the work going on as they updated.  It was obvious that improvements were being made.   Our room was updated and was very suitable for our 6 day stay.  It was convenient to gas, restaurants and highways.  It is not a luxury hotel, but very good for a visit to Arlington.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>My son and I checked in for the WrestleMania weekend.  Check-in was efficient and friendly.  The manager gave us directions to local restaurants and apologized for the work going on as they updated.  It was obvious that improvements were being made.   Our room was updated and was very suitable for our 6 day stay.  It was convenient to gas, restaurants and highways.  It is not a luxury hotel, but very good for a visit to Arlington.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r357605871-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>357605871</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>My room was nice and clean. Good price for stay. Staff was really nice. Good shower with lots of water pressure. Bed was very comfortable.Towels were soft, floor was nice and clean.The location is great... just a few minutes from everything !!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded March 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2016</t>
+  </si>
+  <si>
+    <t>My room was nice and clean. Good price for stay. Staff was really nice. Good shower with lots of water pressure. Bed was very comfortable.Towels were soft, floor was nice and clean.The location is great... just a few minutes from everything !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r342200383-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>342200383</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>Picked this hotel based solely on the shuttle to AT&amp;T Stadium. The shuttle was very convienent and made our stay. Leaves from the lobby area and drops you off a few blocks from the stadium at a stop marked with a Knights Inn sign. Picks up from the same spot you are dropped off at after your event.Breakfast was below average even for a cheap continental breakfast. The room was clean. The environment was comfortable and quiet. Room had a full refrigerator and a microwave. The location of the hotel is excellent. Not only near the football and baseball stadiums, but also right by Six flags. Also, it is located at the corner of an intersection of two major freeways so getting to anywhere you want to go in the DFW area is very easy and convenient. If you are searching for a hotel in this type of price range then you know what to expect. Its not a place with tons of ammenities, but it was a perfectly fine place to sleep. Which is all we really needed. For the money it was an excellent stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Picked this hotel based solely on the shuttle to AT&amp;T Stadium. The shuttle was very convienent and made our stay. Leaves from the lobby area and drops you off a few blocks from the stadium at a stop marked with a Knights Inn sign. Picks up from the same spot you are dropped off at after your event.Breakfast was below average even for a cheap continental breakfast. The room was clean. The environment was comfortable and quiet. Room had a full refrigerator and a microwave. The location of the hotel is excellent. Not only near the football and baseball stadiums, but also right by Six flags. Also, it is located at the corner of an intersection of two major freeways so getting to anywhere you want to go in the DFW area is very easy and convenient. If you are searching for a hotel in this type of price range then you know what to expect. Its not a place with tons of ammenities, but it was a perfectly fine place to sleep. Which is all we really needed. For the money it was an excellent stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r339817123-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>339817123</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>Great place and awesome prices</t>
+  </si>
+  <si>
+    <t>Booked room online,  saved over $25 per night. King size bed,  couch and even a refrigerator. Restaurants are close by. Y even have an outdoor pool,  that's still open. Would recommend this place. They even have free breakfast MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Booked room online,  saved over $25 per night. King size bed,  couch and even a refrigerator. Restaurants are close by. Y even have an outdoor pool,  that's still open. Would recommend this place. They even have free breakfast More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r335798775-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>335798775</t>
+  </si>
+  <si>
+    <t>12/29/2015</t>
+  </si>
+  <si>
+    <t>Adequate</t>
+  </si>
+  <si>
+    <t>Not much to say about this hotel. It was adequate. It met my needs but I would probably look for someplace different to stay next time.I really enjoyed the Texas shaped waffles however. THAT was the highlight of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Not much to say about this hotel. It was adequate. It met my needs but I would probably look for someplace different to stay next time.I really enjoyed the Texas shaped waffles however. THAT was the highlight of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r320735100-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>320735100</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Atlanta vs. Dallas</t>
+  </si>
+  <si>
+    <t>We traveled here to go to watch the Falcons take on the Cowboys. Was a little nervous giving the mixed reviews, but everything turned out fine. They offer a shuttle to and from the game, which made our trip. There are signs at the pickup area for the hotel shuttle. Breakfast was fine. It does look like it needs a bit of maintenance on the outside, but the rooms were fine. We really just needed a place to shower and sleep and wanted to use the shuttle. Very close to Six Flags if in the area for that.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>We traveled here to go to watch the Falcons take on the Cowboys. Was a little nervous giving the mixed reviews, but everything turned out fine. They offer a shuttle to and from the game, which made our trip. There are signs at the pickup area for the hotel shuttle. Breakfast was fine. It does look like it needs a bit of maintenance on the outside, but the rooms were fine. We really just needed a place to shower and sleep and wanted to use the shuttle. Very close to Six Flags if in the area for that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r310936523-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>310936523</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Football game in AT&amp;T Stadium</t>
+  </si>
+  <si>
+    <t>Reserved rooms here for the Wisconsin Alabama game. Hotel worked out great! (game, not so much) We were a bunch of guys, with average guy standards.     Outside of the hotel looks sketchy, but rooms were nice. Working air conditioner and tv with free HBO. Full size refridgerator and small microwave included. Bathrooms small, but recently upgraded to marble. Sink/countertop in room, with separate toilet/shower. Plenty of towels. Strong wifi in rooms and even by the pool. Different wifi in each building (three buildings with rooms and one for lobby). Code was hotel telephone #, which is on the back of the keycards.
+  The pool was fine, although they could use some more/newer chairs snd loungers. And a large dedicated trash can. Everyone just used the empty planters! Hours were 11 a.m. to 10 p.m..The water was wondeful as it was 95+ degrees outside. I don't believe the pool was heated.
+  Small breakfast included in room by the lobby. Cereals, muffins, bread, waffles (in the shape of Texas!), juices, coffee, etc. Open at 7 a.m.. Since there is also a microwave in the breakfast room and you have a refrigerator in your room, pick up some frozen sausages, precooked bacon or frozen breakfast sandwiches or omelets ro supplement the carbfest offered by the hotel. There's a Walmart about 2 miles away, over by the stadium. Don't forget poolside snacks/drinks!
+  The icemaker is in a little room outside by the lobby. Staff...  Reserved rooms here for the Wisconsin Alabama game. Hotel worked out great! (game, not so much) We were a bunch of guys, with average guy standards.     Outside of the hotel looks sketchy, but rooms were nice. Working air conditioner and tv with free HBO. Full size refridgerator and small microwave included. Bathrooms small, but recently upgraded to marble. Sink/countertop in room, with separate toilet/shower. Plenty of towels. Strong wifi in rooms and even by the pool. Different wifi in each building (three buildings with rooms and one for lobby). Code was hotel telephone #, which is on the back of the keycards.  The pool was fine, although they could use some more/newer chairs snd loungers. And a large dedicated trash can. Everyone just used the empty planters! Hours were 11 a.m. to 10 p.m..The water was wondeful as it was 95+ degrees outside. I don't believe the pool was heated.  Small breakfast included in room by the lobby. Cereals, muffins, bread, waffles (in the shape of Texas!), juices, coffee, etc. Open at 7 a.m.. Since there is also a microwave in the breakfast room and you have a refrigerator in your room, pick up some frozen sausages, precooked bacon or frozen breakfast sandwiches or omelets ro supplement the carbfest offered by the hotel. There's a Walmart about 2 miles away, over by the stadium. Don't forget poolside snacks/drinks!  The icemaker is in a little room outside by the lobby. Staff at the hotel were nice. They responded quickly to any issues and were helpful. There are sign-up sheets at the front desk for the shuttle to the stadium. As the AT&amp;T stadium shares parking lots with the Texas Rangers Stadium, the shuttle goes to a pick-up point between the two. There are also cabs circling, in case you don't want to wait. The shuttle worked fine for us.There is a sign with the hotel's name at the pick-up point. We were told that the shuttle could also be used when going out to area bars at night, but didn't actually use this service.  The big restaurant next door had closed down and was for sale. Next to that, however, is a Tex/Mex restaurant, which was excellent. Other fast food restuarants in walking distance, but need car/shuttle/cab for nicer options. Told there was a grood Hooters style redneck bar across the Highway, but never made it there ourselves.  All in all, we had a pretty decent experience here. Rooms were clean and well air conditioned. Pool, shuttle, breakfast, plenty of parking and good wifi. Don't expect fancy and it will be fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2015</t>
+  </si>
+  <si>
+    <t>Reserved rooms here for the Wisconsin Alabama game. Hotel worked out great! (game, not so much) We were a bunch of guys, with average guy standards.     Outside of the hotel looks sketchy, but rooms were nice. Working air conditioner and tv with free HBO. Full size refridgerator and small microwave included. Bathrooms small, but recently upgraded to marble. Sink/countertop in room, with separate toilet/shower. Plenty of towels. Strong wifi in rooms and even by the pool. Different wifi in each building (three buildings with rooms and one for lobby). Code was hotel telephone #, which is on the back of the keycards.
+  The pool was fine, although they could use some more/newer chairs snd loungers. And a large dedicated trash can. Everyone just used the empty planters! Hours were 11 a.m. to 10 p.m..The water was wondeful as it was 95+ degrees outside. I don't believe the pool was heated.
+  Small breakfast included in room by the lobby. Cereals, muffins, bread, waffles (in the shape of Texas!), juices, coffee, etc. Open at 7 a.m.. Since there is also a microwave in the breakfast room and you have a refrigerator in your room, pick up some frozen sausages, precooked bacon or frozen breakfast sandwiches or omelets ro supplement the carbfest offered by the hotel. There's a Walmart about 2 miles away, over by the stadium. Don't forget poolside snacks/drinks!
+  The icemaker is in a little room outside by the lobby. Staff...  Reserved rooms here for the Wisconsin Alabama game. Hotel worked out great! (game, not so much) We were a bunch of guys, with average guy standards.     Outside of the hotel looks sketchy, but rooms were nice. Working air conditioner and tv with free HBO. Full size refridgerator and small microwave included. Bathrooms small, but recently upgraded to marble. Sink/countertop in room, with separate toilet/shower. Plenty of towels. Strong wifi in rooms and even by the pool. Different wifi in each building (three buildings with rooms and one for lobby). Code was hotel telephone #, which is on the back of the keycards.  The pool was fine, although they could use some more/newer chairs snd loungers. And a large dedicated trash can. Everyone just used the empty planters! Hours were 11 a.m. to 10 p.m..The water was wondeful as it was 95+ degrees outside. I don't believe the pool was heated.  Small breakfast included in room by the lobby. Cereals, muffins, bread, waffles (in the shape of Texas!), juices, coffee, etc. Open at 7 a.m.. Since there is also a microwave in the breakfast room and you have a refrigerator in your room, pick up some frozen sausages, precooked bacon or frozen breakfast sandwiches or omelets ro supplement the carbfest offered by the hotel. There's a Walmart about 2 miles away, over by the stadium. Don't forget poolside snacks/drinks!  The icemaker is in a little room outside by the lobby. Staff at the hotel were nice. They responded quickly to any issues and were helpful. There are sign-up sheets at the front desk for the shuttle to the stadium. As the AT&amp;T stadium shares parking lots with the Texas Rangers Stadium, the shuttle goes to a pick-up point between the two. There are also cabs circling, in case you don't want to wait. The shuttle worked fine for us.There is a sign with the hotel's name at the pick-up point. We were told that the shuttle could also be used when going out to area bars at night, but didn't actually use this service.  The big restaurant next door had closed down and was for sale. Next to that, however, is a Tex/Mex restaurant, which was excellent. Other fast food restuarants in walking distance, but need car/shuttle/cab for nicer options. Told there was a grood Hooters style redneck bar across the Highway, but never made it there ourselves.  All in all, we had a pretty decent experience here. Rooms were clean and well air conditioned. Pool, shuttle, breakfast, plenty of parking and good wifi. Don't expect fancy and it will be fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r297294730-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>297294730</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Many problems easily seen</t>
+  </si>
+  <si>
+    <t>Now, I don't like writing complaints but with this motel it's hard not to. Basically, many gross things were seen. There was hair in the tub, the refrigerator was nasty and had yellow stains all over it. The paint on the three buildings where the rooms were located was chipping off and needed some touch-up. There were stains on the bed sheets, the towels were rough and scratchy. The pool area, almost all the chairs were worn, some were dirty. The only good things were the location near the Global Life Park, AT&amp;T Stadium, the older guy that drove the shuttle bus was nice and seemed to be the only one who worked there that seemed to know what he was doing. The beds were comfortable.There is no way in hell I'll ever stay at this cheap motel ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2016</t>
+  </si>
+  <si>
+    <t>Now, I don't like writing complaints but with this motel it's hard not to. Basically, many gross things were seen. There was hair in the tub, the refrigerator was nasty and had yellow stains all over it. The paint on the three buildings where the rooms were located was chipping off and needed some touch-up. There were stains on the bed sheets, the towels were rough and scratchy. The pool area, almost all the chairs were worn, some were dirty. The only good things were the location near the Global Life Park, AT&amp;T Stadium, the older guy that drove the shuttle bus was nice and seemed to be the only one who worked there that seemed to know what he was doing. The beds were comfortable.There is no way in hell I'll ever stay at this cheap motel ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r288501144-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>288501144</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Total Dump</t>
+  </si>
+  <si>
+    <t>The bed was horrible.  The room was "clean" but was in desperate need of an upgrade.  The walls and doors looked like they hadn't been pained in 30 years.  The floors were uneven.  The TV listed 30 or so stations but many didn't work.  No ESPN in a hotel???  Really???  The price wasn't bad but I would expect a little more for the price.  The room was also very small.  It had a king size bed and it felt like the bed took up more than half of the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2015</t>
+  </si>
+  <si>
+    <t>The bed was horrible.  The room was "clean" but was in desperate need of an upgrade.  The walls and doors looked like they hadn't been pained in 30 years.  The floors were uneven.  The TV listed 30 or so stations but many didn't work.  No ESPN in a hotel???  Really???  The price wasn't bad but I would expect a little more for the price.  The room was also very small.  It had a king size bed and it felt like the bed took up more than half of the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r284899056-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>284899056</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Clean location</t>
+  </si>
+  <si>
+    <t>This was a decent hotel for the price and close to everything.  I was a little worried after reading other reviews but there were more good than bad so I went with it.  I was pleasantly surprised.  The room was very clean.  I didn't see adult roaches, baby roaches or any other bugs for that matter...  No hair in the bathroom... clean bathroom, counter and sheets... the pool looked very clean and the refrigerator and microwave were clean as well.  I had no problems using the wifi and my payment for the room was processed according to the price on my reservation.  It's not the Marriott but it was a lot better than my family members room at the Motel 6 down the street.  A WHOLE lot better.  I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2015</t>
+  </si>
+  <si>
+    <t>This was a decent hotel for the price and close to everything.  I was a little worried after reading other reviews but there were more good than bad so I went with it.  I was pleasantly surprised.  The room was very clean.  I didn't see adult roaches, baby roaches or any other bugs for that matter...  No hair in the bathroom... clean bathroom, counter and sheets... the pool looked very clean and the refrigerator and microwave were clean as well.  I had no problems using the wifi and my payment for the room was processed according to the price on my reservation.  It's not the Marriott but it was a lot better than my family members room at the Motel 6 down the street.  A WHOLE lot better.  I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r280735214-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>280735214</t>
+  </si>
+  <si>
+    <t>06/16/2015</t>
+  </si>
+  <si>
+    <t>Great deal, great location.</t>
+  </si>
+  <si>
+    <t>A little sketchy on the outside-- what imaginary person was the man in the leather vest and fake leopard skin hat talking to in the parking lot at midnight? -- and visibly sagging balconies - but inside, the room was clean and VERY quiet. I don't know about you, but that's a must for me. Getting a good night's sleep is hard enough at home; it's much harder traveling. A great deal for less than $50. A what a location! Right next to 6 Flags, both stadiums -- with a shuttle taking you there, no less!However: not recommended for the skittish. I saw some older white people visibly scared -- of what? A harmless, homeless black man? One overweight white woman wanted a refund because the balcony scared her. I'd be scared too, were I that balcony.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded June 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2015</t>
+  </si>
+  <si>
+    <t>A little sketchy on the outside-- what imaginary person was the man in the leather vest and fake leopard skin hat talking to in the parking lot at midnight? -- and visibly sagging balconies - but inside, the room was clean and VERY quiet. I don't know about you, but that's a must for me. Getting a good night's sleep is hard enough at home; it's much harder traveling. A great deal for less than $50. A what a location! Right next to 6 Flags, both stadiums -- with a shuttle taking you there, no less!However: not recommended for the skittish. I saw some older white people visibly scared -- of what? A harmless, homeless black man? One overweight white woman wanted a refund because the balcony scared her. I'd be scared too, were I that balcony.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r275435212-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>275435212</t>
+  </si>
+  <si>
+    <t>05/28/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible! </t>
+  </si>
+  <si>
+    <t>Came for a weekend stay for the baseball game and first night in I regret booking here! Found a dead baby roach on our floor, very loud ac and its kicking on and off so our room is very hot and our ceiling looks like it's about to give in on us!! I could go on and in about this dirty place, I DO NOT recommend this place...at all!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Came for a weekend stay for the baseball game and first night in I regret booking here! Found a dead baby roach on our floor, very loud ac and its kicking on and off so our room is very hot and our ceiling looks like it's about to give in on us!! I could go on and in about this dirty place, I DO NOT recommend this place...at all!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r273911767-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>273911767</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Great For Rangers/Cowboys Games</t>
+  </si>
+  <si>
+    <t>Took my family to go see the Rangers and Cowboys this summer and found that this was the cheapest Hotel with shuttle service to and from the Rangers/Cowboys games. That was a big relief for me since I didn't have to pay for parking. Now the rooms were right for the price and the staff was more than cooperate with me. I am going next summer for sure. MoreShow less</t>
+  </si>
+  <si>
+    <t>Took my family to go see the Rangers and Cowboys this summer and found that this was the cheapest Hotel with shuttle service to and from the Rangers/Cowboys games. That was a big relief for me since I didn't have to pay for parking. Now the rooms were right for the price and the staff was more than cooperate with me. I am going next summer for sure. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r269148140-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>269148140</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>WORST hotel in history</t>
+  </si>
+  <si>
+    <t>First I carrier my daughter PLUS luggage up stair to a room that was a complete wreck: bed propped against the wall, trash everywhere, etc. Went to the office and changed rooms...there was hair in the tub and on the walls, a straw wrapper floating in the toilet as well as toilet paper stuck to the front of it. There were pet pee spots that were STILL WET and the room smelled horrible. I have a 2 year old I wouldn't even let on the floor. The lamps were missing bulbs, there were no towels (and when I asked for a couple they acted like I was lying!) No remote for the tv...advertised as $39.99, I had to pay $70 because "those rooms aren't available". I'd say sleep in your car before wasting money at this dump. It's gross and the worker are RUDE and not helpful AT all.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2015</t>
+  </si>
+  <si>
+    <t>First I carrier my daughter PLUS luggage up stair to a room that was a complete wreck: bed propped against the wall, trash everywhere, etc. Went to the office and changed rooms...there was hair in the tub and on the walls, a straw wrapper floating in the toilet as well as toilet paper stuck to the front of it. There were pet pee spots that were STILL WET and the room smelled horrible. I have a 2 year old I wouldn't even let on the floor. The lamps were missing bulbs, there were no towels (and when I asked for a couple they acted like I was lying!) No remote for the tv...advertised as $39.99, I had to pay $70 because "those rooms aren't available". I'd say sleep in your car before wasting money at this dump. It's gross and the worker are RUDE and not helpful AT all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r264319640-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>264319640</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Best in the Area, Exceeded our expectations, very friendly staff and affordable rate</t>
+  </si>
+  <si>
+    <t>I was visiting Arlington, TX from California with my wife and feel lucky to find Knights Inn Arlington - The Hidden Gem. Do not be fooled from outer appearance, inside will amaze you. It seemed like recently remodeled; very clean rooms and beds are very comfy. Stayed there for the Easter weekend and visited six flags. This place gives free shuttle to attractions which saves money almost worth 2 nights of a hotel stay. Great customer service and very friendly staff. We stayed regular king bed room facing the six flags rides, it looks amazing at night. Check out their jacuzzi suite room, we stayed 1 night in suite out of our entire stay and wish we had stayed in that room for the entire time. The general manager is mostly on site and takes good care of their guests :) We would stay again and definitely recommend everybody. Great for families.  Thank you Knight Inn Arlington for making our weekend memorable.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded April 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2015</t>
+  </si>
+  <si>
+    <t>I was visiting Arlington, TX from California with my wife and feel lucky to find Knights Inn Arlington - The Hidden Gem. Do not be fooled from outer appearance, inside will amaze you. It seemed like recently remodeled; very clean rooms and beds are very comfy. Stayed there for the Easter weekend and visited six flags. This place gives free shuttle to attractions which saves money almost worth 2 nights of a hotel stay. Great customer service and very friendly staff. We stayed regular king bed room facing the six flags rides, it looks amazing at night. Check out their jacuzzi suite room, we stayed 1 night in suite out of our entire stay and wish we had stayed in that room for the entire time. The general manager is mostly on site and takes good care of their guests :) We would stay again and definitely recommend everybody. Great for families.  Thank you Knight Inn Arlington for making our weekend memorable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r259422649-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>259422649</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>I would stay again</t>
+  </si>
+  <si>
+    <t>I was a little worried about staying here when I saw the building. And even more worried when I walk in to the front desk. After I got everything sorted out with my room I went to find my room. When I walked in I was shocked it looked very nice, the bed was comfortable the pillow(4) we're comfortable. It had a flat screen tv. Not many cable channels but thats fine with me I watch alot of things on my phone.  They offer free breakfast which I really liked the waffle maker or there is a dennys across the street/highway and subway. Six flags. And two gas stations that are walking distant. Housekeeping(my tub did have a ring around the tub) I had a microwave and full refrigerator in my room. Their a walmart 10min away,(diffently needed that I left my soap at home and I don't like the soap they offer it was waxy) I did have a problem with the outlet but all . I had to do was reset it and it worked no big deal, the sheets were clean. My stay was for four days and I will stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>I was a little worried about staying here when I saw the building. And even more worried when I walk in to the front desk. After I got everything sorted out with my room I went to find my room. When I walked in I was shocked it looked very nice, the bed was comfortable the pillow(4) we're comfortable. It had a flat screen tv. Not many cable channels but thats fine with me I watch alot of things on my phone.  They offer free breakfast which I really liked the waffle maker or there is a dennys across the street/highway and subway. Six flags. And two gas stations that are walking distant. Housekeeping(my tub did have a ring around the tub) I had a microwave and full refrigerator in my room. Their a walmart 10min away,(diffently needed that I left my soap at home and I don't like the soap they offer it was waxy) I did have a problem with the outlet but all . I had to do was reset it and it worked no big deal, the sheets were clean. My stay was for four days and I will stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r258378439-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>258378439</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>A good budget hotel that was near where we wanted to be.</t>
+  </si>
+  <si>
+    <t>The sat/nav found the motel easily, first impressions are that it could do with a refurbishment on the outside. Still a friendly receptionist that contacted 'someone' to put the heating on in 'our' room (259) and kept me talking whilst it warmed up. We walked in and it looked a bit drab. But, once the lights were on and it warmed up (it was very cold in Dallas) - the room was good. A monster fridge, microwave, coffee maker (none of which we used). An enormous bed that was comfortable and cclean, as was the rest of the room. An excellent choice for breakfast and lots of it. I particularly liked the self cook waffles that come out in the shape of a map of Texas ! Recommended. The Wi-Fi worked for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>The sat/nav found the motel easily, first impressions are that it could do with a refurbishment on the outside. Still a friendly receptionist that contacted 'someone' to put the heating on in 'our' room (259) and kept me talking whilst it warmed up. We walked in and it looked a bit drab. But, once the lights were on and it warmed up (it was very cold in Dallas) - the room was good. A monster fridge, microwave, coffee maker (none of which we used). An enormous bed that was comfortable and cclean, as was the rest of the room. An excellent choice for breakfast and lots of it. I particularly liked the self cook waffles that come out in the shape of a map of Texas ! Recommended. The Wi-Fi worked for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r257195862-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>257195862</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>The sheets were not cleaned I found rubber band in bed and then asked for noon check out because arrived in town after midnight and drover there from Colorado and front desk said ok. They were knocking on my door with towels to do house keeping about 1045 am. Explained how noon check out but leaving soon and they said ok. 10 minutes later they called the room saying our you checking out I explained again I had noon check our but packing stuff would he gone soon and then they stood by my door and just plain rude. Would never stay at knights inn again and wouldn't recommend anyone too. Many better options in the area. You get what you pay for and this room and hotel is trash.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded March 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2015</t>
+  </si>
+  <si>
+    <t>The sheets were not cleaned I found rubber band in bed and then asked for noon check out because arrived in town after midnight and drover there from Colorado and front desk said ok. They were knocking on my door with towels to do house keeping about 1045 am. Explained how noon check out but leaving soon and they said ok. 10 minutes later they called the room saying our you checking out I explained again I had noon check our but packing stuff would he gone soon and then they stood by my door and just plain rude. Would never stay at knights inn again and wouldn't recommend anyone too. Many better options in the area. You get what you pay for and this room and hotel is trash.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r253202862-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>253202862</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Great Inn</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here for 4 nights....we didn't research the area and it was a bit far out from Dallas City so we were a little disappointed about that but the hotel was great! So cheap yet very comfortable! The beds are awesome, the staff are so friendly and helpful! Would highly recommend this Inn if you are on a budget!! Defiantly organise a hire car as the public transport isn't very assessable!!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded February 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2015</t>
+  </si>
+  <si>
+    <t>My sister and I stayed here for 4 nights....we didn't research the area and it was a bit far out from Dallas City so we were a little disappointed about that but the hotel was great! So cheap yet very comfortable! The beds are awesome, the staff are so friendly and helpful! Would highly recommend this Inn if you are on a budget!! Defiantly organise a hire car as the public transport isn't very assessable!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r249849443-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>249849443</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Good Value, Not Fancy</t>
+  </si>
+  <si>
+    <t>I stayed at Knights Inn Arlington for five days from January 15 to January 20, 2015.  If all you need a place to crash with a hot shower and clean sheets, then this will meet your expectations.  There are many things they could do to improve the hotel, but then they would probably have to raise the price for their rooms.  My room was clean, the bed was comfortable, the wifi worked, and the continental breakfast was adequate.  The location is also good, although the surrounding neighborhood leaves a lot to be desired.  With that said, it didn't feel dangerous to me.Bottom line: if you need luxury and pampering, then Knights Inn is not for you.  However, if you're a traveler on a budget, then this hotel is about as good as you can get in Arlington for under fifty bucks a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at Knights Inn Arlington for five days from January 15 to January 20, 2015.  If all you need a place to crash with a hot shower and clean sheets, then this will meet your expectations.  There are many things they could do to improve the hotel, but then they would probably have to raise the price for their rooms.  My room was clean, the bed was comfortable, the wifi worked, and the continental breakfast was adequate.  The location is also good, although the surrounding neighborhood leaves a lot to be desired.  With that said, it didn't feel dangerous to me.Bottom line: if you need luxury and pampering, then Knights Inn is not for you.  However, if you're a traveler on a budget, then this hotel is about as good as you can get in Arlington for under fifty bucks a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r238295208-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>238295208</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>NFL Cowboys and NHL Stars</t>
+  </si>
+  <si>
+    <t>We stayed at the Knights Inn due to the convenience getting between both venues. The hotel runs shuttle buses to the Cowboys stadium but the service is unorganised at the pick up location near the stadium. It can take 2-3 hours to get back to the hotel from the game (the La Quinta hotel ended up dropping us back due to Knights Inn service unreliable). The rooms are average and bathrooms small but location is perfect. No safety deposit box. Didn't use the pool so can't comment. Gets very busy on game day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded November 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at the Knights Inn due to the convenience getting between both venues. The hotel runs shuttle buses to the Cowboys stadium but the service is unorganised at the pick up location near the stadium. It can take 2-3 hours to get back to the hotel from the game (the La Quinta hotel ended up dropping us back due to Knights Inn service unreliable). The rooms are average and bathrooms small but location is perfect. No safety deposit box. Didn't use the pool so can't comment. Gets very busy on game day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r237128379-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>237128379</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>A second pleasant Stay</t>
+  </si>
+  <si>
+    <t>This is my second time staying at the Knights Inn in Arlington.  Again....the customer service here is second to none.  The staff is very pleasant and eager to please.  I actually arrived very early on the day of check in, and they were ready to accommodate.  The room was extremely comfortable as it was the last time I stayed here.  I am still amazed that there is a full-sized refrigerator there.  I choose to stay here because it is in Arlington and in the middle of everything I'll need to get to.  My family doesn't live far away, and I can get to anything I need to very quickly.  This hotel is very convenient for me, and I really enjoy my stay here. Thanks to the staff for being friendly and helpful both times I've stayed.  I know I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>This is my second time staying at the Knights Inn in Arlington.  Again....the customer service here is second to none.  The staff is very pleasant and eager to please.  I actually arrived very early on the day of check in, and they were ready to accommodate.  The room was extremely comfortable as it was the last time I stayed here.  I am still amazed that there is a full-sized refrigerator there.  I choose to stay here because it is in Arlington and in the middle of everything I'll need to get to.  My family doesn't live far away, and I can get to anything I need to very quickly.  This hotel is very convenient for me, and I really enjoy my stay here. Thanks to the staff for being friendly and helpful both times I've stayed.  I know I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r236989952-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>236989952</t>
+  </si>
+  <si>
+    <t>10/29/2014</t>
+  </si>
+  <si>
+    <t>Resent visit</t>
+  </si>
+  <si>
+    <t>Good location for the price . Bathrooms are the smallest I have ever been in ( maybe 6 x 8 ) and that may generous . Went to the pool at noon and it was locked for some unknown reason . A/C was cold and worked well , the temperature of the water in the shower could only be set at very hot or very very hot , we had to take very quick showers or get burnt.Would we stay again probably not !MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Good location for the price . Bathrooms are the smallest I have ever been in ( maybe 6 x 8 ) and that may generous . Went to the pool at noon and it was locked for some unknown reason . A/C was cold and worked well , the temperature of the water in the shower could only be set at very hot or very very hot , we had to take very quick showers or get burnt.Would we stay again probably not !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r230865111-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>230865111</t>
+  </si>
+  <si>
+    <t>09/25/2014</t>
+  </si>
+  <si>
+    <t>ROACH INN.</t>
+  </si>
+  <si>
+    <t>Stay away. I saw at least 20-30 roaches within rhe first twenty mins i was there. Then when i called the front desk and asked for a refund the clerk said he couldnt but could put me in another room because he said we waited too long. After arguing for a few mins i finally took the second room and the AC did not work nor the plug outlets. Keep in mind this was at 1am. Save your money and go down the street to extended stay america. MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Stay away. I saw at least 20-30 roaches within rhe first twenty mins i was there. Then when i called the front desk and asked for a refund the clerk said he couldnt but could put me in another room because he said we waited too long. After arguing for a few mins i finally took the second room and the AC did not work nor the plug outlets. Keep in mind this was at 1am. Save your money and go down the street to extended stay america. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r228498786-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>228498786</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>You get what you paid for</t>
+  </si>
+  <si>
+    <t>We picked this particular hotel in order to save some money over the comparatively expensive alternatives nearby. It is conveniently located if you're in town for any of the games or any of the commercial sights that make Arlington (occasionally) appealing. Our experience there started off with a miscommunication between the staff and ourselves regarding our reservation. It was resolved, but they weren't particularly friendly about it. The room itself was tiny, but at least it did have a small desk, chair, and a television in it. The desk chair had some rather adventurous-looking stains on it (we tried hard NOT to speculate), but the bathroom was very clean. At nighttime, there were some sketchy-looking characters hanging out in the parking lot, and I'm sure we could have shopped for illegal entertainment without much difficulty. Overall it was a decent stay at a cheap hotel--you get what you paid for.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>We picked this particular hotel in order to save some money over the comparatively expensive alternatives nearby. It is conveniently located if you're in town for any of the games or any of the commercial sights that make Arlington (occasionally) appealing. Our experience there started off with a miscommunication between the staff and ourselves regarding our reservation. It was resolved, but they weren't particularly friendly about it. The room itself was tiny, but at least it did have a small desk, chair, and a television in it. The desk chair had some rather adventurous-looking stains on it (we tried hard NOT to speculate), but the bathroom was very clean. At nighttime, there were some sketchy-looking characters hanging out in the parking lot, and I'm sure we could have shopped for illegal entertainment without much difficulty. Overall it was a decent stay at a cheap hotel--you get what you paid for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r221057128-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>221057128</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>We normally stay at the higher-priced hotel across the street; paying $150-200 a night. Well, this hotel is half-the-price for all the same amenities. We were able to get one of our rooms at 1000am so we could put all our gear into, then we came back later in the day and got our other room.The driver took us to the water park, dropped us of, and then picked us back up after the day of fun.The rooms &gt; Incredible first-impression! All new furniture and carpet. Not sure why they did not paint the doors as they showed stains and may have been dirty, but overall, the place was great.TV reception was a little fuzzy, but heck, I am paying half-the-price so I will deal with the little stuff. Breakfast was very minimal, but again....................$$$$Great property that I highly recommend and will go back to each time I visit Six Flags Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>We normally stay at the higher-priced hotel across the street; paying $150-200 a night. Well, this hotel is half-the-price for all the same amenities. We were able to get one of our rooms at 1000am so we could put all our gear into, then we came back later in the day and got our other room.The driver took us to the water park, dropped us of, and then picked us back up after the day of fun.The rooms &gt; Incredible first-impression! All new furniture and carpet. Not sure why they did not paint the doors as they showed stains and may have been dirty, but overall, the place was great.TV reception was a little fuzzy, but heck, I am paying half-the-price so I will deal with the little stuff. Breakfast was very minimal, but again....................$$$$Great property that I highly recommend and will go back to each time I visit Six Flags Texas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r218751263-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>218751263</t>
+  </si>
+  <si>
+    <t>07/31/2014</t>
+  </si>
+  <si>
+    <t>Great price and pleasant stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights, had initially paid for 5 but had to leave unexpectedly. We weren't given any trouble for having to checkout early, but did have to wait 48 hours for bank to process the refund. NO BIGGIE though !!  With that being said, we didn't have a room reserved when we arrived and were surprised when we stopped by late at night (9pm) to check and were able to find an available room. The rate we got was also great (especially for the weekend). We had the pleasure of dealing with 3 different front desk personnel and each one was kind and helpful. There was tons of security cameras everywhere so we knew at some point or another the entire premises was being watched. This made me feel at ease especially since our room was on the very back section of hotel rooms.  Our room seemed a little tight due to layout of a desk table, tv hutch and full size fridge along the same wall, but we managed. The continental breakfast was great....eating area was a bit packed, but that was expected due to the Rangers/NY games going on and this place was pretty close to the ballpark. The pool was GREAT!! We witnessed maintenance checking the pH levels in the morning and the water was also clean &amp; clear the entire stay. ((Can't say the same for the place our friends stayed at...their pool water...Stayed here for 4 nights, had initially paid for 5 but had to leave unexpectedly. We weren't given any trouble for having to checkout early, but did have to wait 48 hours for bank to process the refund. NO BIGGIE though !!  With that being said, we didn't have a room reserved when we arrived and were surprised when we stopped by late at night (9pm) to check and were able to find an available room. The rate we got was also great (especially for the weekend). We had the pleasure of dealing with 3 different front desk personnel and each one was kind and helpful. There was tons of security cameras everywhere so we knew at some point or another the entire premises was being watched. This made me feel at ease especially since our room was on the very back section of hotel rooms.  Our room seemed a little tight due to layout of a desk table, tv hutch and full size fridge along the same wall, but we managed. The continental breakfast was great....eating area was a bit packed, but that was expected due to the Rangers/NY games going on and this place was pretty close to the ballpark. The pool was GREAT!! We witnessed maintenance checking the pH levels in the morning and the water was also clean &amp; clear the entire stay. ((Can't say the same for the place our friends stayed at...their pool water was an awful green!! YUK)) Anywho, if we return to Dallas ever again I will be sure to check this place first.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Manager at Red Roof Inn Arlington, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights, had initially paid for 5 but had to leave unexpectedly. We weren't given any trouble for having to checkout early, but did have to wait 48 hours for bank to process the refund. NO BIGGIE though !!  With that being said, we didn't have a room reserved when we arrived and were surprised when we stopped by late at night (9pm) to check and were able to find an available room. The rate we got was also great (especially for the weekend). We had the pleasure of dealing with 3 different front desk personnel and each one was kind and helpful. There was tons of security cameras everywhere so we knew at some point or another the entire premises was being watched. This made me feel at ease especially since our room was on the very back section of hotel rooms.  Our room seemed a little tight due to layout of a desk table, tv hutch and full size fridge along the same wall, but we managed. The continental breakfast was great....eating area was a bit packed, but that was expected due to the Rangers/NY games going on and this place was pretty close to the ballpark. The pool was GREAT!! We witnessed maintenance checking the pH levels in the morning and the water was also clean &amp; clear the entire stay. ((Can't say the same for the place our friends stayed at...their pool water...Stayed here for 4 nights, had initially paid for 5 but had to leave unexpectedly. We weren't given any trouble for having to checkout early, but did have to wait 48 hours for bank to process the refund. NO BIGGIE though !!  With that being said, we didn't have a room reserved when we arrived and were surprised when we stopped by late at night (9pm) to check and were able to find an available room. The rate we got was also great (especially for the weekend). We had the pleasure of dealing with 3 different front desk personnel and each one was kind and helpful. There was tons of security cameras everywhere so we knew at some point or another the entire premises was being watched. This made me feel at ease especially since our room was on the very back section of hotel rooms.  Our room seemed a little tight due to layout of a desk table, tv hutch and full size fridge along the same wall, but we managed. The continental breakfast was great....eating area was a bit packed, but that was expected due to the Rangers/NY games going on and this place was pretty close to the ballpark. The pool was GREAT!! We witnessed maintenance checking the pH levels in the morning and the water was also clean &amp; clear the entire stay. ((Can't say the same for the place our friends stayed at...their pool water was an awful green!! YUK)) Anywho, if we return to Dallas ever again I will be sure to check this place first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r216608546-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>216608546</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>This hotel is nothing fancy but it gives you a convenient and cheap place to stay if you are planning a trip to six flags. It was average in everything else.......nothing to write home about. Breakfast was minimal but free and that is nice for a family. MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>This hotel is nothing fancy but it gives you a convenient and cheap place to stay if you are planning a trip to six flags. It was average in everything else.......nothing to write home about. Breakfast was minimal but free and that is nice for a family. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r214849935-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>214849935</t>
+  </si>
+  <si>
+    <t>07/11/2014</t>
+  </si>
+  <si>
+    <t>Great hotel and convenient location</t>
+  </si>
+  <si>
+    <t>If you are going to Six Flags Over Texas, check out this hotel.  Very convenient, good price, great breakfast (waffles in the shape of Texas), and even a pool.  Room was spacious and comfortable with microwave and refrigerator.  And the staff (all the staff--front desk, breakfast, domestic services) were very welcoming and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2014</t>
+  </si>
+  <si>
+    <t>If you are going to Six Flags Over Texas, check out this hotel.  Very convenient, good price, great breakfast (waffles in the shape of Texas), and even a pool.  Room was spacious and comfortable with microwave and refrigerator.  And the staff (all the staff--front desk, breakfast, domestic services) were very welcoming and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r208108381-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>208108381</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded July 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r205208885-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>205208885</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would not stay again. </t>
+  </si>
+  <si>
+    <t>I stayed one night, check in was quick. The room was recently updated and still undergoing. New appliances, including a large sized fridge and freezer combo. You can easily tell they are currently remodeling. Room was clean. Had an issue with a staff member entering my room while I was changing and much prior to check out time, he then closed the door and then he went to hide in another room. Hotel owner came to office to review tapes all she said was "sorry, this will be addressed", they brought the gentleman up to the office to apologize to me personally- he did not speak English at all or understand. Just smiled and shrugged his shoulders and said sorry. Very upsetting no other action was taken. MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded May 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 13, 2014</t>
+  </si>
+  <si>
+    <t>I stayed one night, check in was quick. The room was recently updated and still undergoing. New appliances, including a large sized fridge and freezer combo. You can easily tell they are currently remodeling. Room was clean. Had an issue with a staff member entering my room while I was changing and much prior to check out time, he then closed the door and then he went to hide in another room. Hotel owner came to office to review tapes all she said was "sorry, this will be addressed", they brought the gentleman up to the office to apologize to me personally- he did not speak English at all or understand. Just smiled and shrugged his shoulders and said sorry. Very upsetting no other action was taken. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r183702864-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>183702864</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Convenient place to stay</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights to attend the Dallas Game on Sunday. The hotel staff is friendly and try and answer questions. Our hotel room wasn't the cleanest and our sheets had stains but honestly for the price I was expecting worse so I was pleasantly surprised. We had a full fridge and microwave. We didn't use it but they were nice!The best part of our experience was the shuttle to and from the game!! Honestly overall it isn't the worst place I've ever stayed at and it isn't the best... for the price it was better than I expected, and I would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights to attend the Dallas Game on Sunday. The hotel staff is friendly and try and answer questions. Our hotel room wasn't the cleanest and our sheets had stains but honestly for the price I was expecting worse so I was pleasantly surprised. We had a full fridge and microwave. We didn't use it but they were nice!The best part of our experience was the shuttle to and from the game!! Honestly overall it isn't the worst place I've ever stayed at and it isn't the best... for the price it was better than I expected, and I would stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r177958562-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>177958562</t>
+  </si>
+  <si>
+    <t>09/20/2013</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>This is a great place to stay for the price and convenience of all major attractions. The staff is always very professional and willing to go out of their way to provide anything to make your stay more enjoyable. My wife and I have stayed at this motel for every Dallas Cowboy game for 4 years and everything is always clean and comfortable. The breakfast is very nice and the waffles are great. Two thumbs up!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>This is a great place to stay for the price and convenience of all major attractions. The staff is always very professional and willing to go out of their way to provide anything to make your stay more enjoyable. My wife and I have stayed at this motel for every Dallas Cowboy game for 4 years and everything is always clean and comfortable. The breakfast is very nice and the waffles are great. Two thumbs up!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r177708267-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>177708267</t>
+  </si>
+  <si>
+    <t>09/18/2013</t>
+  </si>
+  <si>
+    <t>Another great stay!</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this Knight's Inn since 2009. It is inexpensive, clean and is close to Six Flags, Cowboy [AT&amp;T] Stadium and Rangers Ballpark. It offers s free shuttle to and from all these venues. If necessary, they will shuttle you to and from DFW, as well. The management is excellent and the staff is friendly. The manager is a "hands on" manager and does a great deal of the shuttling, as does his wife if need be. Our two day stay this past weekend was pleasant, as usual.MoreShow less</t>
+  </si>
+  <si>
+    <t>KIArlington, Guest Relations Manager at Red Roof Inn Arlington, responded to this reviewResponded September 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I have stayed at this Knight's Inn since 2009. It is inexpensive, clean and is close to Six Flags, Cowboy [AT&amp;T] Stadium and Rangers Ballpark. It offers s free shuttle to and from all these venues. If necessary, they will shuttle you to and from DFW, as well. The management is excellent and the staff is friendly. The manager is a "hands on" manager and does a great deal of the shuttling, as does his wife if need be. Our two day stay this past weekend was pleasant, as usual.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r177468323-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>177468323</t>
+  </si>
+  <si>
+    <t>09/16/2013</t>
+  </si>
+  <si>
+    <t>DO NOT SLEEP IN THIS HOTEL!</t>
+  </si>
+  <si>
+    <t>My experience was not acceptable at all. I arrived in the middle of the night after reserving my hotel based on reviews and the rate.  My first impression was not a good one, I had to check in at a window out side of the office. I do understand safety but that is not safe for guests to stand outside holding money in their hands either. After entering the room it seemed ok but I saw 2 live roaches in the bathroom. I overlooked the roaches as I was tired from the drive. As I was about to lay down I pulled the top cover back in my face there is SEMEN stains on the blanket. Not a glimmer of semen, but it was so thick it crusted up on the blanket you could have picked it up. Horrible! So I tell the front desk and he UPGRADES me to a room with a jacuzzi tub and i think ok this is much better the room looked like it had been remodeld. So i decided to get in the jacuzzi while my husband showers. i am in the jacuzzie and its working fine (i did notice there was dirt in the tub probably was not cleaned properly after the last guest) after about 3 minutes all the lights go out except one lamp and  and the tub stops working. I call the front desk and no one answers after several...My experience was not acceptable at all. I arrived in the middle of the night after reserving my hotel based on reviews and the rate.  My first impression was not a good one, I had to check in at a window out side of the office. I do understand safety but that is not safe for guests to stand outside holding money in their hands either. After entering the room it seemed ok but I saw 2 live roaches in the bathroom. I overlooked the roaches as I was tired from the drive. As I was about to lay down I pulled the top cover back in my face there is SEMEN stains on the blanket. Not a glimmer of semen, but it was so thick it crusted up on the blanket you could have picked it up. Horrible! So I tell the front desk and he UPGRADES me to a room with a jacuzzi tub and i think ok this is much better the room looked like it had been remodeld. So i decided to get in the jacuzzi while my husband showers. i am in the jacuzzie and its working fine (i did notice there was dirt in the tub probably was not cleaned properly after the last guest) after about 3 minutes all the lights go out except one lamp and  and the tub stops working. I call the front desk and no one answers after several attempts we say forget it and go to sleep. I tell the front desk the next morning and he says will send maintenance to fix it and he never comes. We check out I tell front desk its still not working and all he offers is an apology. I suggest completly looking over this hotel as there are many hotels in the area that would be much more decent than this...MoreShow less</t>
+  </si>
+  <si>
+    <t>My experience was not acceptable at all. I arrived in the middle of the night after reserving my hotel based on reviews and the rate.  My first impression was not a good one, I had to check in at a window out side of the office. I do understand safety but that is not safe for guests to stand outside holding money in their hands either. After entering the room it seemed ok but I saw 2 live roaches in the bathroom. I overlooked the roaches as I was tired from the drive. As I was about to lay down I pulled the top cover back in my face there is SEMEN stains on the blanket. Not a glimmer of semen, but it was so thick it crusted up on the blanket you could have picked it up. Horrible! So I tell the front desk and he UPGRADES me to a room with a jacuzzi tub and i think ok this is much better the room looked like it had been remodeld. So i decided to get in the jacuzzi while my husband showers. i am in the jacuzzie and its working fine (i did notice there was dirt in the tub probably was not cleaned properly after the last guest) after about 3 minutes all the lights go out except one lamp and  and the tub stops working. I call the front desk and no one answers after several...My experience was not acceptable at all. I arrived in the middle of the night after reserving my hotel based on reviews and the rate.  My first impression was not a good one, I had to check in at a window out side of the office. I do understand safety but that is not safe for guests to stand outside holding money in their hands either. After entering the room it seemed ok but I saw 2 live roaches in the bathroom. I overlooked the roaches as I was tired from the drive. As I was about to lay down I pulled the top cover back in my face there is SEMEN stains on the blanket. Not a glimmer of semen, but it was so thick it crusted up on the blanket you could have picked it up. Horrible! So I tell the front desk and he UPGRADES me to a room with a jacuzzi tub and i think ok this is much better the room looked like it had been remodeld. So i decided to get in the jacuzzi while my husband showers. i am in the jacuzzie and its working fine (i did notice there was dirt in the tub probably was not cleaned properly after the last guest) after about 3 minutes all the lights go out except one lamp and  and the tub stops working. I call the front desk and no one answers after several attempts we say forget it and go to sleep. I tell the front desk the next morning and he says will send maintenance to fix it and he never comes. We check out I tell front desk its still not working and all he offers is an apology. I suggest completly looking over this hotel as there are many hotels in the area that would be much more decent than this...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r169625565-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>169625565</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>The park is very close to Six Flags and they offer a shuttle bus to the park.  Our room was cool and very comfortable.  We checked into our room in the middle of the day before going back to Six Flags in the evening.  Since the motel has a swimming pool, it provided us with a refreshing retreat on a day with a 100+ temp.  The room also has a refrigerator &amp; microwave.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>The park is very close to Six Flags and they offer a shuttle bus to the park.  Our room was cool and very comfortable.  We checked into our room in the middle of the day before going back to Six Flags in the evening.  Since the motel has a swimming pool, it provided us with a refreshing retreat on a day with a 100+ temp.  The room also has a refrigerator &amp; microwave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r168799202-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>168799202</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Unclean and couldn't wait to leave</t>
+  </si>
+  <si>
+    <t>This was a very busy motel.  We walked into our room and noticed it was a smoking room and we had reserved a non-smoking room. We decided we could deal with that and just stayed in the smoking room.  The room was extremly dirty.  There were black handprints all over the door and  the door to outside had light shinning through it. The bathroom had someone else's hair on the floor and in the shower.  The sink was clogged with more hair. We found even more hair on the "clean" towels that were also stained.  We also found bugs on the towels and by the bed. We took the shuttle to a Ranger's game. The ride to the game was easy, but we had to wait for the van to take two groups that shoved us out of the way to go first.  A different hotel shuttle offered us a ride back to our motel and we accepted.  The main thing I look for in a hotel/motel is cleanliness and I feel that we overpaid for a room in this condition.  We did not try the breakfast because we just wanted to get out of there. We will not be staying here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a very busy motel.  We walked into our room and noticed it was a smoking room and we had reserved a non-smoking room. We decided we could deal with that and just stayed in the smoking room.  The room was extremly dirty.  There were black handprints all over the door and  the door to outside had light shinning through it. The bathroom had someone else's hair on the floor and in the shower.  The sink was clogged with more hair. We found even more hair on the "clean" towels that were also stained.  We also found bugs on the towels and by the bed. We took the shuttle to a Ranger's game. The ride to the game was easy, but we had to wait for the van to take two groups that shoved us out of the way to go first.  A different hotel shuttle offered us a ride back to our motel and we accepted.  The main thing I look for in a hotel/motel is cleanliness and I feel that we overpaid for a room in this condition.  We did not try the breakfast because we just wanted to get out of there. We will not be staying here again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r166216765-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166216765</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Vehicle was vandalized</t>
+  </si>
+  <si>
+    <t>While my family stayed there we were bothered with unattended young children loudly running up and down the balcony and banging on the walls at wee hours of the morning. (there patents were two rooms down from them). My husband asked them to stop and they did. However sometime after that and before we woke up someone had poured a blue slushie all over my van. When asking the hotel for help since there were cameras I was given the run around for days before they told me nothing happened. What horrible customer service. Calling me a liar basically and defending the vandals staying there. Guess what they say is true.... you get what you pay for. Cheap hotel cheap service! Oh and the bathroom tub didn't even drain. There was hair that didn't belong to us coming up from it. Gross!!!!! Stay somewhere else!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>While my family stayed there we were bothered with unattended young children loudly running up and down the balcony and banging on the walls at wee hours of the morning. (there patents were two rooms down from them). My husband asked them to stop and they did. However sometime after that and before we woke up someone had poured a blue slushie all over my van. When asking the hotel for help since there were cameras I was given the run around for days before they told me nothing happened. What horrible customer service. Calling me a liar basically and defending the vandals staying there. Guess what they say is true.... you get what you pay for. Cheap hotel cheap service! Oh and the bathroom tub didn't even drain. There was hair that didn't belong to us coming up from it. Gross!!!!! Stay somewhere else!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r160778233-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>160778233</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I arrived.  The staff was very pleasant and accommodating.  The only problem I had was that I booked my stay through hotels.com, and they cannot make any changes to your reservations at all.  I'm finding this to be the case with any hotel I book through hotels.com.  At any rate,the hotel was more than I expected.  The room was very clean and the bed was extremely comfortable.  There's also a full-sized refrigerator and microwave in the room.  I didn't see any bugs at all in the room. There are LOTS of places to choose to eat, and it's near many attractions.  The Cowboys Stadium is 5 minutes away, Six-Flags is less than a mile away, and the Rangers Ballpark is right down the street from the Cowboys Stadium.  The hotel does offer a shuttle to area attractions.  It will save you LOTS of money off of parking.  Trust me :)I recommend staying at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I arrived.  The staff was very pleasant and accommodating.  The only problem I had was that I booked my stay through hotels.com, and they cannot make any changes to your reservations at all.  I'm finding this to be the case with any hotel I book through hotels.com.  At any rate,the hotel was more than I expected.  The room was very clean and the bed was extremely comfortable.  There's also a full-sized refrigerator and microwave in the room.  I didn't see any bugs at all in the room. There are LOTS of places to choose to eat, and it's near many attractions.  The Cowboys Stadium is 5 minutes away, Six-Flags is less than a mile away, and the Rangers Ballpark is right down the street from the Cowboys Stadium.  The hotel does offer a shuttle to area attractions.  It will save you LOTS of money off of parking.  Trust me :)I recommend staying at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r155503631-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>155503631</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Decent Hotel</t>
+  </si>
+  <si>
+    <t>Hotel was what you would expect for the price, beds we comfy, room somewhat clean. Big hole in the wall.  but if you were going to six flags or dallas stadium, good location.  restaurants in area were plentiful.  And access to hotel was easy.  outdoor pool was VERY small</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r153561263-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>153561263</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived in Arlington for opening weekend of Six Flags at 5 am and person in charge wouldn't let us check in early. We had to sleep in our car until 10 am when the manager came in and checked us in. Horrible experience. Door to room wouldn't stay shut and bathroom door wouldn't close.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r144117999-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>144117999</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Four of us went down for golf and to take in a Cowboys game. Booked the motel online based primarily on price and reviews. First impression of motel was not great. Got checked in no problem andd the rooms were nice. Clean and the beds were very comfortable. Then we started to figure why they are popular. They started to shuttle us around. Basically wherever we needed to go, they were fantastic. To and from the golf course. To restaurants. To the game. Whatever we needed.Also close enough to many attractions and restaurants. Walking distance to a place called Humperdinks. It was a good place for food and drink.Anyway, highly recommend this motel Sam and staff were great. Thanks!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Four of us went down for golf and to take in a Cowboys game. Booked the motel online based primarily on price and reviews. First impression of motel was not great. Got checked in no problem andd the rooms were nice. Clean and the beds were very comfortable. Then we started to figure why they are popular. They started to shuttle us around. Basically wherever we needed to go, they were fantastic. To and from the golf course. To restaurants. To the game. Whatever we needed.Also close enough to many attractions and restaurants. Walking distance to a place called Humperdinks. It was a good place for food and drink.Anyway, highly recommend this motel Sam and staff were great. Thanks!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r142429570-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142429570</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Perfect Motel Close to Attractions</t>
+  </si>
+  <si>
+    <t>My son and I stayed 3 nights at the Knights. It was all we needed, inexpensive, clean and close to everything. The staff were friendly and knowledgable. The shuttle service was great. The fridge worked so the beer stayed cold. Waffle makers made your waffles in the shape of the state of Texas. Free parking was offered (we had a rental car for a couple of days). Three minute walk to Mariano's, a very, very good Mexican restaurant. The only bad part of the trip had nothing to do with the Knights Inn. For some reason there were a bunch of clowns masquerading as the Dallas Cowboys at Cowboys Stadium last Monday night, and they got THUMPED by the Chicago Bears. I recommend this place, it's fine and great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>My son and I stayed 3 nights at the Knights. It was all we needed, inexpensive, clean and close to everything. The staff were friendly and knowledgable. The shuttle service was great. The fridge worked so the beer stayed cold. Waffle makers made your waffles in the shape of the state of Texas. Free parking was offered (we had a rental car for a couple of days). Three minute walk to Mariano's, a very, very good Mexican restaurant. The only bad part of the trip had nothing to do with the Knights Inn. For some reason there were a bunch of clowns masquerading as the Dallas Cowboys at Cowboys Stadium last Monday night, and they got THUMPED by the Chicago Bears. I recommend this place, it's fine and great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r142345861-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142345861</t>
+  </si>
+  <si>
+    <t>10/08/2012</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>Just spent 7 nights at Knights Inn. The hotel was dated but our room was very clean and the staff was very courteous. The free shuttle to the Rangers and Cowboys games were great to have. The continental breakfast didn't have much selection, but at least they did have one.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r135615768-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135615768</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Crickets!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for 3 nights to visit Cowboys Stadium and see a Rangers game. First, it's important to note that we paid a mere 158 dollars (including taxes) for 3 nights for a room with a king size bed. The hotel operates a shuttle to and from the neighboring Six Flags parks and the Rangers game. At 17 dollars a day for the parks and 10+ dollars for ballpark parking, this is really an unbeatable value in terms of economics. They offer a little continental breakfast with cereal, Belgian waffles, fruit,  and pastries. There is also a small outdoor pool. Parking wasn't plentiful, but it was adequate on a sold out night. 
+The room was decently appointed and relatively clean. There several surfaces with dust on them, but the beds, bath, and toilet were clean. The a/c worked wonderfully, especially in the 104 degree heat. The deal breaker was the issue with the crickets. Upon check-in, we were greeted by 3 of the biggest crickets I have even seen (I suppose everything really is bigger in Texas!). in addition to the three on the walls, within 10 minutes we found 5 of their perished comrades on the carpet. We informed the front desk and were immediately moved. The new room appeared cricket-free, but they soon found their way in. It was obvious they were coming in through the door that was very poorly sealed. In an attempt...My husband and I stayed for 3 nights to visit Cowboys Stadium and see a Rangers game. First, it's important to note that we paid a mere 158 dollars (including taxes) for 3 nights for a room with a king size bed. The hotel operates a shuttle to and from the neighboring Six Flags parks and the Rangers game. At 17 dollars a day for the parks and 10+ dollars for ballpark parking, this is really an unbeatable value in terms of economics. They offer a little continental breakfast with cereal, Belgian waffles, fruit,  and pastries. There is also a small outdoor pool. Parking wasn't plentiful, but it was adequate on a sold out night. The room was decently appointed and relatively clean. There several surfaces with dust on them, but the beds, bath, and toilet were clean. The a/c worked wonderfully, especially in the 104 degree heat. The deal breaker was the issue with the crickets. Upon check-in, we were greeted by 3 of the biggest crickets I have even seen (I suppose everything really is bigger in Texas!). in addition to the three on the walls, within 10 minutes we found 5 of their perished comrades on the carpet. We informed the front desk and were immediately moved. The new room appeared cricket-free, but they soon found their way in. It was obvious they were coming in through the door that was very poorly sealed. In an attempt to alleviate the issue, we stuffed brochures into the many gaps every time we were in the room. This helped a bit, but a few were still able to sneak in. The entire staff was incredibly courteous and helpful throughout our stay. However, upon checkout, I was informed there was nothing they could do about the cricket issue. Crickets may indeed be rampant in the area, but proper weather stripping would do wonders to solve the problem of the unwanted roommates. My husband found no issue with having to remove a few crickets every evening, but it simply wasn't my cup of tea. However, if you can handle a few crickets and are looking to save a substantial amount of money for lodging and parking in the area, then I would definitely consider the Knights Inn as an option. Note: Humperdinks, a restaurant and brewery just down the road, is a great place to watch a game and and enjoy a truly delectable craft beer selection. They also offer a shuttle to select Rangers games.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>My husband and I stayed for 3 nights to visit Cowboys Stadium and see a Rangers game. First, it's important to note that we paid a mere 158 dollars (including taxes) for 3 nights for a room with a king size bed. The hotel operates a shuttle to and from the neighboring Six Flags parks and the Rangers game. At 17 dollars a day for the parks and 10+ dollars for ballpark parking, this is really an unbeatable value in terms of economics. They offer a little continental breakfast with cereal, Belgian waffles, fruit,  and pastries. There is also a small outdoor pool. Parking wasn't plentiful, but it was adequate on a sold out night. 
+The room was decently appointed and relatively clean. There several surfaces with dust on them, but the beds, bath, and toilet were clean. The a/c worked wonderfully, especially in the 104 degree heat. The deal breaker was the issue with the crickets. Upon check-in, we were greeted by 3 of the biggest crickets I have even seen (I suppose everything really is bigger in Texas!). in addition to the three on the walls, within 10 minutes we found 5 of their perished comrades on the carpet. We informed the front desk and were immediately moved. The new room appeared cricket-free, but they soon found their way in. It was obvious they were coming in through the door that was very poorly sealed. In an attempt...My husband and I stayed for 3 nights to visit Cowboys Stadium and see a Rangers game. First, it's important to note that we paid a mere 158 dollars (including taxes) for 3 nights for a room with a king size bed. The hotel operates a shuttle to and from the neighboring Six Flags parks and the Rangers game. At 17 dollars a day for the parks and 10+ dollars for ballpark parking, this is really an unbeatable value in terms of economics. They offer a little continental breakfast with cereal, Belgian waffles, fruit,  and pastries. There is also a small outdoor pool. Parking wasn't plentiful, but it was adequate on a sold out night. The room was decently appointed and relatively clean. There several surfaces with dust on them, but the beds, bath, and toilet were clean. The a/c worked wonderfully, especially in the 104 degree heat. The deal breaker was the issue with the crickets. Upon check-in, we were greeted by 3 of the biggest crickets I have even seen (I suppose everything really is bigger in Texas!). in addition to the three on the walls, within 10 minutes we found 5 of their perished comrades on the carpet. We informed the front desk and were immediately moved. The new room appeared cricket-free, but they soon found their way in. It was obvious they were coming in through the door that was very poorly sealed. In an attempt to alleviate the issue, we stuffed brochures into the many gaps every time we were in the room. This helped a bit, but a few were still able to sneak in. The entire staff was incredibly courteous and helpful throughout our stay. However, upon checkout, I was informed there was nothing they could do about the cricket issue. Crickets may indeed be rampant in the area, but proper weather stripping would do wonders to solve the problem of the unwanted roommates. My husband found no issue with having to remove a few crickets every evening, but it simply wasn't my cup of tea. However, if you can handle a few crickets and are looking to save a substantial amount of money for lodging and parking in the area, then I would definitely consider the Knights Inn as an option. Note: Humperdinks, a restaurant and brewery just down the road, is a great place to watch a game and and enjoy a truly delectable craft beer selection. They also offer a shuttle to select Rangers games.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r135288501-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>135288501</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Why we left a hour after...</t>
+  </si>
+  <si>
+    <t>PLEASE ALSO READ morjem911 reviews..they are very correct/true.
+I reserved two rooms thru hotels.com. It was inexpensive and a good location. It was myself, hubby, son and his girlfriend. At the time they said they did not have ajoinging rooms. I have to agree with the comment by morjem911 "We Left..". We pulled in around 1:30 in the morning and it was a little busy, hubby got out to get keys, etc. As he was inside, I was looking around the parking lot..looked "ok"..almost sketchy but I thought I was being too picky. Hubby comes out to the car, gets in and we drive up to our building. We are on the 2nd floor away from the pool, it was really late and from what I was told from hubby, the people that checked in before him, paid the front desk in cash to let them swim...about 10 of them, at 1:30 AM. I thought, well we are on the other side, it wont be noisy. We head up to our rooms next to each other, I open the door and almost feel like I was going to fall thru the floor, it was like a sponge in certain spots of the room. I just kept trying to have a positive attitude. I pulled sheets back, looked at the mattress, under/over and everything, checked out the bathroom..dirty. Dead crickets and the tub was really really old. Still thinking..okay i can...PLEASE ALSO READ morjem911 reviews..they are very correct/true.I reserved two rooms thru hotels.com. It was inexpensive and a good location. It was myself, hubby, son and his girlfriend. At the time they said they did not have ajoinging rooms. I have to agree with the comment by morjem911 "We Left..". We pulled in around 1:30 in the morning and it was a little busy, hubby got out to get keys, etc. As he was inside, I was looking around the parking lot..looked "ok"..almost sketchy but I thought I was being too picky. Hubby comes out to the car, gets in and we drive up to our building. We are on the 2nd floor away from the pool, it was really late and from what I was told from hubby, the people that checked in before him, paid the front desk in cash to let them swim...about 10 of them, at 1:30 AM. I thought, well we are on the other side, it wont be noisy. We head up to our rooms next to each other, I open the door and almost feel like I was going to fall thru the floor, it was like a sponge in certain spots of the room. I just kept trying to have a positive attitude. I pulled sheets back, looked at the mattress, under/over and everything, checked out the bathroom..dirty. Dead crickets and the tub was really really old. Still thinking..okay i can deal. I turn on the over head light somewhat close the bed and behold...silver fish (same as a roach, hard to get rid of if you have them in your home) and yes they were alive and more than 5 in the light. I just turned it back off thinking they would go away, but then thought, omg where...our stuff. So I went next door to see son's room...well, same issue with the floor, dead crickets..no silverfish from what I could see, but my hubby was able to find some kind of bodily fluids on the wall next to the bed, the bed skirt and the bedspread. The bathroom was not clean either. So after we discussed it, showed the bugs to hubby he said..LETS GO. So we went down to the office, told the clerk, he kept insisting on showing us another room...so we thought okay, maybe its better. He said they were newer. We walk over to the other two rooms, same thing, except there was some kind of brown dried up "something" on the bathroom counter, toothpaste was all over the mirror, in the sink and the spout. We told the clerk no thank you and as we walked out, I believe we saw a drug deal going on a few doors down. I hope not. So anyways, since we booked with Hotels.com the clerk said we would have to contact them to get a refund, so as the rest of the family packed our stuff back up in the car, I called Hotels.com and explained our situation, she called the clerk on another line and we were refunded our money 100%. So thank you Hotels.com. The clerk was pleasant but as i was standing outside on my cell with Hotels.com, waiting on the family to come down, he locks up the door, closese everything up and leaves. It was around 2:30AM by now...I thought for a hotel/motel, someone should be there. OH well. At any rate, yes they are improving the rooms with paint, new pictures and a few other things...but I wouldnt care if the decor was from the 70s..as long as the room was clean and bug free...I would have been fine. Btw, hubby told me after we left and he pulled his sheets back, he found a bug in the bed. Not sure what kind...but whew I'm glad we did leave.  We drove over to the other side of the highway, stayed at the Hyatt Place, yes it was more money...but it was clean, secure and a wonderful breakfast. Per another hotel's desk clerk..."Oh honey, you never stay across the hwy"MoreShow less</t>
+  </si>
+  <si>
+    <t>PLEASE ALSO READ morjem911 reviews..they are very correct/true.
+I reserved two rooms thru hotels.com. It was inexpensive and a good location. It was myself, hubby, son and his girlfriend. At the time they said they did not have ajoinging rooms. I have to agree with the comment by morjem911 "We Left..". We pulled in around 1:30 in the morning and it was a little busy, hubby got out to get keys, etc. As he was inside, I was looking around the parking lot..looked "ok"..almost sketchy but I thought I was being too picky. Hubby comes out to the car, gets in and we drive up to our building. We are on the 2nd floor away from the pool, it was really late and from what I was told from hubby, the people that checked in before him, paid the front desk in cash to let them swim...about 10 of them, at 1:30 AM. I thought, well we are on the other side, it wont be noisy. We head up to our rooms next to each other, I open the door and almost feel like I was going to fall thru the floor, it was like a sponge in certain spots of the room. I just kept trying to have a positive attitude. I pulled sheets back, looked at the mattress, under/over and everything, checked out the bathroom..dirty. Dead crickets and the tub was really really old. Still thinking..okay i can...PLEASE ALSO READ morjem911 reviews..they are very correct/true.I reserved two rooms thru hotels.com. It was inexpensive and a good location. It was myself, hubby, son and his girlfriend. At the time they said they did not have ajoinging rooms. I have to agree with the comment by morjem911 "We Left..". We pulled in around 1:30 in the morning and it was a little busy, hubby got out to get keys, etc. As he was inside, I was looking around the parking lot..looked "ok"..almost sketchy but I thought I was being too picky. Hubby comes out to the car, gets in and we drive up to our building. We are on the 2nd floor away from the pool, it was really late and from what I was told from hubby, the people that checked in before him, paid the front desk in cash to let them swim...about 10 of them, at 1:30 AM. I thought, well we are on the other side, it wont be noisy. We head up to our rooms next to each other, I open the door and almost feel like I was going to fall thru the floor, it was like a sponge in certain spots of the room. I just kept trying to have a positive attitude. I pulled sheets back, looked at the mattress, under/over and everything, checked out the bathroom..dirty. Dead crickets and the tub was really really old. Still thinking..okay i can deal. I turn on the over head light somewhat close the bed and behold...silver fish (same as a roach, hard to get rid of if you have them in your home) and yes they were alive and more than 5 in the light. I just turned it back off thinking they would go away, but then thought, omg where...our stuff. So I went next door to see son's room...well, same issue with the floor, dead crickets..no silverfish from what I could see, but my hubby was able to find some kind of bodily fluids on the wall next to the bed, the bed skirt and the bedspread. The bathroom was not clean either. So after we discussed it, showed the bugs to hubby he said..LETS GO. So we went down to the office, told the clerk, he kept insisting on showing us another room...so we thought okay, maybe its better. He said they were newer. We walk over to the other two rooms, same thing, except there was some kind of brown dried up "something" on the bathroom counter, toothpaste was all over the mirror, in the sink and the spout. We told the clerk no thank you and as we walked out, I believe we saw a drug deal going on a few doors down. I hope not. So anyways, since we booked with Hotels.com the clerk said we would have to contact them to get a refund, so as the rest of the family packed our stuff back up in the car, I called Hotels.com and explained our situation, she called the clerk on another line and we were refunded our money 100%. So thank you Hotels.com. The clerk was pleasant but as i was standing outside on my cell with Hotels.com, waiting on the family to come down, he locks up the door, closese everything up and leaves. It was around 2:30AM by now...I thought for a hotel/motel, someone should be there. OH well. At any rate, yes they are improving the rooms with paint, new pictures and a few other things...but I wouldnt care if the decor was from the 70s..as long as the room was clean and bug free...I would have been fine. Btw, hubby told me after we left and he pulled his sheets back, he found a bug in the bed. Not sure what kind...but whew I'm glad we did leave.  We drove over to the other side of the highway, stayed at the Hyatt Place, yes it was more money...but it was clean, secure and a wonderful breakfast. Per another hotel's desk clerk..."Oh honey, you never stay across the hwy"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r129115049-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>129115049</t>
+  </si>
+  <si>
+    <t>04/30/2012</t>
+  </si>
+  <si>
+    <t>Great Value Motel</t>
+  </si>
+  <si>
+    <t>The rooms are clean and nice.  The beds are comfortable.  The motel is located close to amusement parks, cowboys stadium, and the ranger's ballpark.  The motel also offers a FREE shuttle to area attractions and a FREE breakfast (how many budget motels can say that).  Plus, next door is one of the best Mexican restaurants in the metro area.  It is not a luxury hotel but then again you are not paying for a luxury hotel either.  The value is simply incredible.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r118700590-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>118700590</t>
+  </si>
+  <si>
+    <t>09/28/2011</t>
+  </si>
+  <si>
+    <t>Nowhere Else!</t>
+  </si>
+  <si>
+    <t>I was amazed at what I got for the money I spent. Location, Location, Location!! The rooms were modern and clean. Staff was beyond excellent!!! Check in was easy, check out was easier!! Free shuttle to Cowboys game! If you dont care about all the frills and just want a friendly comfortable room, stay here!! You will not be disappointed. Again, this was a risk I am glad I took!!</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r118635417-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>118635417</t>
+  </si>
+  <si>
+    <t>09/26/2011</t>
+  </si>
+  <si>
+    <t>Great value &amp; friendly staff</t>
+  </si>
+  <si>
+    <t>Great value for the money. Also, a perfect location to Rangers, Cowboys, Six Flags and they run their own shuttle service to all these places when you want to go. They also shuttle to and from DFW &amp; Love Field. We go 10-12 times a year and they are upgrading a building at a time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r117553418-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>117553418</t>
+  </si>
+  <si>
+    <t>09/01/2011</t>
+  </si>
+  <si>
+    <t>Nice place to live...</t>
+  </si>
+  <si>
+    <t>This place was very nice and reasonable price. Very good place to live near the Cowboy stadium and Six Flags.............Enjoyed a lot.....Good breakfast and excellent shuttle service...</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r110635443-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>110635443</t>
+  </si>
+  <si>
+    <t>05/30/2011</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Really enjoyed this hotel. Rooms were clean staff was very friendly. The shuttle to the game was great did not have to wait long and it did not take long to get back to hotel.Will stay again at the hotel. :)</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r100678259-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>100678259</t>
+  </si>
+  <si>
+    <t>03/18/2011</t>
+  </si>
+  <si>
+    <t>Cheap but Friendly</t>
+  </si>
+  <si>
+    <t>This hotel was pretty plain, but very close to Six Flags.  Rooms and exterior were a little worn, but fairly clean.  We booked three rooms for our trip and were given all three together.  Pool looked very clean!  Breakfast was waffels and cereal.  Staff was very friendly and shuttle was GREAT!!!  Would recommend for the price!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r96040102-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>96040102</t>
+  </si>
+  <si>
+    <t>02/09/2011</t>
+  </si>
+  <si>
+    <t>Worn down but clean</t>
+  </si>
+  <si>
+    <t>We stayed at the Knights Inn for the Cotton Bowl January 7, 2010.  We were VERY nervous staying about staying at a motel but decided to give it a try since all the hotels within reasonable cab distance to Cowboys stadium were either booked or going for $200+ that night.  We got the room for about $70 which is a lot for a motel but I suspect the price reflects Arlington being overbooked for the weekend.The location was pretty good, you're very close to many main attractions, Cowboys stadium, Rangers stadium, and Six Flags.  You're across a highway so it's difficult to walk but they do offer a free shuttle (which we used) to these attractions.The rooms are old, dated and worn.  However they seemed to be kept very clean and that's why we gave this hotel a good rating.  The service was good as well, we showed up at 10am and the desk clerk was happy to check us in without a fee.Overall we had a nice stay and didn't have to blow the budget on unecessary frills or cab rides.  We felt safe and the rooms were kept clean.  This motel would be good for anyone traveling on a budget to Dallas for a sporting event or to visit Six Flags.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>We stayed at the Knights Inn for the Cotton Bowl January 7, 2010.  We were VERY nervous staying about staying at a motel but decided to give it a try since all the hotels within reasonable cab distance to Cowboys stadium were either booked or going for $200+ that night.  We got the room for about $70 which is a lot for a motel but I suspect the price reflects Arlington being overbooked for the weekend.The location was pretty good, you're very close to many main attractions, Cowboys stadium, Rangers stadium, and Six Flags.  You're across a highway so it's difficult to walk but they do offer a free shuttle (which we used) to these attractions.The rooms are old, dated and worn.  However they seemed to be kept very clean and that's why we gave this hotel a good rating.  The service was good as well, we showed up at 10am and the desk clerk was happy to check us in without a fee.Overall we had a nice stay and didn't have to blow the budget on unecessary frills or cab rides.  We felt safe and the rooms were kept clean.  This motel would be good for anyone traveling on a budget to Dallas for a sporting event or to visit Six Flags.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r73919327-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>73919327</t>
+  </si>
+  <si>
+    <t>08/05/2010</t>
+  </si>
+  <si>
+    <t>Bugs galore, watch out!</t>
+  </si>
+  <si>
+    <t>I was very impressed by this place at first. We were greeted by the manager and two other people that were getting trained in. All friendly. They told us our room wasn't ready but we could wait or get dropped off at Six Flags like we had planned for the day. We decided to put our car by our room and then come back. Our room was finished by the time we went over there so we brought our stuff inside. It was okay. The bed looked a little messy and when I went to the bathroom the seat was up and there was yellow sprayed all over the seat. It really looked like urine which I thought was a little disgusting. We left for the day and came back at 6:45pm. For the next hour we killed 10 bugs(as shown in pic). At 7:45 on our way to dinner we stopped at the front desk and informed the man working. He walked t our room and checked it out, told us they were crickets and that it's a seasonal issue. There was a gap under our door and the side and also to the door connecting our room with another room. I don't think it was just a "seasonal" problem. Problem would be that there is a lot of maintenance that needs to be done. He did offer us another room so we said we'd change out when we...I was very impressed by this place at first. We were greeted by the manager and two other people that were getting trained in. All friendly. They told us our room wasn't ready but we could wait or get dropped off at Six Flags like we had planned for the day. We decided to put our car by our room and then come back. Our room was finished by the time we went over there so we brought our stuff inside. It was okay. The bed looked a little messy and when I went to the bathroom the seat was up and there was yellow sprayed all over the seat. It really looked like urine which I thought was a little disgusting. We left for the day and came back at 6:45pm. For the next hour we killed 10 bugs(as shown in pic). At 7:45 on our way to dinner we stopped at the front desk and informed the man working. He walked t our room and checked it out, told us they were crickets and that it's a seasonal issue. There was a gap under our door and the side and also to the door connecting our room with another room. I don't think it was just a "seasonal" problem. Problem would be that there is a lot of maintenance that needs to be done. He did offer us another room so we said we'd change out when we got back from dinner. At 9pm when we came back we decided to just sleep in the room and deal with it since moving would be a pain. Crickets chirped all night long and we continued to find more of them hidden in the dark carpet. This picture is the final cricket we saw and left alive as we left completely disgusted by the way they take care of this place. We did take advantage of the breakfast which was cereal, muffins and juice. If you're okay with crickets and maybe not the cleanest place try it out, but if you want to feel safer and cleaner I'd pay a little more and go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>I was very impressed by this place at first. We were greeted by the manager and two other people that were getting trained in. All friendly. They told us our room wasn't ready but we could wait or get dropped off at Six Flags like we had planned for the day. We decided to put our car by our room and then come back. Our room was finished by the time we went over there so we brought our stuff inside. It was okay. The bed looked a little messy and when I went to the bathroom the seat was up and there was yellow sprayed all over the seat. It really looked like urine which I thought was a little disgusting. We left for the day and came back at 6:45pm. For the next hour we killed 10 bugs(as shown in pic). At 7:45 on our way to dinner we stopped at the front desk and informed the man working. He walked t our room and checked it out, told us they were crickets and that it's a seasonal issue. There was a gap under our door and the side and also to the door connecting our room with another room. I don't think it was just a "seasonal" problem. Problem would be that there is a lot of maintenance that needs to be done. He did offer us another room so we said we'd change out when we...I was very impressed by this place at first. We were greeted by the manager and two other people that were getting trained in. All friendly. They told us our room wasn't ready but we could wait or get dropped off at Six Flags like we had planned for the day. We decided to put our car by our room and then come back. Our room was finished by the time we went over there so we brought our stuff inside. It was okay. The bed looked a little messy and when I went to the bathroom the seat was up and there was yellow sprayed all over the seat. It really looked like urine which I thought was a little disgusting. We left for the day and came back at 6:45pm. For the next hour we killed 10 bugs(as shown in pic). At 7:45 on our way to dinner we stopped at the front desk and informed the man working. He walked t our room and checked it out, told us they were crickets and that it's a seasonal issue. There was a gap under our door and the side and also to the door connecting our room with another room. I don't think it was just a "seasonal" problem. Problem would be that there is a lot of maintenance that needs to be done. He did offer us another room so we said we'd change out when we got back from dinner. At 9pm when we came back we decided to just sleep in the room and deal with it since moving would be a pain. Crickets chirped all night long and we continued to find more of them hidden in the dark carpet. This picture is the final cricket we saw and left alive as we left completely disgusted by the way they take care of this place. We did take advantage of the breakfast which was cereal, muffins and juice. If you're okay with crickets and maybe not the cleanest place try it out, but if you want to feel safer and cleaner I'd pay a little more and go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r71508757-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>71508757</t>
+  </si>
+  <si>
+    <t>07/19/2010</t>
+  </si>
+  <si>
+    <t>Great value and service- we will be staying there again</t>
+  </si>
+  <si>
+    <t>It isn't the fanciest or most luxurious, but it was clean.  We needed somewhere to sleep and rest between Six Flags and Ranger games and it served that purpose.  The shuttle rides were great and saved us a lot of money.  The staff were always friendly and willing to help with whatever we needed such as with directions to the nearest Wal-Mart.  We know where will be staying the next time we go to Arlington.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r63376954-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>63376954</t>
+  </si>
+  <si>
+    <t>05/05/2010</t>
+  </si>
+  <si>
+    <t>If you drive a BMW, or wish you did, you won't like this motel. . . .</t>
+  </si>
+  <si>
+    <t>If you drive a BMW, or want to, you won't like this motel.  On the other hand, if you are content with Fords, you should feel right at home.  Seriously, it's plain, there's no luxury here, but they all look alike when you're asleep.  The room was clean, the A/C was energetic if a bit noisy,  the bed was fine, the bathroom was clean and nothing leaked or made weird noises.  The shuttle to the ballpark was great.  I didn't have to pay for parking or fight the traffic.  A coffee maker would have been nice, but other than that what would you want?</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r56145051-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>56145051</t>
+  </si>
+  <si>
+    <t>02/16/2010</t>
+  </si>
+  <si>
+    <t>Disgusting and Filthy!</t>
+  </si>
+  <si>
+    <t>My husband and I traveled 1,310 miles to Arlington, Texas for the Valentine's Day and the 2010 NBA All-Star Game.  The Knights Inn Arlington reviews were good so we prepaid for 3 nights.  The hotel is absolutely disgusting and filthy!  Someone had left BM in the toilet, and there was black mold, mildew, and fungus in the bath tub that had been there for months!  The walls were dirty and patched with plaster everywhere.  When we complained, the hotel manager gave us a key to another room that was unlocked and wide open!  The hotel manager negotiated the room costs with guests who paid in cash and counted out $1 bills!  Most hotels were sold out due to the game and holiday, but we kept our clothes on and checked out as soon as we found another hotel!  The Knights Inn Arlington subjects its guests to inhumane conditions and filth.  You would do better sleeping outside!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>My husband and I traveled 1,310 miles to Arlington, Texas for the Valentine's Day and the 2010 NBA All-Star Game.  The Knights Inn Arlington reviews were good so we prepaid for 3 nights.  The hotel is absolutely disgusting and filthy!  Someone had left BM in the toilet, and there was black mold, mildew, and fungus in the bath tub that had been there for months!  The walls were dirty and patched with plaster everywhere.  When we complained, the hotel manager gave us a key to another room that was unlocked and wide open!  The hotel manager negotiated the room costs with guests who paid in cash and counted out $1 bills!  Most hotels were sold out due to the game and holiday, but we kept our clothes on and checked out as soon as we found another hotel!  The Knights Inn Arlington subjects its guests to inhumane conditions and filth.  You would do better sleeping outside!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r45924607-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>45924607</t>
+  </si>
+  <si>
+    <t>10/05/2009</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>what a wonderful place to stay. were in town for the razorbacks and a&amp;m game. the hotel staff was friendly and courteous. the rooms were great and the price was great. they yeven had a shuttle to take us to the game at cowboys stadium and were to pick up us after the game. would recomend this place to everyone. when we come back next year we will be staying here.randy stracener</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r45107420-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>45107420</t>
+  </si>
+  <si>
+    <t>09/27/2009</t>
+  </si>
+  <si>
+    <t>nice place for great price.</t>
+  </si>
+  <si>
+    <t>what a pleasant surprise.  Hotel is not fancy but was a great place to stay.  Staff was super friendly and actually shuttled us to our destinations for free.  The pool was small but clean and fun. Rooms were equipped with microwave &amp; full size fridge, sofa, hairdryer &amp; nice tv.  Local calls were free. Breakfast included danishes, cereal, juice &amp; fruit. The location was great- directly across freeway from Six Flags and just a few blocks from Rangers Baseball Park and Cowboys Stadium. Numerous restaurants around.  Again- staff was friendly and very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r30116531-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30116531</t>
+  </si>
+  <si>
+    <t>05/16/2009</t>
+  </si>
+  <si>
+    <t>best rooms for the money</t>
+  </si>
+  <si>
+    <t>they furnished directions to every place in ft worth we wanted to visit...located close to ball park...rooms are clean with everything we needed....have  computer in lobby for use...great value for the price....</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2729,5784 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>126</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>189</v>
+      </c>
+      <c r="X18" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>196</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>197</v>
+      </c>
+      <c r="X19" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>202</v>
+      </c>
+      <c r="K20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="s">
+        <v>204</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>205</v>
+      </c>
+      <c r="X20" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
+      </c>
+      <c r="J21" t="s">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>213</v>
+      </c>
+      <c r="X21" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>126</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>253</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s">
+        <v>255</v>
+      </c>
+      <c r="L26" t="s">
+        <v>256</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>257</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>266</v>
+      </c>
+      <c r="O27" t="s">
+        <v>173</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L28" t="s">
+        <v>274</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>275</v>
+      </c>
+      <c r="X28" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>278</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>279</v>
+      </c>
+      <c r="J29" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" t="s">
+        <v>281</v>
+      </c>
+      <c r="L29" t="s">
+        <v>282</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>283</v>
+      </c>
+      <c r="X29" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>287</v>
+      </c>
+      <c r="J30" t="s">
+        <v>288</v>
+      </c>
+      <c r="K30" t="s">
+        <v>289</v>
+      </c>
+      <c r="L30" t="s">
+        <v>290</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>291</v>
+      </c>
+      <c r="O30" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>292</v>
+      </c>
+      <c r="X30" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>295</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>296</v>
+      </c>
+      <c r="J31" t="s">
+        <v>297</v>
+      </c>
+      <c r="K31" t="s">
+        <v>298</v>
+      </c>
+      <c r="L31" t="s">
+        <v>299</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>300</v>
+      </c>
+      <c r="O31" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>301</v>
+      </c>
+      <c r="X31" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>305</v>
+      </c>
+      <c r="J32" t="s">
+        <v>306</v>
+      </c>
+      <c r="K32" t="s">
+        <v>307</v>
+      </c>
+      <c r="L32" t="s">
+        <v>308</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>309</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>310</v>
+      </c>
+      <c r="X32" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>313</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>314</v>
+      </c>
+      <c r="J33" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" t="s">
+        <v>316</v>
+      </c>
+      <c r="L33" t="s">
+        <v>317</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" t="s">
+        <v>173</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>318</v>
+      </c>
+      <c r="X33" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>321</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>322</v>
+      </c>
+      <c r="J34" t="s">
+        <v>323</v>
+      </c>
+      <c r="K34" t="s">
+        <v>324</v>
+      </c>
+      <c r="L34" t="s">
+        <v>325</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>327</v>
+      </c>
+      <c r="X34" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>330</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>331</v>
+      </c>
+      <c r="J35" t="s">
+        <v>332</v>
+      </c>
+      <c r="K35" t="s">
+        <v>333</v>
+      </c>
+      <c r="L35" t="s">
+        <v>334</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>335</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>336</v>
+      </c>
+      <c r="X35" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>339</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>340</v>
+      </c>
+      <c r="J36" t="s">
+        <v>341</v>
+      </c>
+      <c r="K36" t="s">
+        <v>342</v>
+      </c>
+      <c r="L36" t="s">
+        <v>343</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>126</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>344</v>
+      </c>
+      <c r="X36" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K37" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" t="s">
+        <v>351</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>173</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>352</v>
+      </c>
+      <c r="X37" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>355</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>356</v>
+      </c>
+      <c r="J38" t="s">
+        <v>357</v>
+      </c>
+      <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>359</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>126</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>360</v>
+      </c>
+      <c r="X38" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>364</v>
+      </c>
+      <c r="J39" t="s">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s">
+        <v>367</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>368</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>369</v>
+      </c>
+      <c r="X39" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>372</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>373</v>
+      </c>
+      <c r="J40" t="s">
+        <v>374</v>
+      </c>
+      <c r="K40" t="s">
+        <v>375</v>
+      </c>
+      <c r="L40" t="s">
+        <v>376</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>377</v>
+      </c>
+      <c r="X40" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>380</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>381</v>
+      </c>
+      <c r="J41" t="s">
+        <v>382</v>
+      </c>
+      <c r="K41" t="s">
+        <v>383</v>
+      </c>
+      <c r="L41" t="s">
+        <v>384</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>385</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>386</v>
+      </c>
+      <c r="X41" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>390</v>
+      </c>
+      <c r="J42" t="s">
+        <v>391</v>
+      </c>
+      <c r="K42" t="s">
+        <v>392</v>
+      </c>
+      <c r="L42" t="s">
+        <v>393</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>369</v>
+      </c>
+      <c r="X42" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>395</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>396</v>
+      </c>
+      <c r="J43" t="s">
+        <v>397</v>
+      </c>
+      <c r="K43" t="s">
+        <v>398</v>
+      </c>
+      <c r="L43" t="s">
+        <v>399</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>400</v>
+      </c>
+      <c r="O43" t="s">
+        <v>173</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>401</v>
+      </c>
+      <c r="X43" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>404</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>405</v>
+      </c>
+      <c r="J44" t="s">
+        <v>406</v>
+      </c>
+      <c r="K44" t="s">
+        <v>407</v>
+      </c>
+      <c r="L44" t="s">
+        <v>408</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>400</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>409</v>
+      </c>
+      <c r="X44" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>412</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>413</v>
+      </c>
+      <c r="J45" t="s">
+        <v>414</v>
+      </c>
+      <c r="K45" t="s">
+        <v>415</v>
+      </c>
+      <c r="L45" t="s">
+        <v>416</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>417</v>
+      </c>
+      <c r="X45" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>421</v>
+      </c>
+      <c r="J46" t="s">
+        <v>422</v>
+      </c>
+      <c r="K46" t="s">
+        <v>423</v>
+      </c>
+      <c r="L46" t="s">
+        <v>424</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>425</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>426</v>
+      </c>
+      <c r="X46" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>429</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>430</v>
+      </c>
+      <c r="J47" t="s">
+        <v>431</v>
+      </c>
+      <c r="K47" t="s">
+        <v>432</v>
+      </c>
+      <c r="L47" t="s">
+        <v>433</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>434</v>
+      </c>
+      <c r="X47" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>437</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>438</v>
+      </c>
+      <c r="J48" t="s">
+        <v>439</v>
+      </c>
+      <c r="K48" t="s">
+        <v>440</v>
+      </c>
+      <c r="L48" t="s">
+        <v>441</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>442</v>
+      </c>
+      <c r="O48" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>443</v>
+      </c>
+      <c r="X48" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>446</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>447</v>
+      </c>
+      <c r="J49" t="s">
+        <v>448</v>
+      </c>
+      <c r="K49" t="s">
+        <v>449</v>
+      </c>
+      <c r="L49" t="s">
+        <v>450</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>442</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>451</v>
+      </c>
+      <c r="X49" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>454</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>455</v>
+      </c>
+      <c r="J50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K50" t="s">
+        <v>457</v>
+      </c>
+      <c r="L50" t="s">
+        <v>458</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>459</v>
+      </c>
+      <c r="O50" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>460</v>
+      </c>
+      <c r="X50" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>463</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>464</v>
+      </c>
+      <c r="J51" t="s">
+        <v>465</v>
+      </c>
+      <c r="K51" t="s">
+        <v>466</v>
+      </c>
+      <c r="L51" t="s">
+        <v>467</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>468</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>469</v>
+      </c>
+      <c r="X51" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>472</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>473</v>
+      </c>
+      <c r="J52" t="s">
+        <v>474</v>
+      </c>
+      <c r="K52" t="s">
+        <v>475</v>
+      </c>
+      <c r="L52" t="s">
+        <v>476</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>477</v>
+      </c>
+      <c r="X52" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>480</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>481</v>
+      </c>
+      <c r="J53" t="s">
+        <v>482</v>
+      </c>
+      <c r="K53" t="s">
+        <v>483</v>
+      </c>
+      <c r="L53" t="s">
+        <v>484</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>485</v>
+      </c>
+      <c r="X53" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>488</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>489</v>
+      </c>
+      <c r="J54" t="s">
+        <v>490</v>
+      </c>
+      <c r="K54" t="s">
+        <v>491</v>
+      </c>
+      <c r="L54" t="s">
+        <v>492</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>493</v>
+      </c>
+      <c r="O54" t="s">
+        <v>173</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>494</v>
+      </c>
+      <c r="X54" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>497</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>498</v>
+      </c>
+      <c r="J55" t="s">
+        <v>499</v>
+      </c>
+      <c r="K55" t="s">
+        <v>500</v>
+      </c>
+      <c r="L55" t="s">
+        <v>501</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>502</v>
+      </c>
+      <c r="O55" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>503</v>
+      </c>
+      <c r="X55" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>506</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>507</v>
+      </c>
+      <c r="J56" t="s">
+        <v>508</v>
+      </c>
+      <c r="K56" t="s">
+        <v>509</v>
+      </c>
+      <c r="L56" t="s">
+        <v>510</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>511</v>
+      </c>
+      <c r="O56" t="s">
+        <v>173</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>512</v>
+      </c>
+      <c r="X56" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>515</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>516</v>
+      </c>
+      <c r="J57" t="s">
+        <v>517</v>
+      </c>
+      <c r="K57" t="s">
+        <v>518</v>
+      </c>
+      <c r="L57" t="s">
+        <v>519</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>520</v>
+      </c>
+      <c r="X57" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>523</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>524</v>
+      </c>
+      <c r="J58" t="s">
+        <v>525</v>
+      </c>
+      <c r="K58" t="s">
+        <v>526</v>
+      </c>
+      <c r="L58" t="s">
+        <v>527</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>528</v>
+      </c>
+      <c r="O58" t="s">
+        <v>173</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>529</v>
+      </c>
+      <c r="X58" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>532</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>533</v>
+      </c>
+      <c r="J59" t="s">
+        <v>534</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s">
+        <v>535</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>536</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>537</v>
+      </c>
+      <c r="X59" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>540</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>541</v>
+      </c>
+      <c r="J60" t="s">
+        <v>542</v>
+      </c>
+      <c r="K60" t="s">
+        <v>543</v>
+      </c>
+      <c r="L60" t="s">
+        <v>544</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s">
+        <v>493</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>545</v>
+      </c>
+      <c r="X60" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>548</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>549</v>
+      </c>
+      <c r="J61" t="s">
+        <v>550</v>
+      </c>
+      <c r="K61" t="s">
+        <v>551</v>
+      </c>
+      <c r="L61" t="s">
+        <v>552</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>553</v>
+      </c>
+      <c r="O61" t="s">
+        <v>173</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>554</v>
+      </c>
+      <c r="X61" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>557</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>558</v>
+      </c>
+      <c r="J62" t="s">
+        <v>559</v>
+      </c>
+      <c r="K62" t="s">
+        <v>560</v>
+      </c>
+      <c r="L62" t="s">
+        <v>561</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>562</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>563</v>
+      </c>
+      <c r="X62" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>566</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>567</v>
+      </c>
+      <c r="J63" t="s">
+        <v>568</v>
+      </c>
+      <c r="K63" t="s">
+        <v>569</v>
+      </c>
+      <c r="L63" t="s">
+        <v>570</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>562</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>571</v>
+      </c>
+      <c r="X63" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>574</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>575</v>
+      </c>
+      <c r="J64" t="s">
+        <v>576</v>
+      </c>
+      <c r="K64" t="s">
+        <v>577</v>
+      </c>
+      <c r="L64" t="s">
+        <v>578</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>562</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>571</v>
+      </c>
+      <c r="X64" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>580</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>581</v>
+      </c>
+      <c r="J65" t="s">
+        <v>582</v>
+      </c>
+      <c r="K65" t="s">
+        <v>583</v>
+      </c>
+      <c r="L65" t="s">
+        <v>584</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>585</v>
+      </c>
+      <c r="O65" t="s">
+        <v>173</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>571</v>
+      </c>
+      <c r="X65" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>587</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>588</v>
+      </c>
+      <c r="J66" t="s">
+        <v>589</v>
+      </c>
+      <c r="K66" t="s">
+        <v>590</v>
+      </c>
+      <c r="L66" t="s">
+        <v>591</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>571</v>
+      </c>
+      <c r="X66" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>593</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>594</v>
+      </c>
+      <c r="J67" t="s">
+        <v>595</v>
+      </c>
+      <c r="K67" t="s">
+        <v>596</v>
+      </c>
+      <c r="L67" t="s">
+        <v>597</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>571</v>
+      </c>
+      <c r="X67" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>599</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>600</v>
+      </c>
+      <c r="J68" t="s">
+        <v>601</v>
+      </c>
+      <c r="K68" t="s">
+        <v>602</v>
+      </c>
+      <c r="L68" t="s">
+        <v>603</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>604</v>
+      </c>
+      <c r="O68" t="s">
+        <v>173</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>571</v>
+      </c>
+      <c r="X68" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>606</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>607</v>
+      </c>
+      <c r="J69" t="s">
+        <v>608</v>
+      </c>
+      <c r="K69" t="s">
+        <v>609</v>
+      </c>
+      <c r="L69" t="s">
+        <v>610</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>611</v>
+      </c>
+      <c r="O69" t="s">
+        <v>173</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>612</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>613</v>
+      </c>
+      <c r="J70" t="s">
+        <v>614</v>
+      </c>
+      <c r="K70" t="s">
+        <v>615</v>
+      </c>
+      <c r="L70" t="s">
+        <v>616</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>617</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>618</v>
+      </c>
+      <c r="J71" t="s">
+        <v>619</v>
+      </c>
+      <c r="K71" t="s">
+        <v>620</v>
+      </c>
+      <c r="L71" t="s">
+        <v>621</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>622</v>
+      </c>
+      <c r="O71" t="s">
+        <v>126</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>624</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>625</v>
+      </c>
+      <c r="J72" t="s">
+        <v>626</v>
+      </c>
+      <c r="K72" t="s">
+        <v>627</v>
+      </c>
+      <c r="L72" t="s">
+        <v>628</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>622</v>
+      </c>
+      <c r="O72" t="s">
+        <v>173</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>630</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>631</v>
+      </c>
+      <c r="J73" t="s">
+        <v>632</v>
+      </c>
+      <c r="K73" t="s">
+        <v>633</v>
+      </c>
+      <c r="L73" t="s">
+        <v>634</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>635</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>636</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>637</v>
+      </c>
+      <c r="J74" t="s">
+        <v>638</v>
+      </c>
+      <c r="K74" t="s">
+        <v>639</v>
+      </c>
+      <c r="L74" t="s">
+        <v>640</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>641</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>643</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>644</v>
+      </c>
+      <c r="J75" t="s">
+        <v>645</v>
+      </c>
+      <c r="K75" t="s">
+        <v>646</v>
+      </c>
+      <c r="L75" t="s">
+        <v>647</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>641</v>
+      </c>
+      <c r="O75" t="s">
+        <v>173</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>649</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>650</v>
+      </c>
+      <c r="J76" t="s">
+        <v>651</v>
+      </c>
+      <c r="K76" t="s">
+        <v>652</v>
+      </c>
+      <c r="L76" t="s">
+        <v>653</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>654</v>
+      </c>
+      <c r="O76" t="s">
+        <v>73</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>655</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>656</v>
+      </c>
+      <c r="J77" t="s">
+        <v>657</v>
+      </c>
+      <c r="K77" t="s">
+        <v>658</v>
+      </c>
+      <c r="L77" t="s">
+        <v>659</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>660</v>
+      </c>
+      <c r="O77" t="s">
+        <v>126</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>661</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>662</v>
+      </c>
+      <c r="J78" t="s">
+        <v>663</v>
+      </c>
+      <c r="K78" t="s">
+        <v>664</v>
+      </c>
+      <c r="L78" t="s">
+        <v>665</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>660</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>666</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>667</v>
+      </c>
+      <c r="J79" t="s">
+        <v>668</v>
+      </c>
+      <c r="K79" t="s">
+        <v>669</v>
+      </c>
+      <c r="L79" t="s">
+        <v>670</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>671</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>672</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>673</v>
+      </c>
+      <c r="J80" t="s">
+        <v>674</v>
+      </c>
+      <c r="K80" t="s">
+        <v>675</v>
+      </c>
+      <c r="L80" t="s">
+        <v>676</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>677</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>678</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>679</v>
+      </c>
+      <c r="J81" t="s">
+        <v>680</v>
+      </c>
+      <c r="K81" t="s">
+        <v>681</v>
+      </c>
+      <c r="L81" t="s">
+        <v>682</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s"/>
+      <c r="O81" t="s"/>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>683</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>684</v>
+      </c>
+      <c r="J82" t="s">
+        <v>685</v>
+      </c>
+      <c r="K82" t="s">
+        <v>686</v>
+      </c>
+      <c r="L82" t="s">
+        <v>687</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>688</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>690</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>691</v>
+      </c>
+      <c r="J83" t="s">
+        <v>692</v>
+      </c>
+      <c r="K83" t="s">
+        <v>693</v>
+      </c>
+      <c r="L83" t="s">
+        <v>694</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>695</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>697</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>698</v>
+      </c>
+      <c r="J84" t="s">
+        <v>699</v>
+      </c>
+      <c r="K84" t="s">
+        <v>700</v>
+      </c>
+      <c r="L84" t="s">
+        <v>701</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>702</v>
+      </c>
+      <c r="O84" t="s">
+        <v>173</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>703</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>704</v>
+      </c>
+      <c r="J85" t="s">
+        <v>705</v>
+      </c>
+      <c r="K85" t="s">
+        <v>706</v>
+      </c>
+      <c r="L85" t="s">
+        <v>707</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>708</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>709</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>710</v>
+      </c>
+      <c r="J86" t="s">
+        <v>711</v>
+      </c>
+      <c r="K86" t="s">
+        <v>712</v>
+      </c>
+      <c r="L86" t="s">
+        <v>713</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>714</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>716</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>717</v>
+      </c>
+      <c r="J87" t="s">
+        <v>718</v>
+      </c>
+      <c r="K87" t="s">
+        <v>719</v>
+      </c>
+      <c r="L87" t="s">
+        <v>720</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>721</v>
+      </c>
+      <c r="O87" t="s">
+        <v>173</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>722</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>723</v>
+      </c>
+      <c r="J88" t="s">
+        <v>724</v>
+      </c>
+      <c r="K88" t="s">
+        <v>725</v>
+      </c>
+      <c r="L88" t="s">
+        <v>726</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>708</v>
+      </c>
+      <c r="O88" t="s">
+        <v>173</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>23313</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>727</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>728</v>
+      </c>
+      <c r="J89" t="s">
+        <v>729</v>
+      </c>
+      <c r="K89" t="s">
+        <v>730</v>
+      </c>
+      <c r="L89" t="s">
+        <v>731</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>732</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>731</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_639.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_639.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="819">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>terbear33</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The stay was perfect. Room was newly renovated with hard wood floors and very clean. Lisa the office helper was very pleasant and friendly. Staff on property was friendly. Educated on Six Flags Over Texas trolley and gave me passes. Would have liked a coffee pot in the room and there was no complimentary breakfast.More</t>
   </si>
   <si>
+    <t>talisman42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r572947810-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>Rooms have been updated to a modern style and are nicely put together. For being at the intersection of 2 major highways things were pretty quiet. Very close to Six Flags Over Texas and the Arlington Entertainment district, with the Ballpark and Cowboy Stadium and Hurricane Harbor only 5-10 minutes away. Service was a bit slow at the front desk when I went with multiple people in front of me and only 1 person working, but she was nice.More</t>
   </si>
   <si>
+    <t>Donald S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r567564038-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
     <t>I spent a week in Dallas area and went through three hotels looking for the best bang for my buck. I wish that I would have went to this one first and save my company money. Don't let the outside exterior fool you. The interior amenities are on par with 4 star accommodations elsewhere. They basically took a old building and remodeled the interior with modern/stylish amenities. This place is definitely a hidden jewel.. Don-More</t>
   </si>
   <si>
+    <t>danny R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r556360211-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Very clean and welcoming room, I literally did a thorough check around the room and found nothing except for some dust on top of the fridge. Give props for housekeeping on doing an excellent job ! I wish I would of left a tip but I was in a rush that I remember when I was on the road. The price is good if have a budget, I don't like the outside vibe it has, makes it look like a rundown hotel.  Thanks again for your welcoming stayMore</t>
   </si>
   <si>
+    <t>2uret2kas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r549406496-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>Great value. great stayed Very nice front desk lady at check in (room were not ready at1030'sh(am), told to come back around 12pm, Perfect. room were ready when came back to check in. Motel provided FREE shuttle to cowboys stadium More</t>
   </si>
   <si>
+    <t>Ggayle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r545963068-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -330,6 +348,9 @@
     <t>The hotel is dated on the outside, but the room was nice and clean.  The bed was very comfortable.  We were only minutes away from Six Flags too.  I have no complaints about this hotel. We would stay here again.More</t>
   </si>
   <si>
+    <t>Anne-Marijn D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r542338949-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>Nice and clean hotel room. Big room. Bed is comfortable and bathroom sufficient. Easy to find location and a lot of facilities around the motel. I’d recommand coming here if you need a place to stay around Dallas, but not want to be in the expensive centre. More</t>
   </si>
   <si>
+    <t>altie40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r540419120-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
     <t>Have been staying here almost a month on business. Had a little tv trouble and then they added brand new direct tv boxes with hundreds of channels. Front desk staff has always been great and helpful Ms. Pam is awesome and kind. Clean roombig bed. My stay away from home has been comfortable. I would recommend absolutly.More</t>
   </si>
   <si>
+    <t>Jeff Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r539492152-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -402,6 +429,9 @@
     <t>The room was dirty, the floors were dirty, dust everywhere, the shower extreamly small and the inside of the tub/shower was slick. I fell and broke my ribs and the manager was rude, said there was nothing they could do about it.  I said you better get that fixed before someone else gets hurt.  I got a we'll look into it and she turned and walked away.More</t>
   </si>
   <si>
+    <t>Cheryl D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r533569348-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>Came from Iowa, as Green Bay fans to see the game.  Had a great time at the hotel as well as at the game!  Full size refrigerator in the room helped us keep within our trip within our budget.  Coffee in the lobby 24 hours per day.  Front desk staff was so wonderful. Liza, Neal and Prit took very good care of us!  Thank you so much to this staff for answering all of our questions.  They even let us print out our boarding passes for our flight back home.  The room was very clean and very quiet.  Pool was clean and refreshing.  Close to stadium.  Free Shuttle to and from the airport and to and from the game.  Shuttle drivers efficient and polite.  We were treated so well by all of the staff.  The housekeepers were so quiet while they worked.  Often at hotels you hear housekeepers banging doors as they close them.  These housekeepers were so quiet, it was like they cleaned the room with a magic wand.  Everything done perfectly, and without disturbing anyone!!!!  Truly a hidden treasure in the area!!!  Would stay again and would recommend to people on a budget that want to maximize their experience in the area.More</t>
   </si>
   <si>
+    <t>Traveller17956</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r524203257-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>Used this location because of the shuttle service to the Cowboys game , glad that it's been renovated , its cleaner ,smells much better now , new furnitures , friendly staff especially the driver who was very efficient in maneuvering around traffic and blocked streets. But best of all is the honesty of the staff , we didn't realize till 3 days later that we left an IPad, called the front desk and lo and behold they have it ! Will use this hotel again for sure .More</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r523644838-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>Ok hotel for the price and nights stay. The staff was very pleasant and accommodating. The free shuttle to and from Cowboys-Rangers games is the best. My wife and I attended the Cowboys vs Giants game on 9/10/17. The return van was easily findable, we were back to the hotel in record time for game day traffic. We would definitely stay again.More</t>
   </si>
   <si>
+    <t>Amberla H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r505199681-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Perfect for one cheap night during our visit to attend a concert at the Verizon Theatre. Right across the highway from Six Flags. Very friendly desk attendant lady. No in room coffee but they always have coffee in the lobby. No frills, no fuss. Quiet. Cool. Comfortable. No complaints! Thanks!More</t>
   </si>
   <si>
+    <t>paymeami2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r504316359-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -522,6 +564,9 @@
     <t>Upon pulling into the property we were like "uh oh". It looks run down and old. We had trouble getting to the front using GPS cuz of the access road or whatever. The office is on its own and not connected to the rooms. I tell you this in case the sell of burning incense bothers you. The woman at the desk was very pleasant. While we were checking in, it seemed she was dealing with an issue with some unsavory guests . She was handling it all very professionally even though you could sense the stress. This hotel looks out at 6 flags depending on the room. Its cool to see the lights at night and even hear the screams! The room had a musty smell. However it had been updated which was evident. The full size fridge was a bonus as in Texas you need ALOT of water!! I was attending a conference at the stadium and it was easy to get too and close. This two story hotel hosts lots of families for the park. So we dealt with lots of running around above us and screaming. I have kids so it didn't bother me too much. Next time I am on business, I would pick something else if its summer vacay season. There is a pool. Its like, in the parking lot and you won't swim laps but the kids will be wet so they will...Upon pulling into the property we were like "uh oh". It looks run down and old. We had trouble getting to the front using GPS cuz of the access road or whatever. The office is on its own and not connected to the rooms. I tell you this in case the sell of burning incense bothers you. The woman at the desk was very pleasant. While we were checking in, it seemed she was dealing with an issue with some unsavory guests . She was handling it all very professionally even though you could sense the stress. This hotel looks out at 6 flags depending on the room. Its cool to see the lights at night and even hear the screams! The room had a musty smell. However it had been updated which was evident. The full size fridge was a bonus as in Texas you need ALOT of water!! I was attending a conference at the stadium and it was easy to get too and close. This two story hotel hosts lots of families for the park. So we dealt with lots of running around above us and screaming. I have kids so it didn't bother me too much. Next time I am on business, I would pick something else if its summer vacay season. There is a pool. Its like, in the parking lot and you won't swim laps but the kids will be wet so they will love it. Overall if someone told me there were staying here I would not try to talk them out of it like I would some places.  I hope my review was helpful! If so please click "YES"!More</t>
   </si>
   <si>
+    <t>cslaughter92cs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r503194658-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>My family and I have stayed at the Red Roof on 360 in Arlington by Six Flags every time we come into town and the staff is very nice to make sure we had clean beds,towels,and a spotless room.The front desk is very helpful to assist in the Trolly bus that will take you to the ATT stadium,The Ballpark in Arlington,and also Six Flags which saves gas and having to pay for parking. The Red Roof not only makes sure your stay is great but also will go to great lengths to make sure that it is the best stay you will ever have.We have stayed in rooms 290,181,115 and the rooms were contemporary styled,flat screen TV,fast wifi,and complimentory coffee in the lobby that is just as good as Starbucks.I will always come to the Red Roof on 360 and I-30 every time I come to town over any other Hotel in Arlington,TX.More</t>
   </si>
   <si>
+    <t>lalohan12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r496213539-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -570,6 +618,9 @@
     <t>If there was a way to give no stars I would! Long story short PLEASE DO NOT WASTE YOUR MONEY ON THIS ESTABLISHMENT!!! The service was TERRIBLE especially the attitude of the "general manager" PAM (there should really be a more competitive selection process for more competent upper management), the room was TERRIBLE, the location was SKETCHY. Ended up cancelling after the first night, for an original 5 day stay! Then the cherry on top was when I called their corporate office and sent a detailed email of my horrific experience along with pictures, their response was "sorry." While we both were shared an understanding that their establishment and service was just that, "sorry," still did not resolve the issue of my TERRIBLE EXPERIENCE.More</t>
   </si>
   <si>
+    <t>Emma B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r496020811-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -594,6 +645,9 @@
     <t>I booked this hotel online in advance because we were moving across the country with our two dogs.  When we arrived at the hotel at 11:00pm after driving ten hours the manager (owner?) refused to let us stay because we had more than one pet.  I put on the reservation notes that we had two dogs ahead of time- so it's not like I was trying to hide anything.  We even offered to pay, but the (extremely rude) woman declared that their policy was to allow only one pet per room.  No exceptions.  This was a horrible night- we were exhausted and had to scramble to find another place to stay.  THis place should have been HAPPY to accept my two well-behaved dogs because without this policy I would have NEVER booked this hotel.  It was extremely hard to get to (on a road parallel to highway with restricted entries/exits- GPS was VERY confused) and is located near a bunch of closed up businesses.More</t>
   </si>
   <si>
+    <t>Nrne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r494358321-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -616,6 +670,9 @@
   </si>
   <si>
     <t>We were in town for the Metallica concert and looked this place up online. It was the first one shown on booking.com. We got there early and got checked in right away. The lady behind the counter was patient with us and very nice. The room we got was in the middle building on the first floor by the pool. The room itself was nice. Full sized refrigerator, a microwave, hair dryer. Air conditioner was already on and cool when we got there which was nice. The beds were comfortable and slept soundly. No loud parties or people, at least none we could hear. I would definitely stay again. A big plus was the free shuttle to AT&amp;T Stadium to and from the concert!!More</t>
+  </si>
+  <si>
+    <t>ksstraw</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r489226800-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
@@ -646,6 +703,9 @@
 The ONLY reason we stayed there was because it was close to Six Flags. Well, it was close enough that we could see...I'm going to be as fair as I can about our stay at this place. To be honest, the room wasn't just horrible. The air conditioner worked just fine, the beds were just ok, no carpet so no real smell, everything worked except for internet. They say free wifi, yep, wifi worked but didn't connect to the internet so I guess there's truth in their advertising. Lol. Our room did have a much larger refrigerator than I expected and worked just fine. The outside of the place is just scary, barbed wire fences around the property, to make you feel safe I guess. The hotel itself looks like it's been limped along since the 60's, adding another coat of paint every couple of years to cover the rotting exterior. The pool looked clean except for the stained bottom. In the pool area there was a repurposed chemical container being used as a trash can. The office was a dingy little room with a counter, complimentary computer area, and a coffee pot. In our room we had no tissues so when I asked for some I was directed to take some napkins from the office coffee pot area. The person at the desk barely understood English. Did not understand what I was asking for when I said Kleenex. The ONLY reason we stayed there was because it was close to Six Flags. Well, it was close enough that we could see it from our room and there was a Trolley that picked us up and brought us back from the park but we will NEVER stay there again. If I'm real honest, The place couldn't charge more than $50 a night if they weren't so close to some important area attractions.More</t>
   </si>
   <si>
+    <t>vanascious</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r488098979-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -670,6 +730,9 @@
     <t>Do not let the renovated rooms and pictures fool you.  I was put in a room that was renovated but the smell that you get from the room smelled like old mustiness.  Then my husband decided inspect the beds and found a disgusting looking stain.  The floors make me not want to take my shoes off and the AC wasn't cold enough to mask the smell! UGH! We couldn't will ourselves to stay there.I wanted a refund but they would not give me back my full refund because I was in the hotel for longer than 10 mins....  Customer service was not accommodating at all.  I've stayed at other Red Roofs before and loved it.  This one is a franchise.More</t>
   </si>
   <si>
+    <t>Angela C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r472382324-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -697,6 +760,9 @@
     <t>This hotel when you drive up looks like it's been there quite a while. However, they are in the process of renovating the property. I was lucky enough to get one of the renovated rooms. It was clean and fresh, it had enough drawers and horizontal space for all our stuff. One of the things I really liked was the refrigerator. Instead of having a "mini-fridge" it had a very narrow full sized refrigerator. It also had a microwave. This allowed us to bring frozen food for breakfast and microwave it before we started our day at 6:00 am! The staff were friendly. Check in and check out were hassle free. Definitely recommend this property if you're in Arlington!More</t>
   </si>
   <si>
+    <t>Daniel  S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r445646739-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -724,6 +790,9 @@
     <t>Came to watch the Cowboys game. Good place to stay for the game. They shuttle you to the game and back so that's a plus. Close to places to eat and drink. Room was nice and clean. Will book here again when I catch another game. More</t>
   </si>
   <si>
+    <t>53RodMan1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r427120156-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -751,6 +820,9 @@
     <t>Knights Inn Arlington was a nice place. No carpet in our room. Not the cleanest floor, but ok for the price in the area. The check in area &amp; breakfast area is a bit odd but the hotel in general is fine. One thing we learned was other hotel shuttle will not pick up before the end of the game. We ended up having to call Uber. More</t>
   </si>
   <si>
+    <t>dakotakid2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r424559752-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -778,6 +850,9 @@
     <t>Good place to pregame tailgate, ride to and pickup following the game provided.  Rooms are worth the bathroom for a tailgating.  You are not going to take off your socks or shorts.  Outside of a game weekend it's a rent by the week flee house.  On a one way street needing urban renewal, good Mexican restaurant nearby.More</t>
   </si>
   <si>
+    <t>Bobbie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r411395087-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -805,6 +880,9 @@
     <t>This accommodation is strictly no frills but excellent value for the money. Although some of the furnishings in the lobby looked shabby, the room was clean and staff exceptionally helpful.  The woman at the receptionist desk offered to print out my boarding pass if I texted her my itinerary (there is no guest computer access at Knights Inn) and helped me out when I was having trouble with the Uber app on my phone.  The location is ideal for anyone planning to visit Six Flags Over Texas. (You can see the park from Knights Inn and even watch the roller coasters.) That was the purpose of my trip to Arlington and one of the reasons I chose Knights Inn is that they offer free shuttle service to and from the park.  Also, this accommodation is within walking distance of a convenience store that sells food, beer, wine, etc.  The complimentary breakfast was good and included waffles.  I stayed at the Knights Inn for two nights and it cost me approximately $58.50 per night.  At that price it was a very good deal.  I would definitely stay there again if I decided to go back to Six Flags Over Texas.More</t>
   </si>
   <si>
+    <t>Claudia Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r403406412-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -832,6 +910,9 @@
     <t>This is a basic hotel, if you will use it just to sleep, that's excellent, continental breakfast, outside pool, near the Dallas cowboys stadium, rangers stadium and six flags....hotel personnel were very friendly.More</t>
   </si>
   <si>
+    <t>Lisa W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r401488236-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -856,6 +937,9 @@
     <t>We were in town for a concert and chose this hotel mainly because they offered shuttle service to AT &amp; T Stadium. It is in a perfect location for most local tourist attractions. Our room was clean, and staff was friendly. Free breakfast is also a plus. I would stay here again if in the area.More</t>
   </si>
   <si>
+    <t>TheodensQueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r378265282-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -880,6 +964,9 @@
     <t>This motel is just blocks away from Six Flags (great place to stay and walk to).  It's about 1 1/2 miles from Globe Life Park (and a little bit further from AT&amp;T Stadium) but they actually do shuttles to/from for your convenience.I accidentally booked a smoking room, and being a non-smoker I wasn't too happy with the residual smoke smell in the room--but this is not their fault, as it was my accident in booking.  The floors were wood laminate, nicely done (not sure if the non smoking rooms were carpeted).  Cannot vouch for the TV in the room as we actually didn't use while we were there.  Microwave and fridge in room.  Vending machine out by the office but also there is a gas station next door for more snacks.  Staff were very nice.  Would stay here again if in the area.  I would recommend for others if looking for an inexpensive place to crash.  Free wifi.  Downside is it said it had a "business center" so we would be able to print our boarding passes, but when we got there there were no computers or printers anymore.More</t>
   </si>
   <si>
+    <t>TC-PA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r362143614-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -907,6 +994,9 @@
     <t>My son and I checked in for the WrestleMania weekend.  Check-in was efficient and friendly.  The manager gave us directions to local restaurants and apologized for the work going on as they updated.  It was obvious that improvements were being made.   Our room was updated and was very suitable for our 6 day stay.  It was convenient to gas, restaurants and highways.  It is not a luxury hotel, but very good for a visit to Arlington.More</t>
   </si>
   <si>
+    <t>jandkf00te</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r357605871-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -934,6 +1024,9 @@
     <t>My room was nice and clean. Good price for stay. Staff was really nice. Good shower with lots of water pressure. Bed was very comfortable.Towels were soft, floor was nice and clean.The location is great... just a few minutes from everything !!More</t>
   </si>
   <si>
+    <t>jwhill79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r342200383-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1054,9 @@
     <t>Picked this hotel based solely on the shuttle to AT&amp;T Stadium. The shuttle was very convienent and made our stay. Leaves from the lobby area and drops you off a few blocks from the stadium at a stop marked with a Knights Inn sign. Picks up from the same spot you are dropped off at after your event.Breakfast was below average even for a cheap continental breakfast. The room was clean. The environment was comfortable and quiet. Room had a full refrigerator and a microwave. The location of the hotel is excellent. Not only near the football and baseball stadiums, but also right by Six flags. Also, it is located at the corner of an intersection of two major freeways so getting to anywhere you want to go in the DFW area is very easy and convenient. If you are searching for a hotel in this type of price range then you know what to expect. Its not a place with tons of ammenities, but it was a perfectly fine place to sleep. Which is all we really needed. For the money it was an excellent stay.More</t>
   </si>
   <si>
+    <t>Mary H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r339817123-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -985,6 +1081,9 @@
     <t>Booked room online,  saved over $25 per night. King size bed,  couch and even a refrigerator. Restaurants are close by. Y even have an outdoor pool,  that's still open. Would recommend this place. They even have free breakfast More</t>
   </si>
   <si>
+    <t>PhD4Yah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r335798775-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1012,6 +1111,9 @@
     <t>Not much to say about this hotel. It was adequate. It met my needs but I would probably look for someplace different to stay next time.I really enjoyed the Texas shaped waffles however. THAT was the highlight of my stay.More</t>
   </si>
   <si>
+    <t>Amanda R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r320735100-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1139,9 @@
   </si>
   <si>
     <t>We traveled here to go to watch the Falcons take on the Cowboys. Was a little nervous giving the mixed reviews, but everything turned out fine. They offer a shuttle to and from the game, which made our trip. There are signs at the pickup area for the hotel shuttle. Breakfast was fine. It does look like it needs a bit of maintenance on the outside, but the rooms were fine. We really just needed a place to shower and sleep and wanted to use the shuttle. Very close to Six Flags if in the area for that.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r310936523-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
@@ -1069,6 +1174,9 @@
   The icemaker is in a little room outside by the lobby. Staff...  Reserved rooms here for the Wisconsin Alabama game. Hotel worked out great! (game, not so much) We were a bunch of guys, with average guy standards.     Outside of the hotel looks sketchy, but rooms were nice. Working air conditioner and tv with free HBO. Full size refridgerator and small microwave included. Bathrooms small, but recently upgraded to marble. Sink/countertop in room, with separate toilet/shower. Plenty of towels. Strong wifi in rooms and even by the pool. Different wifi in each building (three buildings with rooms and one for lobby). Code was hotel telephone #, which is on the back of the keycards.  The pool was fine, although they could use some more/newer chairs snd loungers. And a large dedicated trash can. Everyone just used the empty planters! Hours were 11 a.m. to 10 p.m..The water was wondeful as it was 95+ degrees outside. I don't believe the pool was heated.  Small breakfast included in room by the lobby. Cereals, muffins, bread, waffles (in the shape of Texas!), juices, coffee, etc. Open at 7 a.m.. Since there is also a microwave in the breakfast room and you have a refrigerator in your room, pick up some frozen sausages, precooked bacon or frozen breakfast sandwiches or omelets ro supplement the carbfest offered by the hotel. There's a Walmart about 2 miles away, over by the stadium. Don't forget poolside snacks/drinks!  The icemaker is in a little room outside by the lobby. Staff at the hotel were nice. They responded quickly to any issues and were helpful. There are sign-up sheets at the front desk for the shuttle to the stadium. As the AT&amp;T stadium shares parking lots with the Texas Rangers Stadium, the shuttle goes to a pick-up point between the two. There are also cabs circling, in case you don't want to wait. The shuttle worked fine for us.There is a sign with the hotel's name at the pick-up point. We were told that the shuttle could also be used when going out to area bars at night, but didn't actually use this service.  The big restaurant next door had closed down and was for sale. Next to that, however, is a Tex/Mex restaurant, which was excellent. Other fast food restuarants in walking distance, but need car/shuttle/cab for nicer options. Told there was a grood Hooters style redneck bar across the Highway, but never made it there ourselves.  All in all, we had a pretty decent experience here. Rooms were clean and well air conditioned. Pool, shuttle, breakfast, plenty of parking and good wifi. Don't expect fancy and it will be fine. More</t>
   </si>
   <si>
+    <t>msteresa87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r297294730-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1093,6 +1201,9 @@
     <t>Now, I don't like writing complaints but with this motel it's hard not to. Basically, many gross things were seen. There was hair in the tub, the refrigerator was nasty and had yellow stains all over it. The paint on the three buildings where the rooms were located was chipping off and needed some touch-up. There were stains on the bed sheets, the towels were rough and scratchy. The pool area, almost all the chairs were worn, some were dirty. The only good things were the location near the Global Life Park, AT&amp;T Stadium, the older guy that drove the shuttle bus was nice and seemed to be the only one who worked there that seemed to know what he was doing. The beds were comfortable.There is no way in hell I'll ever stay at this cheap motel ever again.More</t>
   </si>
   <si>
+    <t>Geoff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r288501144-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1117,6 +1228,9 @@
     <t>The bed was horrible.  The room was "clean" but was in desperate need of an upgrade.  The walls and doors looked like they hadn't been pained in 30 years.  The floors were uneven.  The TV listed 30 or so stations but many didn't work.  No ESPN in a hotel???  Really???  The price wasn't bad but I would expect a little more for the price.  The room was also very small.  It had a king size bed and it felt like the bed took up more than half of the room.More</t>
   </si>
   <si>
+    <t>tiana228</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r284899056-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1258,9 @@
     <t>This was a decent hotel for the price and close to everything.  I was a little worried after reading other reviews but there were more good than bad so I went with it.  I was pleasantly surprised.  The room was very clean.  I didn't see adult roaches, baby roaches or any other bugs for that matter...  No hair in the bathroom... clean bathroom, counter and sheets... the pool looked very clean and the refrigerator and microwave were clean as well.  I had no problems using the wifi and my payment for the room was processed according to the price on my reservation.  It's not the Marriott but it was a lot better than my family members room at the Motel 6 down the street.  A WHOLE lot better.  I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>neal f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r280735214-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1168,6 +1285,9 @@
     <t>A little sketchy on the outside-- what imaginary person was the man in the leather vest and fake leopard skin hat talking to in the parking lot at midnight? -- and visibly sagging balconies - but inside, the room was clean and VERY quiet. I don't know about you, but that's a must for me. Getting a good night's sleep is hard enough at home; it's much harder traveling. A great deal for less than $50. A what a location! Right next to 6 Flags, both stadiums -- with a shuttle taking you there, no less!However: not recommended for the skittish. I saw some older white people visibly scared -- of what? A harmless, homeless black man? One overweight white woman wanted a refund because the balcony scared her. I'd be scared too, were I that balcony.More</t>
   </si>
   <si>
+    <t>Kellie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r275435212-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1195,6 +1315,9 @@
     <t>Came for a weekend stay for the baseball game and first night in I regret booking here! Found a dead baby roach on our floor, very loud ac and its kicking on and off so our room is very hot and our ceiling looks like it's about to give in on us!! I could go on and in about this dirty place, I DO NOT recommend this place...at all!!!! More</t>
   </si>
   <si>
+    <t>Edwin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r273911767-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1213,6 +1336,9 @@
     <t>Took my family to go see the Rangers and Cowboys this summer and found that this was the cheapest Hotel with shuttle service to and from the Rangers/Cowboys games. That was a big relief for me since I didn't have to pay for parking. Now the rooms were right for the price and the staff was more than cooperate with me. I am going next summer for sure. More</t>
   </si>
   <si>
+    <t>Kinsley W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r269148140-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1366,9 @@
     <t>First I carrier my daughter PLUS luggage up stair to a room that was a complete wreck: bed propped against the wall, trash everywhere, etc. Went to the office and changed rooms...there was hair in the tub and on the walls, a straw wrapper floating in the toilet as well as toilet paper stuck to the front of it. There were pet pee spots that were STILL WET and the room smelled horrible. I have a 2 year old I wouldn't even let on the floor. The lamps were missing bulbs, there were no towels (and when I asked for a couple they acted like I was lying!) No remote for the tv...advertised as $39.99, I had to pay $70 because "those rooms aren't available". I'd say sleep in your car before wasting money at this dump. It's gross and the worker are RUDE and not helpful AT all.More</t>
   </si>
   <si>
+    <t>Sagar M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r264319640-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1393,9 @@
     <t>I was visiting Arlington, TX from California with my wife and feel lucky to find Knights Inn Arlington - The Hidden Gem. Do not be fooled from outer appearance, inside will amaze you. It seemed like recently remodeled; very clean rooms and beds are very comfy. Stayed there for the Easter weekend and visited six flags. This place gives free shuttle to attractions which saves money almost worth 2 nights of a hotel stay. Great customer service and very friendly staff. We stayed regular king bed room facing the six flags rides, it looks amazing at night. Check out their jacuzzi suite room, we stayed 1 night in suite out of our entire stay and wish we had stayed in that room for the entire time. The general manager is mostly on site and takes good care of their guests :) We would stay again and definitely recommend everybody. Great for families.  Thank you Knight Inn Arlington for making our weekend memorable.More</t>
   </si>
   <si>
+    <t>Ashley_8604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r259422649-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1288,6 +1420,9 @@
     <t>I was a little worried about staying here when I saw the building. And even more worried when I walk in to the front desk. After I got everything sorted out with my room I went to find my room. When I walked in I was shocked it looked very nice, the bed was comfortable the pillow(4) we're comfortable. It had a flat screen tv. Not many cable channels but thats fine with me I watch alot of things on my phone.  They offer free breakfast which I really liked the waffle maker or there is a dennys across the street/highway and subway. Six flags. And two gas stations that are walking distant. Housekeeping(my tub did have a ring around the tub) I had a microwave and full refrigerator in my room. Their a walmart 10min away,(diffently needed that I left my soap at home and I don't like the soap they offer it was waxy) I did have a problem with the outlet but all . I had to do was reset it and it worked no big deal, the sheets were clean. My stay was for four days and I will stay here again. More</t>
   </si>
   <si>
+    <t>Richard T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r258378439-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1315,6 +1450,9 @@
     <t>The sat/nav found the motel easily, first impressions are that it could do with a refurbishment on the outside. Still a friendly receptionist that contacted 'someone' to put the heating on in 'our' room (259) and kept me talking whilst it warmed up. We walked in and it looked a bit drab. But, once the lights were on and it warmed up (it was very cold in Dallas) - the room was good. A monster fridge, microwave, coffee maker (none of which we used). An enormous bed that was comfortable and cclean, as was the rest of the room. An excellent choice for breakfast and lots of it. I particularly liked the self cook waffles that come out in the shape of a map of Texas ! Recommended. The Wi-Fi worked for us.More</t>
   </si>
   <si>
+    <t>Maximus710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r257195862-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1339,6 +1477,9 @@
     <t>The sheets were not cleaned I found rubber band in bed and then asked for noon check out because arrived in town after midnight and drover there from Colorado and front desk said ok. They were knocking on my door with towels to do house keeping about 1045 am. Explained how noon check out but leaving soon and they said ok. 10 minutes later they called the room saying our you checking out I explained again I had noon check our but packing stuff would he gone soon and then they stood by my door and just plain rude. Would never stay at knights inn again and wouldn't recommend anyone too. Many better options in the area. You get what you pay for and this room and hotel is trash.More</t>
   </si>
   <si>
+    <t>Rikki F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r253202862-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1366,6 +1507,9 @@
     <t>My sister and I stayed here for 4 nights....we didn't research the area and it was a bit far out from Dallas City so we were a little disappointed about that but the hotel was great! So cheap yet very comfortable! The beds are awesome, the staff are so friendly and helpful! Would highly recommend this Inn if you are on a budget!! Defiantly organise a hire car as the public transport isn't very assessable!!More</t>
   </si>
   <si>
+    <t>DavidBellile</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r249849443-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1390,6 +1534,9 @@
     <t>I stayed at Knights Inn Arlington for five days from January 15 to January 20, 2015.  If all you need a place to crash with a hot shower and clean sheets, then this will meet your expectations.  There are many things they could do to improve the hotel, but then they would probably have to raise the price for their rooms.  My room was clean, the bed was comfortable, the wifi worked, and the continental breakfast was adequate.  The location is also good, although the surrounding neighborhood leaves a lot to be desired.  With that said, it didn't feel dangerous to me.Bottom line: if you need luxury and pampering, then Knights Inn is not for you.  However, if you're a traveler on a budget, then this hotel is about as good as you can get in Arlington for under fifty bucks a night.More</t>
   </si>
   <si>
+    <t>Lee C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r238295208-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1564,9 @@
     <t>We stayed at the Knights Inn due to the convenience getting between both venues. The hotel runs shuttle buses to the Cowboys stadium but the service is unorganised at the pick up location near the stadium. It can take 2-3 hours to get back to the hotel from the game (the La Quinta hotel ended up dropping us back due to Knights Inn service unreliable). The rooms are average and bathrooms small but location is perfect. No safety deposit box. Didn't use the pool so can't comment. Gets very busy on game day.More</t>
   </si>
   <si>
+    <t>Xavien P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r237128379-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1594,9 @@
     <t>This is my second time staying at the Knights Inn in Arlington.  Again....the customer service here is second to none.  The staff is very pleasant and eager to please.  I actually arrived very early on the day of check in, and they were ready to accommodate.  The room was extremely comfortable as it was the last time I stayed here.  I am still amazed that there is a full-sized refrigerator there.  I choose to stay here because it is in Arlington and in the middle of everything I'll need to get to.  My family doesn't live far away, and I can get to anything I need to very quickly.  This hotel is very convenient for me, and I really enjoy my stay here. Thanks to the staff for being friendly and helpful both times I've stayed.  I know I will be back.More</t>
   </si>
   <si>
+    <t>cowboysfan2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r236989952-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1468,6 +1621,9 @@
     <t>Good location for the price . Bathrooms are the smallest I have ever been in ( maybe 6 x 8 ) and that may generous . Went to the pool at noon and it was locked for some unknown reason . A/C was cold and worked well , the temperature of the water in the shower could only be set at very hot or very very hot , we had to take very quick showers or get burnt.Would we stay again probably not !More</t>
   </si>
   <si>
+    <t>Gerald K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r230865111-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1648,9 @@
     <t>Stay away. I saw at least 20-30 roaches within rhe first twenty mins i was there. Then when i called the front desk and asked for a refund the clerk said he couldnt but could put me in another room because he said we waited too long. After arguing for a few mins i finally took the second room and the AC did not work nor the plug outlets. Keep in mind this was at 1am. Save your money and go down the street to extended stay america. More</t>
   </si>
   <si>
+    <t>729TGE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r228498786-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1519,6 +1678,9 @@
     <t>We picked this particular hotel in order to save some money over the comparatively expensive alternatives nearby. It is conveniently located if you're in town for any of the games or any of the commercial sights that make Arlington (occasionally) appealing. Our experience there started off with a miscommunication between the staff and ourselves regarding our reservation. It was resolved, but they weren't particularly friendly about it. The room itself was tiny, but at least it did have a small desk, chair, and a television in it. The desk chair had some rather adventurous-looking stains on it (we tried hard NOT to speculate), but the bathroom was very clean. At nighttime, there were some sketchy-looking characters hanging out in the parking lot, and I'm sure we could have shopped for illegal entertainment without much difficulty. Overall it was a decent stay at a cheap hotel--you get what you paid for.More</t>
   </si>
   <si>
+    <t>okybrian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r221057128-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1546,6 +1708,9 @@
     <t>We normally stay at the higher-priced hotel across the street; paying $150-200 a night. Well, this hotel is half-the-price for all the same amenities. We were able to get one of our rooms at 1000am so we could put all our gear into, then we came back later in the day and got our other room.The driver took us to the water park, dropped us of, and then picked us back up after the day of fun.The rooms &gt; Incredible first-impression! All new furniture and carpet. Not sure why they did not paint the doors as they showed stains and may have been dirty, but overall, the place was great.TV reception was a little fuzzy, but heck, I am paying half-the-price so I will deal with the little stuff. Breakfast was very minimal, but again....................$$$$Great property that I highly recommend and will go back to each time I visit Six Flags Texas.More</t>
   </si>
   <si>
+    <t>LISA E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r218751263-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1573,6 +1738,9 @@
     <t>Stayed here for 4 nights, had initially paid for 5 but had to leave unexpectedly. We weren't given any trouble for having to checkout early, but did have to wait 48 hours for bank to process the refund. NO BIGGIE though !!  With that being said, we didn't have a room reserved when we arrived and were surprised when we stopped by late at night (9pm) to check and were able to find an available room. The rate we got was also great (especially for the weekend). We had the pleasure of dealing with 3 different front desk personnel and each one was kind and helpful. There was tons of security cameras everywhere so we knew at some point or another the entire premises was being watched. This made me feel at ease especially since our room was on the very back section of hotel rooms.  Our room seemed a little tight due to layout of a desk table, tv hutch and full size fridge along the same wall, but we managed. The continental breakfast was great....eating area was a bit packed, but that was expected due to the Rangers/NY games going on and this place was pretty close to the ballpark. The pool was GREAT!! We witnessed maintenance checking the pH levels in the morning and the water was also clean &amp; clear the entire stay. ((Can't say the same for the place our friends stayed at...their pool water...Stayed here for 4 nights, had initially paid for 5 but had to leave unexpectedly. We weren't given any trouble for having to checkout early, but did have to wait 48 hours for bank to process the refund. NO BIGGIE though !!  With that being said, we didn't have a room reserved when we arrived and were surprised when we stopped by late at night (9pm) to check and were able to find an available room. The rate we got was also great (especially for the weekend). We had the pleasure of dealing with 3 different front desk personnel and each one was kind and helpful. There was tons of security cameras everywhere so we knew at some point or another the entire premises was being watched. This made me feel at ease especially since our room was on the very back section of hotel rooms.  Our room seemed a little tight due to layout of a desk table, tv hutch and full size fridge along the same wall, but we managed. The continental breakfast was great....eating area was a bit packed, but that was expected due to the Rangers/NY games going on and this place was pretty close to the ballpark. The pool was GREAT!! We witnessed maintenance checking the pH levels in the morning and the water was also clean &amp; clear the entire stay. ((Can't say the same for the place our friends stayed at...their pool water was an awful green!! YUK)) Anywho, if we return to Dallas ever again I will be sure to check this place first.More</t>
   </si>
   <si>
+    <t>Eatingfools</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r216608546-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1597,6 +1765,9 @@
     <t>This hotel is nothing fancy but it gives you a convenient and cheap place to stay if you are planning a trip to six flags. It was average in everything else.......nothing to write home about. Breakfast was minimal but free and that is nice for a family. More</t>
   </si>
   <si>
+    <t>Deborah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r214849935-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1624,6 +1795,9 @@
     <t>If you are going to Six Flags Over Texas, check out this hotel.  Very convenient, good price, great breakfast (waffles in the shape of Texas), and even a pool.  Room was spacious and comfortable with microwave and refrigerator.  And the staff (all the staff--front desk, breakfast, domestic services) were very welcoming and friendly.More</t>
   </si>
   <si>
+    <t>edgar90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r208108381-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1822,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>JTrooper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r205208885-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1672,6 +1849,9 @@
     <t>I stayed one night, check in was quick. The room was recently updated and still undergoing. New appliances, including a large sized fridge and freezer combo. You can easily tell they are currently remodeling. Room was clean. Had an issue with a staff member entering my room while I was changing and much prior to check out time, he then closed the door and then he went to hide in another room. Hotel owner came to office to review tapes all she said was "sorry, this will be addressed", they brought the gentleman up to the office to apologize to me personally- he did not speak English at all or understand. Just smiled and shrugged his shoulders and said sorry. Very upsetting no other action was taken. More</t>
   </si>
   <si>
+    <t>Mallory R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r183702864-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1699,6 +1879,9 @@
     <t>We stayed for 3 nights to attend the Dallas Game on Sunday. The hotel staff is friendly and try and answer questions. Our hotel room wasn't the cleanest and our sheets had stains but honestly for the price I was expecting worse so I was pleasantly surprised. We had a full fridge and microwave. We didn't use it but they were nice!The best part of our experience was the shuttle to and from the game!! Honestly overall it isn't the worst place I've ever stayed at and it isn't the best... for the price it was better than I expected, and I would stay there again.More</t>
   </si>
   <si>
+    <t>jbeac1824</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r177958562-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1726,6 +1909,9 @@
     <t>This is a great place to stay for the price and convenience of all major attractions. The staff is always very professional and willing to go out of their way to provide anything to make your stay more enjoyable. My wife and I have stayed at this motel for every Dallas Cowboy game for 4 years and everything is always clean and comfortable. The breakfast is very nice and the waffles are great. Two thumbs up!More</t>
   </si>
   <si>
+    <t>Buddy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r177708267-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1750,6 +1936,9 @@
     <t>My wife and I have stayed at this Knight's Inn since 2009. It is inexpensive, clean and is close to Six Flags, Cowboy [AT&amp;T] Stadium and Rangers Ballpark. It offers s free shuttle to and from all these venues. If necessary, they will shuttle you to and from DFW, as well. The management is excellent and the staff is friendly. The manager is a "hands on" manager and does a great deal of the shuttling, as does his wife if need be. Our two day stay this past weekend was pleasant, as usual.More</t>
   </si>
   <si>
+    <t>truthislife</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r177468323-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1768,6 +1957,9 @@
     <t>My experience was not acceptable at all. I arrived in the middle of the night after reserving my hotel based on reviews and the rate.  My first impression was not a good one, I had to check in at a window out side of the office. I do understand safety but that is not safe for guests to stand outside holding money in their hands either. After entering the room it seemed ok but I saw 2 live roaches in the bathroom. I overlooked the roaches as I was tired from the drive. As I was about to lay down I pulled the top cover back in my face there is SEMEN stains on the blanket. Not a glimmer of semen, but it was so thick it crusted up on the blanket you could have picked it up. Horrible! So I tell the front desk and he UPGRADES me to a room with a jacuzzi tub and i think ok this is much better the room looked like it had been remodeld. So i decided to get in the jacuzzi while my husband showers. i am in the jacuzzie and its working fine (i did notice there was dirt in the tub probably was not cleaned properly after the last guest) after about 3 minutes all the lights go out except one lamp and  and the tub stops working. I call the front desk and no one answers after several...My experience was not acceptable at all. I arrived in the middle of the night after reserving my hotel based on reviews and the rate.  My first impression was not a good one, I had to check in at a window out side of the office. I do understand safety but that is not safe for guests to stand outside holding money in their hands either. After entering the room it seemed ok but I saw 2 live roaches in the bathroom. I overlooked the roaches as I was tired from the drive. As I was about to lay down I pulled the top cover back in my face there is SEMEN stains on the blanket. Not a glimmer of semen, but it was so thick it crusted up on the blanket you could have picked it up. Horrible! So I tell the front desk and he UPGRADES me to a room with a jacuzzi tub and i think ok this is much better the room looked like it had been remodeld. So i decided to get in the jacuzzi while my husband showers. i am in the jacuzzie and its working fine (i did notice there was dirt in the tub probably was not cleaned properly after the last guest) after about 3 minutes all the lights go out except one lamp and  and the tub stops working. I call the front desk and no one answers after several attempts we say forget it and go to sleep. I tell the front desk the next morning and he says will send maintenance to fix it and he never comes. We check out I tell front desk its still not working and all he offers is an apology. I suggest completly looking over this hotel as there are many hotels in the area that would be much more decent than this...More</t>
   </si>
   <si>
+    <t>Marc I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r169625565-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1789,6 +1981,9 @@
     <t>The park is very close to Six Flags and they offer a shuttle bus to the park.  Our room was cool and very comfortable.  We checked into our room in the middle of the day before going back to Six Flags in the evening.  Since the motel has a swimming pool, it provided us with a refreshing retreat on a day with a 100+ temp.  The room also has a refrigerator &amp; microwave.More</t>
   </si>
   <si>
+    <t>jj_or_rn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r168799202-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1807,6 +2002,9 @@
     <t>This was a very busy motel.  We walked into our room and noticed it was a smoking room and we had reserved a non-smoking room. We decided we could deal with that and just stayed in the smoking room.  The room was extremly dirty.  There were black handprints all over the door and  the door to outside had light shinning through it. The bathroom had someone else's hair on the floor and in the shower.  The sink was clogged with more hair. We found even more hair on the "clean" towels that were also stained.  We also found bugs on the towels and by the bed. We took the shuttle to a Ranger's game. The ride to the game was easy, but we had to wait for the van to take two groups that shoved us out of the way to go first.  A different hotel shuttle offered us a ride back to our motel and we accepted.  The main thing I look for in a hotel/motel is cleanliness and I feel that we overpaid for a room in this condition.  We did not try the breakfast because we just wanted to get out of there. We will not be staying here again.  More</t>
   </si>
   <si>
+    <t>LNBFTB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r166216765-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1846,6 +2044,9 @@
     <t>I was pleasantly surprised when I arrived.  The staff was very pleasant and accommodating.  The only problem I had was that I booked my stay through hotels.com, and they cannot make any changes to your reservations at all.  I'm finding this to be the case with any hotel I book through hotels.com.  At any rate,the hotel was more than I expected.  The room was very clean and the bed was extremely comfortable.  There's also a full-sized refrigerator and microwave in the room.  I didn't see any bugs at all in the room. There are LOTS of places to choose to eat, and it's near many attractions.  The Cowboys Stadium is 5 minutes away, Six-Flags is less than a mile away, and the Rangers Ballpark is right down the street from the Cowboys Stadium.  The hotel does offer a shuttle to area attractions.  It will save you LOTS of money off of parking.  Trust me :)I recommend staying at this hotel.More</t>
   </si>
   <si>
+    <t>Brett H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r155503631-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1864,6 +2065,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>aoriginales</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r153561263-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1879,6 +2083,9 @@
     <t xml:space="preserve">We arrived in Arlington for opening weekend of Six Flags at 5 am and person in charge wouldn't let us check in early. We had to sleep in our car until 10 am when the manager came in and checked us in. Horrible experience. Door to room wouldn't stay shut and bathroom door wouldn't close.  </t>
   </si>
   <si>
+    <t>Rock_Debod</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r144117999-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1900,6 +2107,9 @@
     <t>Four of us went down for golf and to take in a Cowboys game. Booked the motel online based primarily on price and reviews. First impression of motel was not great. Got checked in no problem andd the rooms were nice. Clean and the beds were very comfortable. Then we started to figure why they are popular. They started to shuttle us around. Basically wherever we needed to go, they were fantastic. To and from the golf course. To restaurants. To the game. Whatever we needed.Also close enough to many attractions and restaurants. Walking distance to a place called Humperdinks. It was a good place for food and drink.Anyway, highly recommend this motel Sam and staff were great. Thanks!!More</t>
   </si>
   <si>
+    <t>FanofSidtheKid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r142429570-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2128,9 @@
     <t>My son and I stayed 3 nights at the Knights. It was all we needed, inexpensive, clean and close to everything. The staff were friendly and knowledgable. The shuttle service was great. The fridge worked so the beer stayed cold. Waffle makers made your waffles in the shape of the state of Texas. Free parking was offered (we had a rental car for a couple of days). Three minute walk to Mariano's, a very, very good Mexican restaurant. The only bad part of the trip had nothing to do with the Knights Inn. For some reason there were a bunch of clowns masquerading as the Dallas Cowboys at Cowboys Stadium last Monday night, and they got THUMPED by the Chicago Bears. I recommend this place, it's fine and great value.More</t>
   </si>
   <si>
+    <t>msmfdean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r142345861-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1934,6 +2147,9 @@
   </si>
   <si>
     <t>September 2012</t>
+  </si>
+  <si>
+    <t>bellamia123</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r135615768-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
@@ -1959,6 +2175,9 @@
 The room was decently appointed and relatively clean. There several surfaces with dust on them, but the beds, bath, and toilet were clean. The a/c worked wonderfully, especially in the 104 degree heat. The deal breaker was the issue with the crickets. Upon check-in, we were greeted by 3 of the biggest crickets I have even seen (I suppose everything really is bigger in Texas!). in addition to the three on the walls, within 10 minutes we found 5 of their perished comrades on the carpet. We informed the front desk and were immediately moved. The new room appeared cricket-free, but they soon found their way in. It was obvious they were coming in through the door that was very poorly sealed. In an attempt...My husband and I stayed for 3 nights to visit Cowboys Stadium and see a Rangers game. First, it's important to note that we paid a mere 158 dollars (including taxes) for 3 nights for a room with a king size bed. The hotel operates a shuttle to and from the neighboring Six Flags parks and the Rangers game. At 17 dollars a day for the parks and 10+ dollars for ballpark parking, this is really an unbeatable value in terms of economics. They offer a little continental breakfast with cereal, Belgian waffles, fruit,  and pastries. There is also a small outdoor pool. Parking wasn't plentiful, but it was adequate on a sold out night. The room was decently appointed and relatively clean. There several surfaces with dust on them, but the beds, bath, and toilet were clean. The a/c worked wonderfully, especially in the 104 degree heat. The deal breaker was the issue with the crickets. Upon check-in, we were greeted by 3 of the biggest crickets I have even seen (I suppose everything really is bigger in Texas!). in addition to the three on the walls, within 10 minutes we found 5 of their perished comrades on the carpet. We informed the front desk and were immediately moved. The new room appeared cricket-free, but they soon found their way in. It was obvious they were coming in through the door that was very poorly sealed. In an attempt to alleviate the issue, we stuffed brochures into the many gaps every time we were in the room. This helped a bit, but a few were still able to sneak in. The entire staff was incredibly courteous and helpful throughout our stay. However, upon checkout, I was informed there was nothing they could do about the cricket issue. Crickets may indeed be rampant in the area, but proper weather stripping would do wonders to solve the problem of the unwanted roommates. My husband found no issue with having to remove a few crickets every evening, but it simply wasn't my cup of tea. However, if you can handle a few crickets and are looking to save a substantial amount of money for lodging and parking in the area, then I would definitely consider the Knights Inn as an option. Note: Humperdinks, a restaurant and brewery just down the road, is a great place to watch a game and and enjoy a truly delectable craft beer selection. They also offer a shuttle to select Rangers games.More</t>
   </si>
   <si>
+    <t>Michelle Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r135288501-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1979,6 +2198,9 @@
 I reserved two rooms thru hotels.com. It was inexpensive and a good location. It was myself, hubby, son and his girlfriend. At the time they said they did not have ajoinging rooms. I have to agree with the comment by morjem911 "We Left..". We pulled in around 1:30 in the morning and it was a little busy, hubby got out to get keys, etc. As he was inside, I was looking around the parking lot..looked "ok"..almost sketchy but I thought I was being too picky. Hubby comes out to the car, gets in and we drive up to our building. We are on the 2nd floor away from the pool, it was really late and from what I was told from hubby, the people that checked in before him, paid the front desk in cash to let them swim...about 10 of them, at 1:30 AM. I thought, well we are on the other side, it wont be noisy. We head up to our rooms next to each other, I open the door and almost feel like I was going to fall thru the floor, it was like a sponge in certain spots of the room. I just kept trying to have a positive attitude. I pulled sheets back, looked at the mattress, under/over and everything, checked out the bathroom..dirty. Dead crickets and the tub was really really old. Still thinking..okay i can...PLEASE ALSO READ morjem911 reviews..they are very correct/true.I reserved two rooms thru hotels.com. It was inexpensive and a good location. It was myself, hubby, son and his girlfriend. At the time they said they did not have ajoinging rooms. I have to agree with the comment by morjem911 "We Left..". We pulled in around 1:30 in the morning and it was a little busy, hubby got out to get keys, etc. As he was inside, I was looking around the parking lot..looked "ok"..almost sketchy but I thought I was being too picky. Hubby comes out to the car, gets in and we drive up to our building. We are on the 2nd floor away from the pool, it was really late and from what I was told from hubby, the people that checked in before him, paid the front desk in cash to let them swim...about 10 of them, at 1:30 AM. I thought, well we are on the other side, it wont be noisy. We head up to our rooms next to each other, I open the door and almost feel like I was going to fall thru the floor, it was like a sponge in certain spots of the room. I just kept trying to have a positive attitude. I pulled sheets back, looked at the mattress, under/over and everything, checked out the bathroom..dirty. Dead crickets and the tub was really really old. Still thinking..okay i can deal. I turn on the over head light somewhat close the bed and behold...silver fish (same as a roach, hard to get rid of if you have them in your home) and yes they were alive and more than 5 in the light. I just turned it back off thinking they would go away, but then thought, omg where...our stuff. So I went next door to see son's room...well, same issue with the floor, dead crickets..no silverfish from what I could see, but my hubby was able to find some kind of bodily fluids on the wall next to the bed, the bed skirt and the bedspread. The bathroom was not clean either. So after we discussed it, showed the bugs to hubby he said..LETS GO. So we went down to the office, told the clerk, he kept insisting on showing us another room...so we thought okay, maybe its better. He said they were newer. We walk over to the other two rooms, same thing, except there was some kind of brown dried up "something" on the bathroom counter, toothpaste was all over the mirror, in the sink and the spout. We told the clerk no thank you and as we walked out, I believe we saw a drug deal going on a few doors down. I hope not. So anyways, since we booked with Hotels.com the clerk said we would have to contact them to get a refund, so as the rest of the family packed our stuff back up in the car, I called Hotels.com and explained our situation, she called the clerk on another line and we were refunded our money 100%. So thank you Hotels.com. The clerk was pleasant but as i was standing outside on my cell with Hotels.com, waiting on the family to come down, he locks up the door, closese everything up and leaves. It was around 2:30AM by now...I thought for a hotel/motel, someone should be there. OH well. At any rate, yes they are improving the rooms with paint, new pictures and a few other things...but I wouldnt care if the decor was from the 70s..as long as the room was clean and bug free...I would have been fine. Btw, hubby told me after we left and he pulled his sheets back, he found a bug in the bed. Not sure what kind...but whew I'm glad we did leave.  We drove over to the other side of the highway, stayed at the Hyatt Place, yes it was more money...but it was clean, secure and a wonderful breakfast. Per another hotel's desk clerk..."Oh honey, you never stay across the hwy"More</t>
   </si>
   <si>
+    <t>johncalvinadams</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r129115049-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1997,6 +2219,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Tone M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r118700590-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2030,6 +2255,9 @@
     <t>Great value for the money. Also, a perfect location to Rangers, Cowboys, Six Flags and they run their own shuttle service to all these places when you want to go. They also shuttle to and from DFW &amp; Love Field. We go 10-12 times a year and they are upgrading a building at a time.</t>
   </si>
   <si>
+    <t>SunMac123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r117553418-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2048,6 +2276,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>tennelou</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r110635443-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2066,6 +2297,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>Ryanmom_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r100678259-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2081,6 +2315,9 @@
     <t>This hotel was pretty plain, but very close to Six Flags.  Rooms and exterior were a little worn, but fairly clean.  We booked three rooms for our trip and were given all three together.  Pool looked very clean!  Breakfast was waffels and cereal.  Staff was very friendly and shuttle was GREAT!!!  Would recommend for the price!</t>
   </si>
   <si>
+    <t>TX_Travler0706</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r96040102-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2102,6 +2339,9 @@
     <t>We stayed at the Knights Inn for the Cotton Bowl January 7, 2010.  We were VERY nervous staying about staying at a motel but decided to give it a try since all the hotels within reasonable cab distance to Cowboys stadium were either booked or going for $200+ that night.  We got the room for about $70 which is a lot for a motel but I suspect the price reflects Arlington being overbooked for the weekend.The location was pretty good, you're very close to many main attractions, Cowboys stadium, Rangers stadium, and Six Flags.  You're across a highway so it's difficult to walk but they do offer a free shuttle (which we used) to these attractions.The rooms are old, dated and worn.  However they seemed to be kept very clean and that's why we gave this hotel a good rating.  The service was good as well, we showed up at 10am and the desk clerk was happy to check us in without a fee.Overall we had a nice stay and didn't have to blow the budget on unecessary frills or cab rides.  We felt safe and the rooms were kept clean.  This motel would be good for anyone traveling on a budget to Dallas for a sporting event or to visit Six Flags.More</t>
   </si>
   <si>
+    <t>youdontwannaknow83</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r73919327-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2123,6 +2363,9 @@
     <t>I was very impressed by this place at first. We were greeted by the manager and two other people that were getting trained in. All friendly. They told us our room wasn't ready but we could wait or get dropped off at Six Flags like we had planned for the day. We decided to put our car by our room and then come back. Our room was finished by the time we went over there so we brought our stuff inside. It was okay. The bed looked a little messy and when I went to the bathroom the seat was up and there was yellow sprayed all over the seat. It really looked like urine which I thought was a little disgusting. We left for the day and came back at 6:45pm. For the next hour we killed 10 bugs(as shown in pic). At 7:45 on our way to dinner we stopped at the front desk and informed the man working. He walked t our room and checked it out, told us they were crickets and that it's a seasonal issue. There was a gap under our door and the side and also to the door connecting our room with another room. I don't think it was just a "seasonal" problem. Problem would be that there is a lot of maintenance that needs to be done. He did offer us another room so we said we'd change out when we...I was very impressed by this place at first. We were greeted by the manager and two other people that were getting trained in. All friendly. They told us our room wasn't ready but we could wait or get dropped off at Six Flags like we had planned for the day. We decided to put our car by our room and then come back. Our room was finished by the time we went over there so we brought our stuff inside. It was okay. The bed looked a little messy and when I went to the bathroom the seat was up and there was yellow sprayed all over the seat. It really looked like urine which I thought was a little disgusting. We left for the day and came back at 6:45pm. For the next hour we killed 10 bugs(as shown in pic). At 7:45 on our way to dinner we stopped at the front desk and informed the man working. He walked t our room and checked it out, told us they were crickets and that it's a seasonal issue. There was a gap under our door and the side and also to the door connecting our room with another room. I don't think it was just a "seasonal" problem. Problem would be that there is a lot of maintenance that needs to be done. He did offer us another room so we said we'd change out when we got back from dinner. At 9pm when we came back we decided to just sleep in the room and deal with it since moving would be a pain. Crickets chirped all night long and we continued to find more of them hidden in the dark carpet. This picture is the final cricket we saw and left alive as we left completely disgusted by the way they take care of this place. We did take advantage of the breakfast which was cereal, muffins and juice. If you're okay with crickets and maybe not the cleanest place try it out, but if you want to feel safer and cleaner I'd pay a little more and go elsewhere.More</t>
   </si>
   <si>
+    <t>mreece72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r71508757-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2141,6 +2384,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>wrwhite</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r63376954-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2159,6 +2405,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>cynjeff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r56145051-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2180,6 +2429,9 @@
     <t>My husband and I traveled 1,310 miles to Arlington, Texas for the Valentine's Day and the 2010 NBA All-Star Game.  The Knights Inn Arlington reviews were good so we prepaid for 3 nights.  The hotel is absolutely disgusting and filthy!  Someone had left BM in the toilet, and there was black mold, mildew, and fungus in the bath tub that had been there for months!  The walls were dirty and patched with plaster everywhere.  When we complained, the hotel manager gave us a key to another room that was unlocked and wide open!  The hotel manager negotiated the room costs with guests who paid in cash and counted out $1 bills!  Most hotels were sold out due to the game and holiday, but we kept our clothes on and checked out as soon as we found another hotel!  The Knights Inn Arlington subjects its guests to inhumane conditions and filth.  You would do better sleeping outside!More</t>
   </si>
   <si>
+    <t>coachau1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r45924607-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2198,6 +2450,9 @@
     <t>October 2009</t>
   </si>
   <si>
+    <t>funmommyof</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r45107420-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2211,6 +2466,9 @@
   </si>
   <si>
     <t>what a pleasant surprise.  Hotel is not fancy but was a great place to stay.  Staff was super friendly and actually shuttled us to our destinations for free.  The pool was small but clean and fun. Rooms were equipped with microwave &amp; full size fridge, sofa, hairdryer &amp; nice tv.  Local calls were free. Breakfast included danishes, cereal, juice &amp; fruit. The location was great- directly across freeway from Six Flags and just a few blocks from Rangers Baseball Park and Cowboys Stadium. Numerous restaurants around.  Again- staff was friendly and very helpful.</t>
+  </si>
+  <si>
+    <t>fred132</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d655851-r30116531-Red_Roof_Inn_Arlington-Arlington_Texas.html</t>
@@ -2733,43 +2991,47 @@
       <c r="A2" t="n">
         <v>23313</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174940</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2781,56 +3043,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>23313</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174941</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2846,56 +3112,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>23313</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>56014</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2913,56 +3183,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>23313</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174942</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2978,56 +3252,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>23313</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174943</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3039,56 +3317,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>23313</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174944</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3104,56 +3386,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>23313</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174945</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3165,56 +3451,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>23313</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174946</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>116</v>
       </c>
-      <c r="L9" t="s">
-        <v>117</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>109</v>
-      </c>
       <c r="O9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3226,56 +3516,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>23313</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2772</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3293,56 +3587,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>23313</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>17711</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3360,56 +3658,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>23313</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174947</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3421,56 +3723,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>23313</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3486,56 +3792,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>23313</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>174948</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O14" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3547,56 +3857,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>23313</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174949</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3614,56 +3928,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>23313</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174950</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s">
+        <v>186</v>
+      </c>
+      <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>169</v>
       </c>
-      <c r="J16" t="s">
-        <v>170</v>
-      </c>
-      <c r="K16" t="s">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s">
-        <v>172</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>156</v>
-      </c>
       <c r="O16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3679,56 +3997,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>23313</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174951</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3746,56 +4068,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>23313</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>4408</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O18" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -3813,56 +4139,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="X18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Y18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>23313</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174952</v>
+      </c>
+      <c r="C19" t="s">
+        <v>209</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="J19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="K19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="L19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3880,56 +4210,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="X19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>23313</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174953</v>
+      </c>
+      <c r="C20" t="s">
+        <v>218</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O20" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3945,56 +4279,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>23313</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>174954</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4012,56 +4350,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="X21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>23313</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>23406</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4079,56 +4421,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>23313</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174955</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4140,56 +4486,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>23313</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174956</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4201,56 +4551,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>23313</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174957</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -4268,56 +4622,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="X25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="Y25" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>23313</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>2788</v>
+      </c>
+      <c r="C26" t="s">
+        <v>276</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="L26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4333,56 +4691,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="Y26" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>23313</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174958</v>
+      </c>
+      <c r="C27" t="s">
+        <v>286</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="J27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="K27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="O27" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4394,56 +4756,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="X27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="Y27" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>23313</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>813</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="O28" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4455,56 +4821,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="X28" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="Y28" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>23313</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>38324</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="J29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="K29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="L29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4522,56 +4892,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="X29" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="Y29" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>23313</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174959</v>
+      </c>
+      <c r="C30" t="s">
+        <v>314</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="O30" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4589,56 +4963,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>23313</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174960</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="O31" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4656,56 +5034,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>23313</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>174961</v>
+      </c>
+      <c r="C32" t="s">
+        <v>334</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4723,56 +5105,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="X32" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>23313</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>5411</v>
+      </c>
+      <c r="C33" t="s">
+        <v>344</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="L33" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O33" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4784,56 +5170,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="X33" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="Y33" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>23313</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174962</v>
+      </c>
+      <c r="C34" t="s">
+        <v>353</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="J34" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="K34" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="L34" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4851,56 +5241,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="X34" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="Y34" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>23313</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>14315</v>
+      </c>
+      <c r="C35" t="s">
+        <v>363</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="J35" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="K35" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="L35" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4918,56 +5312,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="X35" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="Y35" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>23313</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>373</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="J36" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="K36" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="O36" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4979,56 +5377,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="X36" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Y36" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>23313</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>174963</v>
+      </c>
+      <c r="C37" t="s">
+        <v>382</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="J37" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K37" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L37" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O37" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5044,56 +5446,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="X37" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="Y37" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>23313</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>112755</v>
+      </c>
+      <c r="C38" t="s">
+        <v>391</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="J38" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="K38" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="L38" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="O38" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5111,56 +5517,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="X38" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="Y38" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>23313</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174964</v>
+      </c>
+      <c r="C39" t="s">
+        <v>400</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>402</v>
       </c>
       <c r="J39" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="K39" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="L39" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5176,56 +5586,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="X39" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="Y39" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>23313</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174965</v>
+      </c>
+      <c r="C40" t="s">
+        <v>410</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="J40" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="K40" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="L40" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5241,56 +5655,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="X40" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="Y40" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>23313</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>174966</v>
+      </c>
+      <c r="C41" t="s">
+        <v>419</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="J41" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="K41" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="L41" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5302,47 +5720,51 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="X41" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="Y41" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>23313</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>51262</v>
+      </c>
+      <c r="C42" t="s">
+        <v>429</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="J42" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="K42" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="L42" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -5359,56 +5781,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="X42" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="Y42" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>23313</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174967</v>
+      </c>
+      <c r="C43" t="s">
+        <v>436</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="J43" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="K43" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="L43" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="O43" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5424,56 +5850,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="X43" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="Y43" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>23313</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>174968</v>
+      </c>
+      <c r="C44" t="s">
+        <v>446</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="J44" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="K44" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="L44" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5491,47 +5921,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="X44" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="Y44" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>23313</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>174969</v>
+      </c>
+      <c r="C45" t="s">
+        <v>455</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="J45" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="K45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="L45" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -5558,56 +5992,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="X45" t="s">
-        <v>418</v>
+        <v>462</v>
       </c>
       <c r="Y45" t="s">
-        <v>419</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>23313</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>8260</v>
+      </c>
+      <c r="C46" t="s">
+        <v>464</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="J46" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="K46" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="L46" t="s">
-        <v>424</v>
+        <v>469</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5621,47 +6059,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>426</v>
+        <v>471</v>
       </c>
       <c r="X46" t="s">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="Y46" t="s">
-        <v>428</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>23313</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174970</v>
+      </c>
+      <c r="C47" t="s">
+        <v>474</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="J47" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="K47" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="L47" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -5688,56 +6130,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="X47" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Y47" t="s">
-        <v>436</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>23313</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174971</v>
+      </c>
+      <c r="C48" t="s">
+        <v>483</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="J48" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="K48" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
       <c r="L48" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="O48" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5753,56 +6199,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>443</v>
+        <v>490</v>
       </c>
       <c r="X48" t="s">
-        <v>444</v>
+        <v>491</v>
       </c>
       <c r="Y48" t="s">
-        <v>445</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>23313</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174972</v>
+      </c>
+      <c r="C49" t="s">
+        <v>493</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="J49" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="K49" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="L49" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>489</v>
       </c>
       <c r="O49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5820,56 +6270,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="X49" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
       <c r="Y49" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>23313</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>29513</v>
+      </c>
+      <c r="C50" t="s">
+        <v>502</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="J50" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="K50" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="L50" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>459</v>
+        <v>508</v>
       </c>
       <c r="O50" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5881,56 +6335,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="X50" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="Y50" t="s">
-        <v>462</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>23313</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>174973</v>
+      </c>
+      <c r="C51" t="s">
+        <v>512</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="J51" t="s">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="K51" t="s">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="L51" t="s">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5948,56 +6406,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="X51" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="Y51" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>23313</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174974</v>
+      </c>
+      <c r="C52" t="s">
+        <v>522</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>472</v>
+        <v>523</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="J52" t="s">
-        <v>474</v>
+        <v>525</v>
       </c>
       <c r="K52" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="L52" t="s">
-        <v>476</v>
+        <v>527</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>518</v>
       </c>
       <c r="O52" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6015,47 +6477,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="X52" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="Y52" t="s">
-        <v>479</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>23313</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>44744</v>
+      </c>
+      <c r="C53" t="s">
+        <v>531</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
       <c r="J53" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="K53" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="L53" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -6082,56 +6548,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>485</v>
+        <v>537</v>
       </c>
       <c r="X53" t="s">
-        <v>486</v>
+        <v>538</v>
       </c>
       <c r="Y53" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>23313</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>174975</v>
+      </c>
+      <c r="C54" t="s">
+        <v>540</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="J54" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="K54" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="L54" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="O54" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6147,56 +6617,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="X54" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="Y54" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>23313</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>174976</v>
+      </c>
+      <c r="C55" t="s">
+        <v>550</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>497</v>
+        <v>551</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>498</v>
+        <v>552</v>
       </c>
       <c r="J55" t="s">
-        <v>499</v>
+        <v>553</v>
       </c>
       <c r="K55" t="s">
-        <v>500</v>
+        <v>554</v>
       </c>
       <c r="L55" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>502</v>
+        <v>556</v>
       </c>
       <c r="O55" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6212,56 +6686,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>503</v>
+        <v>557</v>
       </c>
       <c r="X55" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="Y55" t="s">
-        <v>505</v>
+        <v>559</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>23313</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>174977</v>
+      </c>
+      <c r="C56" t="s">
+        <v>560</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="J56" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="K56" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="L56" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="O56" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -6279,47 +6757,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="X56" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="Y56" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>23313</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>174978</v>
+      </c>
+      <c r="C57" t="s">
+        <v>570</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="J57" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="K57" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="L57" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
@@ -6346,56 +6828,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="X57" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="Y57" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>23313</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>9167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>579</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="J58" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="K58" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="L58" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="O58" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6413,54 +6899,58 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="X58" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="Y58" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>23313</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>174979</v>
+      </c>
+      <c r="C59" t="s">
+        <v>589</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>532</v>
+        <v>590</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>533</v>
+        <v>591</v>
       </c>
       <c r="J59" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>536</v>
+        <v>594</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -6482,56 +6972,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="X59" t="s">
-        <v>538</v>
+        <v>596</v>
       </c>
       <c r="Y59" t="s">
-        <v>539</v>
+        <v>597</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>23313</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174980</v>
+      </c>
+      <c r="C60" t="s">
+        <v>598</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>540</v>
+        <v>599</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
       <c r="J60" t="s">
-        <v>542</v>
+        <v>601</v>
       </c>
       <c r="K60" t="s">
-        <v>543</v>
+        <v>602</v>
       </c>
       <c r="L60" t="s">
-        <v>544</v>
+        <v>603</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6543,56 +7037,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>545</v>
+        <v>604</v>
       </c>
       <c r="X60" t="s">
-        <v>546</v>
+        <v>605</v>
       </c>
       <c r="Y60" t="s">
-        <v>547</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>23313</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>64108</v>
+      </c>
+      <c r="C61" t="s">
+        <v>607</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="J61" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="K61" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="L61" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="O61" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6614,56 +7112,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="X61" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="Y61" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>23313</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>174981</v>
+      </c>
+      <c r="C62" t="s">
+        <v>617</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="J62" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="K62" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
       <c r="L62" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6685,56 +7187,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="X62" t="s">
-        <v>564</v>
+        <v>625</v>
       </c>
       <c r="Y62" t="s">
-        <v>565</v>
+        <v>626</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>23313</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>174982</v>
+      </c>
+      <c r="C63" t="s">
+        <v>627</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>566</v>
+        <v>628</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>567</v>
+        <v>629</v>
       </c>
       <c r="J63" t="s">
-        <v>568</v>
+        <v>630</v>
       </c>
       <c r="K63" t="s">
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="L63" t="s">
-        <v>570</v>
+        <v>632</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6756,56 +7262,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="X63" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Y63" t="s">
-        <v>573</v>
+        <v>635</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>23313</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>174983</v>
+      </c>
+      <c r="C64" t="s">
+        <v>636</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>574</v>
+        <v>637</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="J64" t="s">
-        <v>576</v>
+        <v>639</v>
       </c>
       <c r="K64" t="s">
-        <v>577</v>
+        <v>640</v>
       </c>
       <c r="L64" t="s">
-        <v>578</v>
+        <v>641</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6827,56 +7337,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="X64" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Y64" t="s">
-        <v>579</v>
+        <v>642</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>23313</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>174984</v>
+      </c>
+      <c r="C65" t="s">
+        <v>643</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>580</v>
+        <v>644</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>581</v>
+        <v>645</v>
       </c>
       <c r="J65" t="s">
-        <v>582</v>
+        <v>646</v>
       </c>
       <c r="K65" t="s">
-        <v>583</v>
+        <v>647</v>
       </c>
       <c r="L65" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>585</v>
+        <v>649</v>
       </c>
       <c r="O65" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6898,47 +7412,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="X65" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Y65" t="s">
-        <v>586</v>
+        <v>650</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>23313</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>174985</v>
+      </c>
+      <c r="C66" t="s">
+        <v>651</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
       <c r="J66" t="s">
-        <v>589</v>
+        <v>654</v>
       </c>
       <c r="K66" t="s">
-        <v>590</v>
+        <v>655</v>
       </c>
       <c r="L66" t="s">
-        <v>591</v>
+        <v>656</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -6965,47 +7483,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="X66" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Y66" t="s">
-        <v>592</v>
+        <v>657</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>23313</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174986</v>
+      </c>
+      <c r="C67" t="s">
+        <v>658</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
       <c r="J67" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="K67" t="s">
-        <v>596</v>
+        <v>662</v>
       </c>
       <c r="L67" t="s">
-        <v>597</v>
+        <v>663</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
@@ -7032,56 +7554,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="X67" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Y67" t="s">
-        <v>598</v>
+        <v>664</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>23313</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174972</v>
+      </c>
+      <c r="C68" t="s">
+        <v>512</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>599</v>
+        <v>665</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>600</v>
+        <v>666</v>
       </c>
       <c r="J68" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="K68" t="s">
-        <v>602</v>
+        <v>668</v>
       </c>
       <c r="L68" t="s">
-        <v>603</v>
+        <v>669</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>604</v>
+        <v>670</v>
       </c>
       <c r="O68" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7103,56 +7629,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>571</v>
+        <v>633</v>
       </c>
       <c r="X68" t="s">
-        <v>572</v>
+        <v>634</v>
       </c>
       <c r="Y68" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>23313</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>4149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>672</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>606</v>
+        <v>673</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>607</v>
+        <v>674</v>
       </c>
       <c r="J69" t="s">
-        <v>608</v>
+        <v>675</v>
       </c>
       <c r="K69" t="s">
-        <v>609</v>
+        <v>676</v>
       </c>
       <c r="L69" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>611</v>
+        <v>678</v>
       </c>
       <c r="O69" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7176,41 +7706,45 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>610</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>23313</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>174987</v>
+      </c>
+      <c r="C70" t="s">
+        <v>679</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>613</v>
+        <v>681</v>
       </c>
       <c r="J70" t="s">
-        <v>614</v>
+        <v>682</v>
       </c>
       <c r="K70" t="s">
-        <v>615</v>
+        <v>683</v>
       </c>
       <c r="L70" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
       <c r="M70" t="n">
         <v>2</v>
@@ -7239,50 +7773,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>616</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>23313</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>174988</v>
+      </c>
+      <c r="C71" t="s">
+        <v>685</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>617</v>
+        <v>686</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>618</v>
+        <v>687</v>
       </c>
       <c r="J71" t="s">
-        <v>619</v>
+        <v>688</v>
       </c>
       <c r="K71" t="s">
-        <v>620</v>
+        <v>689</v>
       </c>
       <c r="L71" t="s">
-        <v>621</v>
+        <v>690</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>622</v>
+        <v>691</v>
       </c>
       <c r="O71" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7306,50 +7844,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>623</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>23313</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>174989</v>
+      </c>
+      <c r="C72" t="s">
+        <v>693</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="J72" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="K72" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="L72" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>622</v>
+        <v>691</v>
       </c>
       <c r="O72" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7373,50 +7915,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>23313</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>174990</v>
+      </c>
+      <c r="C73" t="s">
+        <v>700</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>630</v>
+        <v>701</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>631</v>
+        <v>702</v>
       </c>
       <c r="J73" t="s">
-        <v>632</v>
+        <v>703</v>
       </c>
       <c r="K73" t="s">
-        <v>633</v>
+        <v>704</v>
       </c>
       <c r="L73" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>635</v>
+        <v>706</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7440,50 +7986,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>23313</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>174991</v>
+      </c>
+      <c r="C74" t="s">
+        <v>707</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
       <c r="J74" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="K74" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="L74" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7507,50 +8057,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>23313</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>34422</v>
+      </c>
+      <c r="C75" t="s">
+        <v>715</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
       <c r="J75" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
       <c r="K75" t="s">
-        <v>646</v>
+        <v>719</v>
       </c>
       <c r="L75" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="O75" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7574,50 +8128,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>23313</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>174992</v>
+      </c>
+      <c r="C76" t="s">
+        <v>722</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="J76" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="K76" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="L76" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>654</v>
+        <v>728</v>
       </c>
       <c r="O76" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7641,50 +8199,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>23313</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>174993</v>
+      </c>
+      <c r="C77" t="s">
+        <v>729</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="J77" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="K77" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="L77" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="O77" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7708,50 +8270,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>23313</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>174981</v>
+      </c>
+      <c r="C78" t="s">
+        <v>627</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>662</v>
+        <v>737</v>
       </c>
       <c r="J78" t="s">
-        <v>663</v>
+        <v>738</v>
       </c>
       <c r="K78" t="s">
-        <v>664</v>
+        <v>739</v>
       </c>
       <c r="L78" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7775,50 +8341,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>665</v>
+        <v>740</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>23313</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>174994</v>
+      </c>
+      <c r="C79" t="s">
+        <v>741</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="J79" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="K79" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="L79" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7838,50 +8408,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>23313</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>174995</v>
+      </c>
+      <c r="C80" t="s">
+        <v>748</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="J80" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="K80" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="L80" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>677</v>
+        <v>754</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7905,41 +8479,45 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>23313</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>174996</v>
+      </c>
+      <c r="C81" t="s">
+        <v>755</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="J81" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="K81" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="L81" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
@@ -7968,50 +8546,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>23313</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>174997</v>
+      </c>
+      <c r="C82" t="s">
+        <v>761</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
       <c r="J82" t="s">
-        <v>685</v>
+        <v>764</v>
       </c>
       <c r="K82" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="L82" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>3</v>
@@ -8035,50 +8617,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>23313</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>174998</v>
+      </c>
+      <c r="C83" t="s">
+        <v>769</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="J83" t="s">
-        <v>692</v>
+        <v>772</v>
       </c>
       <c r="K83" t="s">
-        <v>693</v>
+        <v>773</v>
       </c>
       <c r="L83" t="s">
-        <v>694</v>
+        <v>774</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8102,50 +8688,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>23313</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C84" t="s">
+        <v>777</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>697</v>
+        <v>778</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>698</v>
+        <v>779</v>
       </c>
       <c r="J84" t="s">
-        <v>699</v>
+        <v>780</v>
       </c>
       <c r="K84" t="s">
-        <v>700</v>
+        <v>781</v>
       </c>
       <c r="L84" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="O84" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8169,50 +8759,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>701</v>
+        <v>782</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>23313</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>175000</v>
+      </c>
+      <c r="C85" t="s">
+        <v>784</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>703</v>
+        <v>785</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="J85" t="s">
-        <v>705</v>
+        <v>787</v>
       </c>
       <c r="K85" t="s">
-        <v>706</v>
+        <v>788</v>
       </c>
       <c r="L85" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8236,50 +8830,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>707</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>23313</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>175001</v>
+      </c>
+      <c r="C86" t="s">
+        <v>791</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>709</v>
+        <v>792</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>710</v>
+        <v>793</v>
       </c>
       <c r="J86" t="s">
-        <v>711</v>
+        <v>794</v>
       </c>
       <c r="K86" t="s">
-        <v>712</v>
+        <v>795</v>
       </c>
       <c r="L86" t="s">
-        <v>713</v>
+        <v>796</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>714</v>
+        <v>797</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -8303,50 +8901,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>715</v>
+        <v>798</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>23313</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>175002</v>
+      </c>
+      <c r="C87" t="s">
+        <v>799</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>716</v>
+        <v>800</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>717</v>
+        <v>801</v>
       </c>
       <c r="J87" t="s">
-        <v>718</v>
+        <v>802</v>
       </c>
       <c r="K87" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="L87" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="O87" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8370,50 +8972,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>23313</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>175003</v>
+      </c>
+      <c r="C88" t="s">
+        <v>806</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>722</v>
+        <v>807</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>723</v>
+        <v>808</v>
       </c>
       <c r="J88" t="s">
-        <v>724</v>
+        <v>809</v>
       </c>
       <c r="K88" t="s">
-        <v>725</v>
+        <v>810</v>
       </c>
       <c r="L88" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>708</v>
+        <v>790</v>
       </c>
       <c r="O88" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8437,50 +9043,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>726</v>
+        <v>811</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>23313</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>175004</v>
+      </c>
+      <c r="C89" t="s">
+        <v>812</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
       <c r="J89" t="s">
-        <v>729</v>
+        <v>815</v>
       </c>
       <c r="K89" t="s">
-        <v>730</v>
+        <v>816</v>
       </c>
       <c r="L89" t="s">
-        <v>731</v>
+        <v>817</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>732</v>
+        <v>818</v>
       </c>
       <c r="O89" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8504,7 +9114,7 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>731</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
